--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.909215090239884</v>
+        <v>0.9092150902398846</v>
       </c>
       <c r="D2">
         <v>1.011867934016116</v>
       </c>
       <c r="E2">
-        <v>0.9270132251349724</v>
+        <v>0.9270132251349726</v>
       </c>
       <c r="F2">
-        <v>0.9387514798311132</v>
+        <v>0.9387514798311135</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042539068625646</v>
       </c>
       <c r="J2">
-        <v>0.9344972689421432</v>
+        <v>0.9344972689421437</v>
       </c>
       <c r="K2">
-        <v>1.023164369107591</v>
+        <v>1.023164369107592</v>
       </c>
       <c r="L2">
-        <v>0.9395926014328738</v>
+        <v>0.939592601432874</v>
       </c>
       <c r="M2">
-        <v>0.951135618805692</v>
+        <v>0.9511356188056922</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9232355323783646</v>
+        <v>0.923235532378365</v>
       </c>
       <c r="D3">
-        <v>1.016848202996528</v>
+        <v>1.016848202996529</v>
       </c>
       <c r="E3">
-        <v>0.9388708201790514</v>
+        <v>0.9388708201790521</v>
       </c>
       <c r="F3">
         <v>0.9514729251263428</v>
@@ -477,16 +477,16 @@
         <v>1.044567954165176</v>
       </c>
       <c r="J3">
-        <v>0.9460626173092713</v>
+        <v>0.9460626173092718</v>
       </c>
       <c r="K3">
         <v>1.027269952647049</v>
       </c>
       <c r="L3">
-        <v>0.9503506029037736</v>
+        <v>0.9503506029037742</v>
       </c>
       <c r="M3">
-        <v>0.9627668291263807</v>
+        <v>0.9627668291263809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9317969516802114</v>
+        <v>0.9317969516802119</v>
       </c>
       <c r="D4">
         <v>1.01991367302165</v>
       </c>
       <c r="E4">
-        <v>0.9461234698204084</v>
+        <v>0.9461234698204091</v>
       </c>
       <c r="F4">
-        <v>0.9592561911874983</v>
+        <v>0.9592561911874987</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045793276124079</v>
       </c>
       <c r="J4">
-        <v>0.9531222636985104</v>
+        <v>0.9531222636985108</v>
       </c>
       <c r="K4">
         <v>1.029777554615725</v>
       </c>
       <c r="L4">
-        <v>0.9569187817938357</v>
+        <v>0.9569187817938363</v>
       </c>
       <c r="M4">
-        <v>0.969872571614264</v>
+        <v>0.9698725716142644</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9352870392876652</v>
+        <v>0.9352870392876657</v>
       </c>
       <c r="D5">
         <v>1.021167548416571</v>
       </c>
       <c r="E5">
-        <v>0.9490824984375275</v>
+        <v>0.9490824984375277</v>
       </c>
       <c r="F5">
-        <v>0.9624312933710943</v>
+        <v>0.9624312933710948</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046288808820542</v>
       </c>
       <c r="J5">
-        <v>0.9559992401675506</v>
+        <v>0.9559992401675508</v>
       </c>
       <c r="K5">
         <v>1.030798671186476</v>
       </c>
       <c r="L5">
-        <v>0.9595957575863016</v>
+        <v>0.9595957575863018</v>
       </c>
       <c r="M5">
-        <v>0.9727687286818226</v>
+        <v>0.9727687286818232</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9358669794617288</v>
+        <v>0.9358669794617279</v>
       </c>
       <c r="D6">
         <v>1.021376108207924</v>
       </c>
       <c r="E6">
-        <v>0.9495743284103948</v>
+        <v>0.949574328410394</v>
       </c>
       <c r="F6">
-        <v>0.9629589881860845</v>
+        <v>0.9629589881860844</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046370897361805</v>
       </c>
       <c r="J6">
-        <v>0.9564772400596891</v>
+        <v>0.9564772400596887</v>
       </c>
       <c r="K6">
         <v>1.030968248826035</v>
       </c>
       <c r="L6">
-        <v>0.9600405437880801</v>
+        <v>0.9600405437880795</v>
       </c>
       <c r="M6">
-        <v>0.973249911746237</v>
+        <v>0.9732499117462367</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9318439995975174</v>
+        <v>0.931843999597516</v>
       </c>
       <c r="D7">
         <v>1.019930560972943</v>
       </c>
       <c r="E7">
-        <v>0.9461633495055608</v>
+        <v>0.9461633495055595</v>
       </c>
       <c r="F7">
-        <v>0.9592989857661485</v>
+        <v>0.959298985766148</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045799972812615</v>
       </c>
       <c r="J7">
-        <v>0.9531610505689582</v>
+        <v>0.9531610505689567</v>
       </c>
       <c r="K7">
-        <v>1.029791325695145</v>
+        <v>1.029791325695144</v>
       </c>
       <c r="L7">
-        <v>0.9569548712069489</v>
+        <v>0.9569548712069477</v>
       </c>
       <c r="M7">
-        <v>0.9699116167450906</v>
+        <v>0.9699116167450902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9140678391840364</v>
+        <v>0.9140678391840374</v>
       </c>
       <c r="D8">
         <v>1.013585381263811</v>
       </c>
       <c r="E8">
-        <v>0.931114523365679</v>
+        <v>0.9311145233656801</v>
       </c>
       <c r="F8">
-        <v>0.9431504334454466</v>
+        <v>0.9431504334454474</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043243749766199</v>
       </c>
       <c r="J8">
-        <v>0.9385006240926548</v>
+        <v>0.9385006240926558</v>
       </c>
       <c r="K8">
         <v>1.024584421451968</v>
       </c>
       <c r="L8">
-        <v>0.9433161751196628</v>
+        <v>0.9433161751196638</v>
       </c>
       <c r="M8">
-        <v>0.9551598100581209</v>
+        <v>0.9551598100581216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8780710801688474</v>
+        <v>0.8780710801688476</v>
       </c>
       <c r="D9">
         <v>1.001045754487793</v>
       </c>
       <c r="E9">
-        <v>0.9007701312096964</v>
+        <v>0.900770131209697</v>
       </c>
       <c r="F9">
-        <v>0.9106676619743401</v>
+        <v>0.9106676619743402</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037992642306302</v>
       </c>
       <c r="J9">
-        <v>0.9088090904172887</v>
+        <v>0.9088090904172892</v>
       </c>
       <c r="K9">
-        <v>1.014121887809891</v>
+        <v>1.01412188780989</v>
       </c>
       <c r="L9">
-        <v>0.9157082887312984</v>
+        <v>0.9157082887312988</v>
       </c>
       <c r="M9">
-        <v>0.9253979373566054</v>
+        <v>0.9253979373566056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8494457689822074</v>
+        <v>0.8494457689822097</v>
       </c>
       <c r="D10">
-        <v>0.991480258089471</v>
+        <v>0.9914802580894717</v>
       </c>
       <c r="E10">
-        <v>0.8767839466564999</v>
+        <v>0.8767839466565022</v>
       </c>
       <c r="F10">
-        <v>0.8851650416655976</v>
+        <v>0.8851650416655995</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03384545257147</v>
       </c>
       <c r="J10">
-        <v>0.8852323725092552</v>
+        <v>0.8852323725092575</v>
       </c>
       <c r="K10">
         <v>1.006005062008221</v>
       </c>
       <c r="L10">
-        <v>0.8938019519512928</v>
+        <v>0.893801951951295</v>
       </c>
       <c r="M10">
-        <v>0.9019713193930708</v>
+        <v>0.9019713193930726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8354149822766889</v>
+        <v>0.835414982276687</v>
       </c>
       <c r="D11">
-        <v>0.9869513384422421</v>
+        <v>0.9869513384422414</v>
       </c>
       <c r="E11">
-        <v>0.8650806643046506</v>
+        <v>0.8650806643046489</v>
       </c>
       <c r="F11">
-        <v>0.8728048891034665</v>
+        <v>0.8728048891034652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031846298218258</v>
+        <v>1.031846298218257</v>
       </c>
       <c r="J11">
-        <v>0.8736980337766163</v>
+        <v>0.8736980337766146</v>
       </c>
       <c r="K11">
-        <v>1.002123601412615</v>
+        <v>1.002123601412614</v>
       </c>
       <c r="L11">
-        <v>0.8830907940771932</v>
+        <v>0.8830907940771913</v>
       </c>
       <c r="M11">
-        <v>0.890603081664444</v>
+        <v>0.8906030816644426</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8298846771773822</v>
+        <v>0.8298846771773806</v>
       </c>
       <c r="D12">
-        <v>0.9851977898669548</v>
+        <v>0.9851977898669549</v>
       </c>
       <c r="E12">
-        <v>0.8604782931736219</v>
+        <v>0.8604782931736206</v>
       </c>
       <c r="F12">
-        <v>0.867961974594293</v>
+        <v>0.8679619745942924</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031066625976986</v>
       </c>
       <c r="J12">
-        <v>0.8691567878293421</v>
+        <v>0.8691567878293409</v>
       </c>
       <c r="K12">
         <v>1.000614179634811</v>
       </c>
       <c r="L12">
-        <v>0.8788748440686522</v>
+        <v>0.8788748440686509</v>
       </c>
       <c r="M12">
-        <v>0.8861466503359861</v>
+        <v>0.8861466503359854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8310869212820695</v>
+        <v>0.8310869212820684</v>
       </c>
       <c r="D13">
-        <v>0.9855774340586648</v>
+        <v>0.9855774340586645</v>
       </c>
       <c r="E13">
-        <v>0.8614782886935914</v>
+        <v>0.8614782886935907</v>
       </c>
       <c r="F13">
-        <v>0.8690133301330172</v>
+        <v>0.8690133301330164</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031235683964298</v>
       </c>
       <c r="J13">
-        <v>0.8701437542272777</v>
+        <v>0.8701437542272766</v>
       </c>
       <c r="K13">
         <v>1.000941281448838</v>
       </c>
       <c r="L13">
-        <v>0.8797910527520562</v>
+        <v>0.8797910527520555</v>
       </c>
       <c r="M13">
-        <v>0.8871142018917059</v>
+        <v>0.8871142018917052</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8349648917199802</v>
+        <v>0.83496489171998</v>
       </c>
       <c r="D14">
-        <v>0.9868079409867689</v>
+        <v>0.9868079409867682</v>
       </c>
       <c r="E14">
-        <v>0.8647058664246119</v>
+        <v>0.8647058664246116</v>
       </c>
       <c r="F14">
-        <v>0.8724101091721655</v>
+        <v>0.8724101091721651</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031782655171804</v>
       </c>
       <c r="J14">
-        <v>0.8733283247847657</v>
+        <v>0.8733283247847655</v>
       </c>
       <c r="K14">
-        <v>1.002000305230719</v>
+        <v>1.002000305230718</v>
       </c>
       <c r="L14">
-        <v>0.8827475417617459</v>
+        <v>0.8827475417617457</v>
       </c>
       <c r="M14">
-        <v>0.8902398504231965</v>
+        <v>0.8902398504231961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8373092541046149</v>
+        <v>0.8373092541046121</v>
       </c>
       <c r="D15">
-        <v>0.9875561580528662</v>
+        <v>0.987556158052866</v>
       </c>
       <c r="E15">
-        <v>0.8666584936995257</v>
+        <v>0.8666584936995234</v>
       </c>
       <c r="F15">
-        <v>0.8744675859498844</v>
+        <v>0.8744675859498828</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032114502746324</v>
       </c>
       <c r="J15">
-        <v>0.875254222899944</v>
+        <v>0.8752542228999416</v>
       </c>
       <c r="K15">
         <v>1.002643368644547</v>
       </c>
       <c r="L15">
-        <v>0.8845356709380141</v>
+        <v>0.8845356709380119</v>
       </c>
       <c r="M15">
-        <v>0.8921328177277026</v>
+        <v>0.892132817727701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8503369754932564</v>
+        <v>0.8503369754932539</v>
       </c>
       <c r="D16">
-        <v>0.9917716696212995</v>
+        <v>0.9917716696212987</v>
       </c>
       <c r="E16">
-        <v>0.877528564674727</v>
+        <v>0.8775285646747251</v>
       </c>
       <c r="F16">
-        <v>0.8859534999237753</v>
+        <v>0.8859534999237731</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033973345900431</v>
+        <v>1.03397334590043</v>
       </c>
       <c r="J16">
-        <v>0.885965575486981</v>
+        <v>0.8859655754869786</v>
       </c>
       <c r="K16">
         <v>1.006253975690266</v>
       </c>
       <c r="L16">
-        <v>0.8944829687696711</v>
+        <v>0.8944829687696692</v>
       </c>
       <c r="M16">
-        <v>0.9026962164742686</v>
+        <v>0.9026962164742668</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9943045951993525</v>
       </c>
       <c r="E17">
-        <v>0.8839611636425309</v>
+        <v>0.8839611636425307</v>
       </c>
       <c r="F17">
-        <v>0.8927742001501558</v>
+        <v>0.8927742001501555</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035081051363905</v>
       </c>
       <c r="J17">
-        <v>0.8922961790077485</v>
+        <v>0.8922961790077484</v>
       </c>
       <c r="K17">
         <v>1.008413227905243</v>
       </c>
       <c r="L17">
-        <v>0.9003636548275357</v>
+        <v>0.9003636548275354</v>
       </c>
       <c r="M17">
-        <v>0.90896552695265</v>
+        <v>0.9089655269526499</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8623636106764947</v>
+        <v>0.8623636106764953</v>
       </c>
       <c r="D18">
         <v>0.9957457665265134</v>
       </c>
       <c r="E18">
-        <v>0.8875909470434079</v>
+        <v>0.8875909470434085</v>
       </c>
       <c r="F18">
-        <v>0.8966300223196741</v>
+        <v>0.8966300223196749</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035708078656569</v>
       </c>
       <c r="J18">
-        <v>0.8958656970177004</v>
+        <v>0.8958656970177011</v>
       </c>
       <c r="K18">
         <v>1.009638339875802</v>
       </c>
       <c r="L18">
-        <v>0.9036799991259971</v>
+        <v>0.9036799991259977</v>
       </c>
       <c r="M18">
-        <v>0.9125083639822663</v>
+        <v>0.9125083639822671</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8638176749103076</v>
+        <v>0.8638176749103059</v>
       </c>
       <c r="D19">
-        <v>0.9962313401785187</v>
+        <v>0.9962313401785184</v>
       </c>
       <c r="E19">
-        <v>0.8888092392122309</v>
+        <v>0.8888092392122292</v>
       </c>
       <c r="F19">
-        <v>0.8979252565426267</v>
+        <v>0.8979252565426252</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03591880081576</v>
       </c>
       <c r="J19">
-        <v>0.8970633170094786</v>
+        <v>0.8970633170094769</v>
       </c>
       <c r="K19">
-        <v>1.010050549610936</v>
+        <v>1.010050549610935</v>
       </c>
       <c r="L19">
-        <v>0.9047927565254745</v>
+        <v>0.9047927565254728</v>
       </c>
       <c r="M19">
-        <v>0.9136982444293029</v>
+        <v>0.9136982444293017</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8572196420471557</v>
+        <v>0.8572196420471569</v>
       </c>
       <c r="D20">
-        <v>0.9940366633372125</v>
+        <v>0.9940366633372127</v>
       </c>
       <c r="E20">
-        <v>0.8832839876805921</v>
+        <v>0.8832839876805931</v>
       </c>
       <c r="F20">
-        <v>0.8920554004293405</v>
+        <v>0.8920554004293414</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.034964217383234</v>
       </c>
       <c r="J20">
-        <v>0.891630028150775</v>
+        <v>0.891630028150776</v>
       </c>
       <c r="K20">
         <v>1.008185187623039</v>
       </c>
       <c r="L20">
-        <v>0.8997447921155896</v>
+        <v>0.8997447921155909</v>
       </c>
       <c r="M20">
-        <v>0.9083049692286693</v>
+        <v>0.9083049692286701</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8338324814203034</v>
+        <v>0.833832481420302</v>
       </c>
       <c r="D21">
-        <v>0.9864476903649183</v>
+        <v>0.9864476903649175</v>
       </c>
       <c r="E21">
-        <v>0.8637630672994773</v>
+        <v>0.8637630672994759</v>
       </c>
       <c r="F21">
-        <v>0.8714173499082956</v>
+        <v>0.8714173499082943</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031622676781563</v>
       </c>
       <c r="J21">
-        <v>0.8723982393838776</v>
+        <v>0.8723982393838764</v>
       </c>
       <c r="K21">
-        <v>1.001690445975399</v>
+        <v>1.001690445975398</v>
       </c>
       <c r="L21">
-        <v>0.8818840343129347</v>
+        <v>0.8818840343129334</v>
       </c>
       <c r="M21">
-        <v>0.8893263924606135</v>
+        <v>0.8893263924606123</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8172177760548278</v>
+        <v>0.817217776054828</v>
       </c>
       <c r="D22">
-        <v>0.9812520805587971</v>
+        <v>0.981252080558798</v>
       </c>
       <c r="E22">
-        <v>0.8499605259336707</v>
+        <v>0.8499605259336708</v>
       </c>
       <c r="F22">
-        <v>0.8569361589954581</v>
+        <v>0.8569361589954589</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029301326524522</v>
+        <v>1.029301326524523</v>
       </c>
       <c r="J22">
-        <v>0.8587676553115581</v>
+        <v>0.8587676553115584</v>
       </c>
       <c r="K22">
-        <v>0.9972043164412667</v>
+        <v>0.9972043164412676</v>
       </c>
       <c r="L22">
-        <v>0.8692326335796254</v>
+        <v>0.8692326335796253</v>
       </c>
       <c r="M22">
-        <v>0.8759965750556606</v>
+        <v>0.8759965750556615</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8262413980463768</v>
+        <v>0.8262413980463749</v>
       </c>
       <c r="D23">
-        <v>0.9840526951774635</v>
+        <v>0.9840526951774629</v>
       </c>
       <c r="E23">
-        <v>0.8574497113938633</v>
+        <v>0.8574497113938615</v>
       </c>
       <c r="F23">
-        <v>0.864780995975001</v>
+        <v>0.8647809959749994</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030555853901708</v>
+        <v>1.030555853901707</v>
       </c>
       <c r="J23">
-        <v>0.8661668163660436</v>
+        <v>0.8661668163660419</v>
       </c>
       <c r="K23">
-        <v>0.9996265209615359</v>
+        <v>0.9996265209615351</v>
       </c>
       <c r="L23">
-        <v>0.8760994372772626</v>
+        <v>0.8760994372772611</v>
       </c>
       <c r="M23">
-        <v>0.8832189051072658</v>
+        <v>0.8832189051072642</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8575857225868234</v>
+        <v>0.857585722586823</v>
       </c>
       <c r="D24">
-        <v>0.9941578412900164</v>
+        <v>0.9941578412900157</v>
       </c>
       <c r="E24">
         <v>0.8835903481369186</v>
       </c>
       <c r="F24">
-        <v>0.8923805701342441</v>
+        <v>0.8923805701342434</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035017068131858</v>
+        <v>1.035017068131857</v>
       </c>
       <c r="J24">
-        <v>0.8919314092013994</v>
+        <v>0.8919314092013991</v>
       </c>
       <c r="K24">
-        <v>1.008288334465043</v>
+        <v>1.008288334465042</v>
       </c>
       <c r="L24">
         <v>0.9000247773992398</v>
       </c>
       <c r="M24">
-        <v>0.9086037954931202</v>
+        <v>0.9086037954931195</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8880566347687064</v>
+        <v>0.8880566347687067</v>
       </c>
       <c r="D25">
-        <v>1.004473830809488</v>
+        <v>1.004473830809489</v>
       </c>
       <c r="E25">
-        <v>0.9091688559772568</v>
+        <v>0.9091688559772572</v>
       </c>
       <c r="F25">
-        <v>0.9196398177541295</v>
+        <v>0.9196398177541296</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039451137937872</v>
       </c>
       <c r="J25">
-        <v>0.9170430981638399</v>
+        <v>0.9170430981638402</v>
       </c>
       <c r="K25">
-        <v>1.017003091047661</v>
+        <v>1.017003091047662</v>
       </c>
       <c r="L25">
-        <v>0.9233623958614051</v>
+        <v>0.9233623958614054</v>
       </c>
       <c r="M25">
-        <v>0.9336284105385048</v>
+        <v>0.933628410538505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9092150902398846</v>
+        <v>0.909215090239884</v>
       </c>
       <c r="D2">
         <v>1.011867934016116</v>
       </c>
       <c r="E2">
-        <v>0.9270132251349726</v>
+        <v>0.9270132251349724</v>
       </c>
       <c r="F2">
-        <v>0.9387514798311135</v>
+        <v>0.9387514798311132</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042539068625646</v>
       </c>
       <c r="J2">
-        <v>0.9344972689421437</v>
+        <v>0.9344972689421432</v>
       </c>
       <c r="K2">
-        <v>1.023164369107592</v>
+        <v>1.023164369107591</v>
       </c>
       <c r="L2">
-        <v>0.939592601432874</v>
+        <v>0.9395926014328738</v>
       </c>
       <c r="M2">
-        <v>0.9511356188056922</v>
+        <v>0.951135618805692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.923235532378365</v>
+        <v>0.9232355323783646</v>
       </c>
       <c r="D3">
-        <v>1.016848202996529</v>
+        <v>1.016848202996528</v>
       </c>
       <c r="E3">
-        <v>0.9388708201790521</v>
+        <v>0.9388708201790514</v>
       </c>
       <c r="F3">
         <v>0.9514729251263428</v>
@@ -477,16 +477,16 @@
         <v>1.044567954165176</v>
       </c>
       <c r="J3">
-        <v>0.9460626173092718</v>
+        <v>0.9460626173092713</v>
       </c>
       <c r="K3">
         <v>1.027269952647049</v>
       </c>
       <c r="L3">
-        <v>0.9503506029037742</v>
+        <v>0.9503506029037736</v>
       </c>
       <c r="M3">
-        <v>0.9627668291263809</v>
+        <v>0.9627668291263807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9317969516802119</v>
+        <v>0.9317969516802114</v>
       </c>
       <c r="D4">
         <v>1.01991367302165</v>
       </c>
       <c r="E4">
-        <v>0.9461234698204091</v>
+        <v>0.9461234698204084</v>
       </c>
       <c r="F4">
-        <v>0.9592561911874987</v>
+        <v>0.9592561911874983</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045793276124079</v>
       </c>
       <c r="J4">
-        <v>0.9531222636985108</v>
+        <v>0.9531222636985104</v>
       </c>
       <c r="K4">
         <v>1.029777554615725</v>
       </c>
       <c r="L4">
-        <v>0.9569187817938363</v>
+        <v>0.9569187817938357</v>
       </c>
       <c r="M4">
-        <v>0.9698725716142644</v>
+        <v>0.969872571614264</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9352870392876657</v>
+        <v>0.9352870392876652</v>
       </c>
       <c r="D5">
         <v>1.021167548416571</v>
       </c>
       <c r="E5">
-        <v>0.9490824984375277</v>
+        <v>0.9490824984375275</v>
       </c>
       <c r="F5">
-        <v>0.9624312933710948</v>
+        <v>0.9624312933710943</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.046288808820542</v>
       </c>
       <c r="J5">
-        <v>0.9559992401675508</v>
+        <v>0.9559992401675506</v>
       </c>
       <c r="K5">
         <v>1.030798671186476</v>
       </c>
       <c r="L5">
-        <v>0.9595957575863018</v>
+        <v>0.9595957575863016</v>
       </c>
       <c r="M5">
-        <v>0.9727687286818232</v>
+        <v>0.9727687286818226</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9358669794617279</v>
+        <v>0.9358669794617288</v>
       </c>
       <c r="D6">
         <v>1.021376108207924</v>
       </c>
       <c r="E6">
-        <v>0.949574328410394</v>
+        <v>0.9495743284103948</v>
       </c>
       <c r="F6">
-        <v>0.9629589881860844</v>
+        <v>0.9629589881860845</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.046370897361805</v>
       </c>
       <c r="J6">
-        <v>0.9564772400596887</v>
+        <v>0.9564772400596891</v>
       </c>
       <c r="K6">
         <v>1.030968248826035</v>
       </c>
       <c r="L6">
-        <v>0.9600405437880795</v>
+        <v>0.9600405437880801</v>
       </c>
       <c r="M6">
-        <v>0.9732499117462367</v>
+        <v>0.973249911746237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.931843999597516</v>
+        <v>0.9318439995975174</v>
       </c>
       <c r="D7">
         <v>1.019930560972943</v>
       </c>
       <c r="E7">
-        <v>0.9461633495055595</v>
+        <v>0.9461633495055608</v>
       </c>
       <c r="F7">
-        <v>0.959298985766148</v>
+        <v>0.9592989857661485</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.045799972812615</v>
       </c>
       <c r="J7">
-        <v>0.9531610505689567</v>
+        <v>0.9531610505689582</v>
       </c>
       <c r="K7">
-        <v>1.029791325695144</v>
+        <v>1.029791325695145</v>
       </c>
       <c r="L7">
-        <v>0.9569548712069477</v>
+        <v>0.9569548712069489</v>
       </c>
       <c r="M7">
-        <v>0.9699116167450902</v>
+        <v>0.9699116167450906</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9140678391840374</v>
+        <v>0.9140678391840364</v>
       </c>
       <c r="D8">
         <v>1.013585381263811</v>
       </c>
       <c r="E8">
-        <v>0.9311145233656801</v>
+        <v>0.931114523365679</v>
       </c>
       <c r="F8">
-        <v>0.9431504334454474</v>
+        <v>0.9431504334454466</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043243749766199</v>
       </c>
       <c r="J8">
-        <v>0.9385006240926558</v>
+        <v>0.9385006240926548</v>
       </c>
       <c r="K8">
         <v>1.024584421451968</v>
       </c>
       <c r="L8">
-        <v>0.9433161751196638</v>
+        <v>0.9433161751196628</v>
       </c>
       <c r="M8">
-        <v>0.9551598100581216</v>
+        <v>0.9551598100581209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8780710801688476</v>
+        <v>0.8780710801688474</v>
       </c>
       <c r="D9">
         <v>1.001045754487793</v>
       </c>
       <c r="E9">
-        <v>0.900770131209697</v>
+        <v>0.9007701312096964</v>
       </c>
       <c r="F9">
-        <v>0.9106676619743402</v>
+        <v>0.9106676619743401</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037992642306302</v>
       </c>
       <c r="J9">
-        <v>0.9088090904172892</v>
+        <v>0.9088090904172887</v>
       </c>
       <c r="K9">
-        <v>1.01412188780989</v>
+        <v>1.014121887809891</v>
       </c>
       <c r="L9">
-        <v>0.9157082887312988</v>
+        <v>0.9157082887312984</v>
       </c>
       <c r="M9">
-        <v>0.9253979373566056</v>
+        <v>0.9253979373566054</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8494457689822097</v>
+        <v>0.8494457689822074</v>
       </c>
       <c r="D10">
-        <v>0.9914802580894717</v>
+        <v>0.991480258089471</v>
       </c>
       <c r="E10">
-        <v>0.8767839466565022</v>
+        <v>0.8767839466564999</v>
       </c>
       <c r="F10">
-        <v>0.8851650416655995</v>
+        <v>0.8851650416655976</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.03384545257147</v>
       </c>
       <c r="J10">
-        <v>0.8852323725092575</v>
+        <v>0.8852323725092552</v>
       </c>
       <c r="K10">
         <v>1.006005062008221</v>
       </c>
       <c r="L10">
-        <v>0.893801951951295</v>
+        <v>0.8938019519512928</v>
       </c>
       <c r="M10">
-        <v>0.9019713193930726</v>
+        <v>0.9019713193930708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.835414982276687</v>
+        <v>0.8354149822766889</v>
       </c>
       <c r="D11">
-        <v>0.9869513384422414</v>
+        <v>0.9869513384422421</v>
       </c>
       <c r="E11">
-        <v>0.8650806643046489</v>
+        <v>0.8650806643046506</v>
       </c>
       <c r="F11">
-        <v>0.8728048891034652</v>
+        <v>0.8728048891034665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031846298218257</v>
+        <v>1.031846298218258</v>
       </c>
       <c r="J11">
-        <v>0.8736980337766146</v>
+        <v>0.8736980337766163</v>
       </c>
       <c r="K11">
-        <v>1.002123601412614</v>
+        <v>1.002123601412615</v>
       </c>
       <c r="L11">
-        <v>0.8830907940771913</v>
+        <v>0.8830907940771932</v>
       </c>
       <c r="M11">
-        <v>0.8906030816644426</v>
+        <v>0.890603081664444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8298846771773806</v>
+        <v>0.8298846771773822</v>
       </c>
       <c r="D12">
-        <v>0.9851977898669549</v>
+        <v>0.9851977898669548</v>
       </c>
       <c r="E12">
-        <v>0.8604782931736206</v>
+        <v>0.8604782931736219</v>
       </c>
       <c r="F12">
-        <v>0.8679619745942924</v>
+        <v>0.867961974594293</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031066625976986</v>
       </c>
       <c r="J12">
-        <v>0.8691567878293409</v>
+        <v>0.8691567878293421</v>
       </c>
       <c r="K12">
         <v>1.000614179634811</v>
       </c>
       <c r="L12">
-        <v>0.8788748440686509</v>
+        <v>0.8788748440686522</v>
       </c>
       <c r="M12">
-        <v>0.8861466503359854</v>
+        <v>0.8861466503359861</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8310869212820684</v>
+        <v>0.8310869212820695</v>
       </c>
       <c r="D13">
-        <v>0.9855774340586645</v>
+        <v>0.9855774340586648</v>
       </c>
       <c r="E13">
-        <v>0.8614782886935907</v>
+        <v>0.8614782886935914</v>
       </c>
       <c r="F13">
-        <v>0.8690133301330164</v>
+        <v>0.8690133301330172</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031235683964298</v>
       </c>
       <c r="J13">
-        <v>0.8701437542272766</v>
+        <v>0.8701437542272777</v>
       </c>
       <c r="K13">
         <v>1.000941281448838</v>
       </c>
       <c r="L13">
-        <v>0.8797910527520555</v>
+        <v>0.8797910527520562</v>
       </c>
       <c r="M13">
-        <v>0.8871142018917052</v>
+        <v>0.8871142018917059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.83496489171998</v>
+        <v>0.8349648917199802</v>
       </c>
       <c r="D14">
-        <v>0.9868079409867682</v>
+        <v>0.9868079409867689</v>
       </c>
       <c r="E14">
-        <v>0.8647058664246116</v>
+        <v>0.8647058664246119</v>
       </c>
       <c r="F14">
-        <v>0.8724101091721651</v>
+        <v>0.8724101091721655</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031782655171804</v>
       </c>
       <c r="J14">
-        <v>0.8733283247847655</v>
+        <v>0.8733283247847657</v>
       </c>
       <c r="K14">
-        <v>1.002000305230718</v>
+        <v>1.002000305230719</v>
       </c>
       <c r="L14">
-        <v>0.8827475417617457</v>
+        <v>0.8827475417617459</v>
       </c>
       <c r="M14">
-        <v>0.8902398504231961</v>
+        <v>0.8902398504231965</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8373092541046121</v>
+        <v>0.8373092541046149</v>
       </c>
       <c r="D15">
-        <v>0.987556158052866</v>
+        <v>0.9875561580528662</v>
       </c>
       <c r="E15">
-        <v>0.8666584936995234</v>
+        <v>0.8666584936995257</v>
       </c>
       <c r="F15">
-        <v>0.8744675859498828</v>
+        <v>0.8744675859498844</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.032114502746324</v>
       </c>
       <c r="J15">
-        <v>0.8752542228999416</v>
+        <v>0.875254222899944</v>
       </c>
       <c r="K15">
         <v>1.002643368644547</v>
       </c>
       <c r="L15">
-        <v>0.8845356709380119</v>
+        <v>0.8845356709380141</v>
       </c>
       <c r="M15">
-        <v>0.892132817727701</v>
+        <v>0.8921328177277026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8503369754932539</v>
+        <v>0.8503369754932564</v>
       </c>
       <c r="D16">
-        <v>0.9917716696212987</v>
+        <v>0.9917716696212995</v>
       </c>
       <c r="E16">
-        <v>0.8775285646747251</v>
+        <v>0.877528564674727</v>
       </c>
       <c r="F16">
-        <v>0.8859534999237731</v>
+        <v>0.8859534999237753</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03397334590043</v>
+        <v>1.033973345900431</v>
       </c>
       <c r="J16">
-        <v>0.8859655754869786</v>
+        <v>0.885965575486981</v>
       </c>
       <c r="K16">
         <v>1.006253975690266</v>
       </c>
       <c r="L16">
-        <v>0.8944829687696692</v>
+        <v>0.8944829687696711</v>
       </c>
       <c r="M16">
-        <v>0.9026962164742668</v>
+        <v>0.9026962164742686</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,10 +997,10 @@
         <v>0.9943045951993525</v>
       </c>
       <c r="E17">
-        <v>0.8839611636425307</v>
+        <v>0.8839611636425309</v>
       </c>
       <c r="F17">
-        <v>0.8927742001501555</v>
+        <v>0.8927742001501558</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035081051363905</v>
       </c>
       <c r="J17">
-        <v>0.8922961790077484</v>
+        <v>0.8922961790077485</v>
       </c>
       <c r="K17">
         <v>1.008413227905243</v>
       </c>
       <c r="L17">
-        <v>0.9003636548275354</v>
+        <v>0.9003636548275357</v>
       </c>
       <c r="M17">
-        <v>0.9089655269526499</v>
+        <v>0.90896552695265</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8623636106764953</v>
+        <v>0.8623636106764947</v>
       </c>
       <c r="D18">
         <v>0.9957457665265134</v>
       </c>
       <c r="E18">
-        <v>0.8875909470434085</v>
+        <v>0.8875909470434079</v>
       </c>
       <c r="F18">
-        <v>0.8966300223196749</v>
+        <v>0.8966300223196741</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035708078656569</v>
       </c>
       <c r="J18">
-        <v>0.8958656970177011</v>
+        <v>0.8958656970177004</v>
       </c>
       <c r="K18">
         <v>1.009638339875802</v>
       </c>
       <c r="L18">
-        <v>0.9036799991259977</v>
+        <v>0.9036799991259971</v>
       </c>
       <c r="M18">
-        <v>0.9125083639822671</v>
+        <v>0.9125083639822663</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8638176749103059</v>
+        <v>0.8638176749103076</v>
       </c>
       <c r="D19">
-        <v>0.9962313401785184</v>
+        <v>0.9962313401785187</v>
       </c>
       <c r="E19">
-        <v>0.8888092392122292</v>
+        <v>0.8888092392122309</v>
       </c>
       <c r="F19">
-        <v>0.8979252565426252</v>
+        <v>0.8979252565426267</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.03591880081576</v>
       </c>
       <c r="J19">
-        <v>0.8970633170094769</v>
+        <v>0.8970633170094786</v>
       </c>
       <c r="K19">
-        <v>1.010050549610935</v>
+        <v>1.010050549610936</v>
       </c>
       <c r="L19">
-        <v>0.9047927565254728</v>
+        <v>0.9047927565254745</v>
       </c>
       <c r="M19">
-        <v>0.9136982444293017</v>
+        <v>0.9136982444293029</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8572196420471569</v>
+        <v>0.8572196420471557</v>
       </c>
       <c r="D20">
-        <v>0.9940366633372127</v>
+        <v>0.9940366633372125</v>
       </c>
       <c r="E20">
-        <v>0.8832839876805931</v>
+        <v>0.8832839876805921</v>
       </c>
       <c r="F20">
-        <v>0.8920554004293414</v>
+        <v>0.8920554004293405</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.034964217383234</v>
       </c>
       <c r="J20">
-        <v>0.891630028150776</v>
+        <v>0.891630028150775</v>
       </c>
       <c r="K20">
         <v>1.008185187623039</v>
       </c>
       <c r="L20">
-        <v>0.8997447921155909</v>
+        <v>0.8997447921155896</v>
       </c>
       <c r="M20">
-        <v>0.9083049692286701</v>
+        <v>0.9083049692286693</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.833832481420302</v>
+        <v>0.8338324814203034</v>
       </c>
       <c r="D21">
-        <v>0.9864476903649175</v>
+        <v>0.9864476903649183</v>
       </c>
       <c r="E21">
-        <v>0.8637630672994759</v>
+        <v>0.8637630672994773</v>
       </c>
       <c r="F21">
-        <v>0.8714173499082943</v>
+        <v>0.8714173499082956</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.031622676781563</v>
       </c>
       <c r="J21">
-        <v>0.8723982393838764</v>
+        <v>0.8723982393838776</v>
       </c>
       <c r="K21">
-        <v>1.001690445975398</v>
+        <v>1.001690445975399</v>
       </c>
       <c r="L21">
-        <v>0.8818840343129334</v>
+        <v>0.8818840343129347</v>
       </c>
       <c r="M21">
-        <v>0.8893263924606123</v>
+        <v>0.8893263924606135</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.817217776054828</v>
+        <v>0.8172177760548278</v>
       </c>
       <c r="D22">
-        <v>0.981252080558798</v>
+        <v>0.9812520805587971</v>
       </c>
       <c r="E22">
-        <v>0.8499605259336708</v>
+        <v>0.8499605259336707</v>
       </c>
       <c r="F22">
-        <v>0.8569361589954589</v>
+        <v>0.8569361589954581</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029301326524523</v>
+        <v>1.029301326524522</v>
       </c>
       <c r="J22">
-        <v>0.8587676553115584</v>
+        <v>0.8587676553115581</v>
       </c>
       <c r="K22">
-        <v>0.9972043164412676</v>
+        <v>0.9972043164412667</v>
       </c>
       <c r="L22">
-        <v>0.8692326335796253</v>
+        <v>0.8692326335796254</v>
       </c>
       <c r="M22">
-        <v>0.8759965750556615</v>
+        <v>0.8759965750556606</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8262413980463749</v>
+        <v>0.8262413980463768</v>
       </c>
       <c r="D23">
-        <v>0.9840526951774629</v>
+        <v>0.9840526951774635</v>
       </c>
       <c r="E23">
-        <v>0.8574497113938615</v>
+        <v>0.8574497113938633</v>
       </c>
       <c r="F23">
-        <v>0.8647809959749994</v>
+        <v>0.864780995975001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030555853901707</v>
+        <v>1.030555853901708</v>
       </c>
       <c r="J23">
-        <v>0.8661668163660419</v>
+        <v>0.8661668163660436</v>
       </c>
       <c r="K23">
-        <v>0.9996265209615351</v>
+        <v>0.9996265209615359</v>
       </c>
       <c r="L23">
-        <v>0.8760994372772611</v>
+        <v>0.8760994372772626</v>
       </c>
       <c r="M23">
-        <v>0.8832189051072642</v>
+        <v>0.8832189051072658</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.857585722586823</v>
+        <v>0.8575857225868234</v>
       </c>
       <c r="D24">
-        <v>0.9941578412900157</v>
+        <v>0.9941578412900164</v>
       </c>
       <c r="E24">
         <v>0.8835903481369186</v>
       </c>
       <c r="F24">
-        <v>0.8923805701342434</v>
+        <v>0.8923805701342441</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035017068131857</v>
+        <v>1.035017068131858</v>
       </c>
       <c r="J24">
-        <v>0.8919314092013991</v>
+        <v>0.8919314092013994</v>
       </c>
       <c r="K24">
-        <v>1.008288334465042</v>
+        <v>1.008288334465043</v>
       </c>
       <c r="L24">
         <v>0.9000247773992398</v>
       </c>
       <c r="M24">
-        <v>0.9086037954931195</v>
+        <v>0.9086037954931202</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8880566347687067</v>
+        <v>0.8880566347687064</v>
       </c>
       <c r="D25">
-        <v>1.004473830809489</v>
+        <v>1.004473830809488</v>
       </c>
       <c r="E25">
-        <v>0.9091688559772572</v>
+        <v>0.9091688559772568</v>
       </c>
       <c r="F25">
-        <v>0.9196398177541296</v>
+        <v>0.9196398177541295</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.039451137937872</v>
       </c>
       <c r="J25">
-        <v>0.9170430981638402</v>
+        <v>0.9170430981638399</v>
       </c>
       <c r="K25">
-        <v>1.017003091047662</v>
+        <v>1.017003091047661</v>
       </c>
       <c r="L25">
-        <v>0.9233623958614054</v>
+        <v>0.9233623958614051</v>
       </c>
       <c r="M25">
-        <v>0.933628410538505</v>
+        <v>0.9336284105385048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.909215090239884</v>
+        <v>0.9093507814949849</v>
       </c>
       <c r="D2">
-        <v>1.011867934016116</v>
+        <v>1.011889467496484</v>
       </c>
       <c r="E2">
-        <v>0.9270132251349724</v>
+        <v>0.9271327142905355</v>
       </c>
       <c r="F2">
-        <v>0.9387514798311132</v>
+        <v>0.9388458791655071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042539068625646</v>
+        <v>1.042549996599341</v>
       </c>
       <c r="J2">
-        <v>0.9344972689421432</v>
+        <v>0.9346276689657644</v>
       </c>
       <c r="K2">
-        <v>1.023164369107591</v>
+        <v>1.023185611386742</v>
       </c>
       <c r="L2">
-        <v>0.9395926014328738</v>
+        <v>0.9397100710431895</v>
       </c>
       <c r="M2">
-        <v>0.951135618805692</v>
+        <v>0.9512284734749304</v>
+      </c>
+      <c r="N2">
+        <v>0.9562350210834182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9232355323783646</v>
+        <v>0.923349227952235</v>
       </c>
       <c r="D3">
-        <v>1.016848202996528</v>
+        <v>1.016866182312469</v>
       </c>
       <c r="E3">
-        <v>0.9388708201790514</v>
+        <v>0.9389711741255721</v>
       </c>
       <c r="F3">
-        <v>0.9514729251263428</v>
+        <v>0.9515518574470458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044567954165176</v>
+        <v>1.044577089015255</v>
       </c>
       <c r="J3">
-        <v>0.9460626173092713</v>
+        <v>0.9461724509903886</v>
       </c>
       <c r="K3">
-        <v>1.027269952647049</v>
+        <v>1.027287711306669</v>
       </c>
       <c r="L3">
-        <v>0.9503506029037736</v>
+        <v>0.9504494515689064</v>
       </c>
       <c r="M3">
-        <v>0.9627668291263807</v>
+        <v>0.9628446168812779</v>
+      </c>
+      <c r="N3">
+        <v>0.9643607474668203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9317969516802114</v>
+        <v>0.9318979035227832</v>
       </c>
       <c r="D4">
-        <v>1.01991367302165</v>
+        <v>1.01992960777236</v>
       </c>
       <c r="E4">
-        <v>0.9461234698204084</v>
+        <v>0.9462126972063933</v>
       </c>
       <c r="F4">
-        <v>0.9592561911874983</v>
+        <v>0.959326197604784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045793276124079</v>
+        <v>1.045801378238826</v>
       </c>
       <c r="J4">
-        <v>0.9531222636985104</v>
+        <v>0.9532200837094172</v>
       </c>
       <c r="K4">
-        <v>1.029777554615725</v>
+        <v>1.029793306215986</v>
       </c>
       <c r="L4">
-        <v>0.9569187817938357</v>
+        <v>0.9570067723355817</v>
       </c>
       <c r="M4">
-        <v>0.969872571614264</v>
+        <v>0.9699416406963688</v>
+      </c>
+      <c r="N4">
+        <v>0.969315289073075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9352870392876652</v>
+        <v>0.9353829322454026</v>
       </c>
       <c r="D5">
-        <v>1.021167548416571</v>
+        <v>1.021182674988883</v>
       </c>
       <c r="E5">
-        <v>0.9490824984375275</v>
+        <v>0.9491673011481044</v>
       </c>
       <c r="F5">
-        <v>0.9624312933710943</v>
+        <v>0.9624977649289606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046288808820542</v>
+        <v>1.046296502432368</v>
       </c>
       <c r="J5">
-        <v>0.9559992401675506</v>
+        <v>0.9560922707514613</v>
       </c>
       <c r="K5">
-        <v>1.030798671186476</v>
+        <v>1.030813628750376</v>
       </c>
       <c r="L5">
-        <v>0.9595957575863016</v>
+        <v>0.9596794237089855</v>
       </c>
       <c r="M5">
-        <v>0.9727687286818226</v>
+        <v>0.9728343399815255</v>
+      </c>
+      <c r="N5">
+        <v>0.9713329874229597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9358669794617288</v>
+        <v>0.9359620390981609</v>
       </c>
       <c r="D6">
-        <v>1.021376108207924</v>
+        <v>1.021391101854864</v>
       </c>
       <c r="E6">
-        <v>0.9495743284103948</v>
+        <v>0.949658401858853</v>
       </c>
       <c r="F6">
-        <v>0.9629589881860845</v>
+        <v>0.9630248779635875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046370897361805</v>
+        <v>1.046378523768679</v>
       </c>
       <c r="J6">
-        <v>0.9564772400596891</v>
+        <v>0.956569480589667</v>
       </c>
       <c r="K6">
-        <v>1.030968248826035</v>
+        <v>1.030983075751764</v>
       </c>
       <c r="L6">
-        <v>0.9600405437880801</v>
+        <v>0.9601234968118743</v>
       </c>
       <c r="M6">
-        <v>0.973249911746237</v>
+        <v>0.9733149536746168</v>
+      </c>
+      <c r="N6">
+        <v>0.9716681369997883</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9318439995975174</v>
+        <v>0.9319448827357624</v>
       </c>
       <c r="D7">
-        <v>1.019930560972943</v>
+        <v>1.019946484734081</v>
       </c>
       <c r="E7">
-        <v>0.9461633495055608</v>
+        <v>0.9462525168293231</v>
       </c>
       <c r="F7">
-        <v>0.9592989857661485</v>
+        <v>0.9593689441428829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045799972812615</v>
+        <v>1.045808069373678</v>
       </c>
       <c r="J7">
-        <v>0.9531610505689582</v>
+        <v>0.9532588056129601</v>
       </c>
       <c r="K7">
-        <v>1.029791325695145</v>
+        <v>1.029807066500815</v>
       </c>
       <c r="L7">
-        <v>0.9569548712069489</v>
+        <v>0.9570428030724177</v>
       </c>
       <c r="M7">
-        <v>0.9699116167450906</v>
+        <v>0.9699806388533911</v>
+      </c>
+      <c r="N7">
+        <v>0.9693424969609368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9140678391840364</v>
+        <v>0.9141957487069235</v>
       </c>
       <c r="D8">
-        <v>1.013585381263811</v>
+        <v>1.01360565406001</v>
       </c>
       <c r="E8">
-        <v>0.931114523365679</v>
+        <v>0.9312272530811109</v>
       </c>
       <c r="F8">
-        <v>0.9431504334454466</v>
+        <v>0.9432393529703236</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043243749766199</v>
+        <v>1.043254041990233</v>
       </c>
       <c r="J8">
-        <v>0.9385006240926548</v>
+        <v>0.9386237721962185</v>
       </c>
       <c r="K8">
-        <v>1.024584421451968</v>
+        <v>1.024604428795436</v>
       </c>
       <c r="L8">
-        <v>0.9433161751196628</v>
+        <v>0.9434270743521453</v>
       </c>
       <c r="M8">
-        <v>0.9551598100581209</v>
+        <v>0.9552473324468022</v>
+      </c>
+      <c r="N8">
+        <v>0.9590488820661265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8780710801688474</v>
+        <v>0.8782617591220733</v>
       </c>
       <c r="D9">
-        <v>1.001045754487793</v>
+        <v>1.001076269332367</v>
       </c>
       <c r="E9">
-        <v>0.9007701312096964</v>
+        <v>0.9009370487766017</v>
       </c>
       <c r="F9">
-        <v>0.9106676619743401</v>
+        <v>0.9108009527960017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037992642306302</v>
+        <v>1.038008092402551</v>
       </c>
       <c r="J9">
-        <v>0.9088090904172887</v>
+        <v>0.9089900188903757</v>
       </c>
       <c r="K9">
-        <v>1.014121887809891</v>
+        <v>1.014151908918796</v>
       </c>
       <c r="L9">
-        <v>0.9157082887312984</v>
+        <v>0.9158716502878834</v>
       </c>
       <c r="M9">
-        <v>0.9253979373566054</v>
+        <v>0.9255284693234151</v>
+      </c>
+      <c r="N9">
+        <v>0.9381585957937916</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8494457689822074</v>
+        <v>0.8496969766586241</v>
       </c>
       <c r="D10">
-        <v>0.991480258089471</v>
+        <v>0.9915207332316773</v>
       </c>
       <c r="E10">
-        <v>0.8767839466564999</v>
+        <v>0.8770023844203754</v>
       </c>
       <c r="F10">
-        <v>0.8851650416655976</v>
+        <v>0.8853413035589086</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03384545257147</v>
+        <v>1.033865907525074</v>
       </c>
       <c r="J10">
-        <v>0.8852323725092552</v>
+        <v>0.885467606802832</v>
       </c>
       <c r="K10">
-        <v>1.006005062008221</v>
+        <v>1.006044789937265</v>
       </c>
       <c r="L10">
-        <v>0.8938019519512928</v>
+        <v>0.8940148019650981</v>
       </c>
       <c r="M10">
-        <v>0.9019713193930708</v>
+        <v>0.9021431864910002</v>
+      </c>
+      <c r="N10">
+        <v>0.9215512258492338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8354149822766889</v>
+        <v>0.8357005946183228</v>
       </c>
       <c r="D11">
-        <v>0.9869513384422421</v>
+        <v>0.9869974789826794</v>
       </c>
       <c r="E11">
-        <v>0.8650806643046506</v>
+        <v>0.8653280767291122</v>
       </c>
       <c r="F11">
-        <v>0.8728048891034665</v>
+        <v>0.87300557601732</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031846298218258</v>
+        <v>1.031869596853048</v>
       </c>
       <c r="J11">
-        <v>0.8736980337766163</v>
+        <v>0.8739636003332178</v>
       </c>
       <c r="K11">
-        <v>1.002123601412615</v>
+        <v>1.002168841420531</v>
       </c>
       <c r="L11">
-        <v>0.8830907940771932</v>
+        <v>0.8833313379588191</v>
       </c>
       <c r="M11">
-        <v>0.890603081664444</v>
+        <v>0.8907983301398371</v>
+      </c>
+      <c r="N11">
+        <v>0.9134261242915013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8298846771773822</v>
+        <v>0.8301849079591308</v>
       </c>
       <c r="D12">
-        <v>0.9851977898669548</v>
+        <v>0.985246335169301</v>
       </c>
       <c r="E12">
-        <v>0.8604782931736219</v>
+        <v>0.8607379524370817</v>
       </c>
       <c r="F12">
-        <v>0.867961974594293</v>
+        <v>0.868173031506466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031066625976986</v>
+        <v>1.031091131164089</v>
       </c>
       <c r="J12">
-        <v>0.8691567878293421</v>
+        <v>0.8694351372206937</v>
       </c>
       <c r="K12">
-        <v>1.000614179634811</v>
+        <v>1.000661757836862</v>
       </c>
       <c r="L12">
-        <v>0.8788748440686522</v>
+        <v>0.87912706747762</v>
       </c>
       <c r="M12">
-        <v>0.8861466503359861</v>
+        <v>0.8863518041859985</v>
+      </c>
+      <c r="N12">
+        <v>0.9102277077439367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8310869212820695</v>
+        <v>0.8313839187458797</v>
       </c>
       <c r="D13">
-        <v>0.9855774340586648</v>
+        <v>0.9856254476531044</v>
       </c>
       <c r="E13">
-        <v>0.8614782886935914</v>
+        <v>0.8617352424119262</v>
       </c>
       <c r="F13">
-        <v>0.8690133301330172</v>
+        <v>0.8692220939512257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031235683964298</v>
+        <v>1.031259922397204</v>
       </c>
       <c r="J13">
-        <v>0.8701437542272777</v>
+        <v>0.8704192814580337</v>
       </c>
       <c r="K13">
-        <v>1.000941281448838</v>
+        <v>1.000988342728982</v>
       </c>
       <c r="L13">
-        <v>0.8797910527520562</v>
+        <v>0.8800406971947777</v>
       </c>
       <c r="M13">
-        <v>0.8871142018917059</v>
+        <v>0.8873171664272893</v>
+      </c>
+      <c r="N13">
+        <v>0.9109227934886136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8349648917199802</v>
+        <v>0.8352516699093741</v>
       </c>
       <c r="D14">
-        <v>0.9868079409867689</v>
+        <v>0.9868542733831936</v>
       </c>
       <c r="E14">
-        <v>0.8647058664246119</v>
+        <v>0.8649542569378732</v>
       </c>
       <c r="F14">
-        <v>0.8724101091721655</v>
+        <v>0.8726116233355955</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031782655171804</v>
+        <v>1.031806050077066</v>
       </c>
       <c r="J14">
-        <v>0.8733283247847657</v>
+        <v>0.8735949130165088</v>
       </c>
       <c r="K14">
-        <v>1.002000305230719</v>
+        <v>1.002045731813282</v>
       </c>
       <c r="L14">
-        <v>0.8827475417617459</v>
+        <v>0.88298901896475</v>
       </c>
       <c r="M14">
-        <v>0.8902398504231965</v>
+        <v>0.8904358895323011</v>
+      </c>
+      <c r="N14">
+        <v>0.9131657210545405</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8373092541046149</v>
+        <v>0.8375900045927031</v>
       </c>
       <c r="D15">
-        <v>0.9875561580528662</v>
+        <v>0.9876014983926801</v>
       </c>
       <c r="E15">
-        <v>0.8666584936995257</v>
+        <v>0.8669018246582192</v>
       </c>
       <c r="F15">
-        <v>0.8744675859498844</v>
+        <v>0.8746648226687423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032114502746324</v>
+        <v>1.032137399833286</v>
       </c>
       <c r="J15">
-        <v>0.875254222899944</v>
+        <v>0.8755155246033939</v>
       </c>
       <c r="K15">
-        <v>1.002643368644547</v>
+        <v>1.002687830421291</v>
       </c>
       <c r="L15">
-        <v>0.8845356709380141</v>
+        <v>0.8847723191248743</v>
       </c>
       <c r="M15">
-        <v>0.8921328177277026</v>
+        <v>0.8923247678601121</v>
+      </c>
+      <c r="N15">
+        <v>0.9145222474161241</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8503369754932564</v>
+        <v>0.8505861160996931</v>
       </c>
       <c r="D16">
-        <v>0.9917716696212995</v>
+        <v>0.9918118042612948</v>
       </c>
       <c r="E16">
-        <v>0.877528564674727</v>
+        <v>0.8777452546422877</v>
       </c>
       <c r="F16">
-        <v>0.8859534999237753</v>
+        <v>0.8861282938245824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033973345900431</v>
+        <v>1.033993629883401</v>
       </c>
       <c r="J16">
-        <v>0.885965575486981</v>
+        <v>0.8861989757275164</v>
       </c>
       <c r="K16">
-        <v>1.006253975690266</v>
+        <v>1.006293372152491</v>
       </c>
       <c r="L16">
-        <v>0.8944829687696711</v>
+        <v>0.8946941452993467</v>
       </c>
       <c r="M16">
-        <v>0.9026962164742686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9028666758773126</v>
+      </c>
+      <c r="N16">
+        <v>0.9220677504761469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8580287849768853</v>
+        <v>0.8582606151164429</v>
       </c>
       <c r="D17">
-        <v>0.9943045951993525</v>
+        <v>0.9943418785823297</v>
       </c>
       <c r="E17">
-        <v>0.8839611636425309</v>
+        <v>0.8841631850627323</v>
       </c>
       <c r="F17">
-        <v>0.8927742001501558</v>
+        <v>0.8929367001262165</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035081051363905</v>
+        <v>1.035099903385962</v>
       </c>
       <c r="J17">
-        <v>0.8922961790077485</v>
+        <v>0.8925141654672323</v>
       </c>
       <c r="K17">
-        <v>1.008413227905243</v>
+        <v>1.008449847851605</v>
       </c>
       <c r="L17">
-        <v>0.9003636548275357</v>
+        <v>0.9005607723358462</v>
       </c>
       <c r="M17">
-        <v>0.90896552695265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9091241858070537</v>
+      </c>
+      <c r="N17">
+        <v>0.9265275183110846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8623636106764947</v>
+        <v>0.8625860808780168</v>
       </c>
       <c r="D18">
-        <v>0.9957457665265134</v>
+        <v>0.9957815087463857</v>
       </c>
       <c r="E18">
-        <v>0.8875909470434079</v>
+        <v>0.8877850130896976</v>
       </c>
       <c r="F18">
-        <v>0.8966300223196741</v>
+        <v>0.8967858754496252</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035708078656569</v>
+        <v>1.035726156426237</v>
       </c>
       <c r="J18">
-        <v>0.8958656970177004</v>
+        <v>0.896075307247198</v>
       </c>
       <c r="K18">
-        <v>1.009638339875802</v>
+        <v>1.009673458321477</v>
       </c>
       <c r="L18">
-        <v>0.9036799991259971</v>
+        <v>0.9038694808700449</v>
       </c>
       <c r="M18">
-        <v>0.9125083639822663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9126606337808512</v>
+      </c>
+      <c r="N18">
+        <v>0.9290420853001581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8638176749103076</v>
+        <v>0.8640370656809997</v>
       </c>
       <c r="D19">
-        <v>0.9962313401785187</v>
+        <v>0.9962665754978569</v>
       </c>
       <c r="E19">
-        <v>0.8888092392122309</v>
+        <v>0.8890006842163664</v>
       </c>
       <c r="F19">
-        <v>0.8979252565426267</v>
+        <v>0.8980789230935776</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03591880081576</v>
+        <v>1.035936623886431</v>
       </c>
       <c r="J19">
-        <v>0.8970633170094786</v>
+        <v>0.8972701648439475</v>
       </c>
       <c r="K19">
-        <v>1.010050549610936</v>
+        <v>1.010085174079334</v>
       </c>
       <c r="L19">
-        <v>0.9047927565254745</v>
+        <v>0.9049797207768528</v>
       </c>
       <c r="M19">
-        <v>0.9136982444293029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9138484110245897</v>
+      </c>
+      <c r="N19">
+        <v>0.9298857291023147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8572196420471557</v>
+        <v>0.857453249965453</v>
       </c>
       <c r="D20">
-        <v>0.9940366633372125</v>
+        <v>0.9940742394995818</v>
       </c>
       <c r="E20">
-        <v>0.8832839876805921</v>
+        <v>0.8834875181930441</v>
       </c>
       <c r="F20">
-        <v>0.8920554004293405</v>
+        <v>0.8922191629598736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034964217383234</v>
+        <v>1.034983216471804</v>
       </c>
       <c r="J20">
-        <v>0.891630028150775</v>
+        <v>0.891849602179777</v>
       </c>
       <c r="K20">
-        <v>1.008185187623039</v>
+        <v>1.008222092753194</v>
       </c>
       <c r="L20">
-        <v>0.8997447921155896</v>
+        <v>0.8999433572011257</v>
       </c>
       <c r="M20">
-        <v>0.9083049692286693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9084648409458369</v>
+      </c>
+      <c r="N20">
+        <v>0.9260582349150966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8338324814203034</v>
+        <v>0.8341222112097324</v>
       </c>
       <c r="D21">
-        <v>0.9864476903649183</v>
+        <v>0.9864945084351026</v>
       </c>
       <c r="E21">
-        <v>0.8637630672994773</v>
+        <v>0.8640139329829924</v>
       </c>
       <c r="F21">
-        <v>0.8714173499082956</v>
+        <v>0.871620958272584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031622676781563</v>
+        <v>1.031646315382948</v>
       </c>
       <c r="J21">
-        <v>0.8723982393838776</v>
+        <v>0.8726674124718533</v>
       </c>
       <c r="K21">
-        <v>1.001690445975399</v>
+        <v>1.001736344838728</v>
       </c>
       <c r="L21">
-        <v>0.8818840343129347</v>
+        <v>0.8821278729718661</v>
       </c>
       <c r="M21">
-        <v>0.8893263924606135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8895244327239995</v>
+      </c>
+      <c r="N21">
+        <v>0.912510630189998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8172177760548278</v>
+        <v>0.8175541187845869</v>
       </c>
       <c r="D22">
-        <v>0.9812520805587971</v>
+        <v>0.9813065556328101</v>
       </c>
       <c r="E22">
-        <v>0.8499605259336707</v>
+        <v>0.8502502823205007</v>
       </c>
       <c r="F22">
-        <v>0.8569361589954581</v>
+        <v>0.8571728009926349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029301326524522</v>
+        <v>1.029328805897896</v>
       </c>
       <c r="J22">
-        <v>0.8587676553115581</v>
+        <v>0.8590773356922624</v>
       </c>
       <c r="K22">
-        <v>0.9972043164412667</v>
+        <v>0.9972576572469523</v>
       </c>
       <c r="L22">
-        <v>0.8692326335796254</v>
+        <v>0.8695135012672892</v>
       </c>
       <c r="M22">
-        <v>0.8759965750556606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8762261187207875</v>
+      </c>
+      <c r="N22">
+        <v>0.9029126895609656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8262413980463768</v>
+        <v>0.8265516234867086</v>
       </c>
       <c r="D23">
-        <v>0.9840526951774635</v>
+        <v>0.9841028833358821</v>
       </c>
       <c r="E23">
-        <v>0.8574497113938633</v>
+        <v>0.8577177225059334</v>
       </c>
       <c r="F23">
-        <v>0.864780995975001</v>
+        <v>0.8649991389797549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030555853901708</v>
+        <v>1.030581183224462</v>
       </c>
       <c r="J23">
-        <v>0.8661668163660436</v>
+        <v>0.8664538714147185</v>
       </c>
       <c r="K23">
-        <v>0.9996265209615359</v>
+        <v>0.9996756961077776</v>
       </c>
       <c r="L23">
-        <v>0.8760994372772626</v>
+        <v>0.8763596174646862</v>
       </c>
       <c r="M23">
-        <v>0.8832189051072658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8834308207474474</v>
+      </c>
+      <c r="N23">
+        <v>0.9081221256812079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8575857225868234</v>
+        <v>0.8578185249658409</v>
       </c>
       <c r="D24">
-        <v>0.9941578412900164</v>
+        <v>0.9941952847875871</v>
       </c>
       <c r="E24">
-        <v>0.8835903481369186</v>
+        <v>0.8837931949314268</v>
       </c>
       <c r="F24">
-        <v>0.8923805701342441</v>
+        <v>0.8925437605792931</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035017068131858</v>
+        <v>1.035036000582138</v>
       </c>
       <c r="J24">
-        <v>0.8919314092013994</v>
+        <v>0.892150264009828</v>
       </c>
       <c r="K24">
-        <v>1.008288334465043</v>
+        <v>1.008325110374475</v>
       </c>
       <c r="L24">
-        <v>0.9000247773992398</v>
+        <v>0.9002226866717685</v>
       </c>
       <c r="M24">
-        <v>0.9086037954931202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9087631176692796</v>
+      </c>
+      <c r="N24">
+        <v>0.9262705491538774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8880566347687064</v>
+        <v>0.8882286347148017</v>
       </c>
       <c r="D25">
-        <v>1.004473830809488</v>
+        <v>1.004501283344355</v>
       </c>
       <c r="E25">
-        <v>0.9091688559772568</v>
+        <v>0.9093197292291425</v>
       </c>
       <c r="F25">
-        <v>0.9196398177541295</v>
+        <v>0.91975987141055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039451137937872</v>
+        <v>1.03946504737431</v>
       </c>
       <c r="J25">
-        <v>0.9170430981638399</v>
+        <v>0.9172069984864053</v>
       </c>
       <c r="K25">
-        <v>1.017003091047661</v>
+        <v>1.017030122262481</v>
       </c>
       <c r="L25">
-        <v>0.9233623958614051</v>
+        <v>0.9235102720347746</v>
       </c>
       <c r="M25">
-        <v>0.9336284105385048</v>
+        <v>0.9337461498363909</v>
+      </c>
+      <c r="N25">
+        <v>0.9439558950526087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9093507814949849</v>
+        <v>0.9315884713129956</v>
       </c>
       <c r="D2">
-        <v>1.011889467496484</v>
+        <v>1.026280191772477</v>
       </c>
       <c r="E2">
-        <v>0.9271327142905355</v>
+        <v>0.9490215788871078</v>
       </c>
       <c r="F2">
-        <v>0.9388458791655071</v>
+        <v>0.9489805828545069</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042549996599341</v>
+        <v>1.039227036379114</v>
       </c>
       <c r="J2">
-        <v>0.9346276689657644</v>
+        <v>0.9560273860338936</v>
       </c>
       <c r="K2">
-        <v>1.023185611386742</v>
+        <v>1.037385151479616</v>
       </c>
       <c r="L2">
-        <v>0.9397100710431895</v>
+        <v>0.9612399763453064</v>
       </c>
       <c r="M2">
-        <v>0.9512284734749304</v>
+        <v>0.9611996327787605</v>
       </c>
       <c r="N2">
-        <v>0.9562350210834182</v>
+        <v>0.9573850545799357</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.923349227952235</v>
+        <v>0.9537376317491617</v>
       </c>
       <c r="D3">
-        <v>1.016866182312469</v>
+        <v>1.03035033184346</v>
       </c>
       <c r="E3">
-        <v>0.9389711741255721</v>
+        <v>0.9689620242694879</v>
       </c>
       <c r="F3">
-        <v>0.9515518574470458</v>
+        <v>0.9703325392339679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044577089015255</v>
+        <v>1.0418323842019</v>
       </c>
       <c r="J3">
-        <v>0.9461724509903886</v>
+        <v>0.9755741450182704</v>
       </c>
       <c r="K3">
-        <v>1.027287711306669</v>
+        <v>1.040609061156698</v>
       </c>
       <c r="L3">
-        <v>0.9504494515689064</v>
+        <v>0.980008074076585</v>
       </c>
       <c r="M3">
-        <v>0.9628446168812779</v>
+        <v>0.9813596421720322</v>
       </c>
       <c r="N3">
-        <v>0.9643607474668203</v>
+        <v>0.9769595722041149</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9318979035227832</v>
+        <v>0.966843626259423</v>
       </c>
       <c r="D4">
-        <v>1.01992960777236</v>
+        <v>1.032824582339612</v>
       </c>
       <c r="E4">
-        <v>0.9462126972063933</v>
+        <v>0.9807745053887276</v>
       </c>
       <c r="F4">
-        <v>0.959326197604784</v>
+        <v>0.9829860272807944</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045801378238826</v>
+        <v>1.043371723988386</v>
       </c>
       <c r="J4">
-        <v>0.9532200837094172</v>
+        <v>0.9871352606806548</v>
       </c>
       <c r="K4">
-        <v>1.029793306215986</v>
+        <v>1.042542349288459</v>
       </c>
       <c r="L4">
-        <v>0.9570067723355817</v>
+        <v>0.9911106403720493</v>
       </c>
       <c r="M4">
-        <v>0.9699416406963688</v>
+        <v>0.9932942280002753</v>
       </c>
       <c r="N4">
-        <v>0.969315289073075</v>
+        <v>0.9885371059768185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9353829322454026</v>
+        <v>0.9721079643057843</v>
       </c>
       <c r="D5">
-        <v>1.021182674988883</v>
+        <v>1.03383186825339</v>
       </c>
       <c r="E5">
-        <v>0.9491673011481044</v>
+        <v>0.9855217648892233</v>
       </c>
       <c r="F5">
-        <v>0.9624977649289606</v>
+        <v>0.9880725582275934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046296502432368</v>
+        <v>1.043988726980706</v>
       </c>
       <c r="J5">
-        <v>0.9560922707514613</v>
+        <v>0.9917774246421975</v>
       </c>
       <c r="K5">
-        <v>1.030813628750376</v>
+        <v>1.043323617623871</v>
       </c>
       <c r="L5">
-        <v>0.9596794237089855</v>
+        <v>0.9955690520433301</v>
       </c>
       <c r="M5">
-        <v>0.9728343399815255</v>
+        <v>0.9980888264003791</v>
       </c>
       <c r="N5">
-        <v>0.9713329874229597</v>
+        <v>0.9931858623436504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9359620390981609</v>
+        <v>0.9729786232058424</v>
       </c>
       <c r="D6">
-        <v>1.021391101854864</v>
+        <v>1.033999193852164</v>
       </c>
       <c r="E6">
-        <v>0.949658401858853</v>
+        <v>0.9863070345000766</v>
       </c>
       <c r="F6">
-        <v>0.9630248779635875</v>
+        <v>0.9889140270463919</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046378523768679</v>
+        <v>1.044090675414417</v>
       </c>
       <c r="J6">
-        <v>0.956569480589667</v>
+        <v>0.992545076414494</v>
       </c>
       <c r="K6">
-        <v>1.030983075751764</v>
+        <v>1.043453071671766</v>
       </c>
       <c r="L6">
-        <v>0.9601234968118743</v>
+        <v>0.9963063368726884</v>
       </c>
       <c r="M6">
-        <v>0.9733149536746168</v>
+        <v>0.9988818287736003</v>
       </c>
       <c r="N6">
-        <v>0.9716681369997883</v>
+        <v>0.9939546042695138</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9319448827357624</v>
+        <v>0.9669148796035861</v>
       </c>
       <c r="D7">
-        <v>1.019946484734081</v>
+        <v>1.032838165086853</v>
       </c>
       <c r="E7">
-        <v>0.9462525168293231</v>
+        <v>0.9808387508805038</v>
       </c>
       <c r="F7">
-        <v>0.9593689441428829</v>
+        <v>0.9830548589256956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045808069373678</v>
+        <v>1.04338008132654</v>
       </c>
       <c r="J7">
-        <v>0.9532588056129601</v>
+        <v>0.9871980998739461</v>
       </c>
       <c r="K7">
-        <v>1.029807066500815</v>
+        <v>1.042552906672312</v>
       </c>
       <c r="L7">
-        <v>0.9570428030724177</v>
+        <v>0.9911709908208939</v>
       </c>
       <c r="M7">
-        <v>0.9699806388533911</v>
+        <v>0.9933591208645701</v>
       </c>
       <c r="N7">
-        <v>0.9693424969609368</v>
+        <v>0.9886000344089719</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9141957487069235</v>
+        <v>0.9393617680423294</v>
       </c>
       <c r="D8">
-        <v>1.01360565406001</v>
+        <v>1.027692431477641</v>
       </c>
       <c r="E8">
-        <v>0.9312272530811109</v>
+        <v>0.9560162291992286</v>
       </c>
       <c r="F8">
-        <v>0.9432393529703236</v>
+        <v>0.956469387226257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043254041990233</v>
+        <v>1.040141340185792</v>
       </c>
       <c r="J8">
-        <v>0.9386237721962185</v>
+        <v>0.9628881330072909</v>
       </c>
       <c r="K8">
-        <v>1.024604428795436</v>
+        <v>1.038509914652296</v>
       </c>
       <c r="L8">
-        <v>0.9434270743521453</v>
+        <v>0.9678268973502128</v>
       </c>
       <c r="M8">
-        <v>0.9552473324468022</v>
+        <v>0.9682731806830364</v>
       </c>
       <c r="N8">
-        <v>0.9590488820661265</v>
+        <v>0.9642555446009735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8782617591220733</v>
+        <v>0.8779683515206677</v>
       </c>
       <c r="D9">
-        <v>1.001076269332367</v>
+        <v>1.017031691860167</v>
       </c>
       <c r="E9">
-        <v>0.9009370487766017</v>
+        <v>0.9008962209305108</v>
       </c>
       <c r="F9">
-        <v>0.9108009527960017</v>
+        <v>0.8974696000239374</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038008092402551</v>
+        <v>1.032961600509249</v>
       </c>
       <c r="J9">
-        <v>0.9089900188903757</v>
+        <v>0.9087116174038179</v>
       </c>
       <c r="K9">
-        <v>1.014151908918796</v>
+        <v>1.029854355876714</v>
       </c>
       <c r="L9">
-        <v>0.9158716502878834</v>
+        <v>0.9158316920765679</v>
       </c>
       <c r="M9">
-        <v>0.9255284693234151</v>
+        <v>0.9124784323776187</v>
       </c>
       <c r="N9">
-        <v>0.9381585957937916</v>
+        <v>0.9100020921312105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8496969766586241</v>
+        <v>0.8181776387771561</v>
       </c>
       <c r="D10">
-        <v>0.9915207332316773</v>
+        <v>1.007772165716587</v>
       </c>
       <c r="E10">
-        <v>0.8770023844203754</v>
+        <v>0.8475622300778338</v>
       </c>
       <c r="F10">
-        <v>0.8853413035589086</v>
+        <v>0.8403719799900291</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033865907525074</v>
+        <v>1.026160278840295</v>
       </c>
       <c r="J10">
-        <v>0.885467606802832</v>
+        <v>0.856067212521888</v>
       </c>
       <c r="K10">
-        <v>1.006044789937265</v>
+        <v>1.022002495070759</v>
       </c>
       <c r="L10">
-        <v>0.8940148019650981</v>
+        <v>0.8653632617495066</v>
       </c>
       <c r="M10">
-        <v>0.9021431864910002</v>
+        <v>0.8583771276340049</v>
       </c>
       <c r="N10">
-        <v>0.9215512258492338</v>
+        <v>0.8572829261559506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8357005946183228</v>
+        <v>0.7795937104302039</v>
       </c>
       <c r="D11">
-        <v>0.9869974789826794</v>
+        <v>1.002401708506421</v>
       </c>
       <c r="E11">
-        <v>0.8653280767291122</v>
+        <v>0.813390460947348</v>
       </c>
       <c r="F11">
-        <v>0.87300557601732</v>
+        <v>0.803756186181651</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031869596853048</v>
+        <v>1.021926331026872</v>
       </c>
       <c r="J11">
-        <v>0.8739636003332178</v>
+        <v>0.8222256994478998</v>
       </c>
       <c r="K11">
-        <v>1.002168841420531</v>
+        <v>1.017278473808473</v>
       </c>
       <c r="L11">
-        <v>0.8833313379588191</v>
+        <v>0.8329633635895253</v>
       </c>
       <c r="M11">
-        <v>0.8907983301398371</v>
+        <v>0.8236514344433479</v>
       </c>
       <c r="N11">
-        <v>0.9134261242915013</v>
+        <v>0.8233933542517216</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8301849079591308</v>
+        <v>0.7601001059253154</v>
       </c>
       <c r="D12">
-        <v>0.985246335169301</v>
+        <v>0.9998700265559061</v>
       </c>
       <c r="E12">
-        <v>0.8607379524370817</v>
+        <v>0.7962162840172142</v>
       </c>
       <c r="F12">
-        <v>0.868173031506466</v>
+        <v>0.7853381618665619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031091131164089</v>
+        <v>1.019842038208634</v>
       </c>
       <c r="J12">
-        <v>0.8694351372206937</v>
+        <v>0.8051828225565548</v>
       </c>
       <c r="K12">
-        <v>1.000661757836862</v>
+        <v>1.014999717075456</v>
       </c>
       <c r="L12">
-        <v>0.87912706747762</v>
+        <v>0.8166630312717061</v>
       </c>
       <c r="M12">
-        <v>0.8863518041859985</v>
+        <v>0.8061788226276753</v>
       </c>
       <c r="N12">
-        <v>0.9102277077439367</v>
+        <v>0.8063262745203459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8313839187458797</v>
+        <v>0.7646892156627922</v>
       </c>
       <c r="D13">
-        <v>0.9856254476531044</v>
+        <v>1.000455057419757</v>
       </c>
       <c r="E13">
-        <v>0.8617352424119262</v>
+        <v>0.8002533710678089</v>
       </c>
       <c r="F13">
-        <v>0.8692220939512257</v>
+        <v>0.7896687344932773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031259922397204</v>
+        <v>1.020329213671158</v>
       </c>
       <c r="J13">
-        <v>0.8704192814580337</v>
+        <v>0.8091912265356314</v>
       </c>
       <c r="K13">
-        <v>1.000988342728982</v>
+        <v>1.015529539810056</v>
       </c>
       <c r="L13">
-        <v>0.8800406971947777</v>
+        <v>0.8204956715604618</v>
       </c>
       <c r="M13">
-        <v>0.8873171664272893</v>
+        <v>0.8102873307778995</v>
       </c>
       <c r="N13">
-        <v>0.9109227934886136</v>
+        <v>0.8103403708928428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8352516699093741</v>
+        <v>0.7781401989249618</v>
       </c>
       <c r="D14">
-        <v>0.9868542733831936</v>
+        <v>1.002208731111083</v>
       </c>
       <c r="E14">
-        <v>0.8649542569378732</v>
+        <v>0.8121076515282393</v>
       </c>
       <c r="F14">
-        <v>0.8726116233355955</v>
+        <v>0.8023808746286633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031806050077066</v>
+        <v>1.021769593746244</v>
       </c>
       <c r="J14">
-        <v>0.8735949130165088</v>
+        <v>0.8209535248759833</v>
       </c>
       <c r="K14">
-        <v>1.002045731813282</v>
+        <v>1.017106028213525</v>
       </c>
       <c r="L14">
-        <v>0.88298901896475</v>
+        <v>0.8317461990625782</v>
       </c>
       <c r="M14">
-        <v>0.8904358895323011</v>
+        <v>0.8223468146382146</v>
       </c>
       <c r="N14">
-        <v>0.9131657210545405</v>
+        <v>0.8221193730459927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8375900045927031</v>
+        <v>0.7855134032730575</v>
       </c>
       <c r="D15">
-        <v>0.9876014983926801</v>
+        <v>1.003194649135625</v>
       </c>
       <c r="E15">
-        <v>0.8669018246582192</v>
+        <v>0.8186185042863862</v>
       </c>
       <c r="F15">
-        <v>0.8746648226687423</v>
+        <v>0.8093605910818819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032137399833286</v>
+        <v>1.022566822724131</v>
       </c>
       <c r="J15">
-        <v>0.8755155246033939</v>
+        <v>0.8274090506419493</v>
       </c>
       <c r="K15">
-        <v>1.002687830421291</v>
+        <v>1.01798497537972</v>
       </c>
       <c r="L15">
-        <v>0.8847723191248743</v>
+        <v>0.8379232392525643</v>
       </c>
       <c r="M15">
-        <v>0.8923247678601121</v>
+        <v>0.8289675824323953</v>
       </c>
       <c r="N15">
-        <v>0.9145222474161241</v>
+        <v>0.8285840663990055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8505861160996931</v>
+        <v>0.8203220275595354</v>
       </c>
       <c r="D16">
-        <v>0.9918118042612948</v>
+        <v>1.008084632177649</v>
       </c>
       <c r="E16">
-        <v>0.8777452546422877</v>
+        <v>0.8494676497665006</v>
       </c>
       <c r="F16">
-        <v>0.8861282938245824</v>
+        <v>0.8424127046168153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033993629883401</v>
+        <v>1.026399516733469</v>
       </c>
       <c r="J16">
-        <v>0.8861989757275164</v>
+        <v>0.857951617911081</v>
       </c>
       <c r="K16">
-        <v>1.006293372152491</v>
+        <v>1.022273180887912</v>
       </c>
       <c r="L16">
-        <v>0.8946941452993467</v>
+        <v>0.8671685114267168</v>
       </c>
       <c r="M16">
-        <v>0.9028666758773126</v>
+        <v>0.8603119510421724</v>
       </c>
       <c r="N16">
-        <v>0.9220677504761469</v>
+        <v>0.8591700076169406</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8582606151164429</v>
+        <v>0.8378583434224126</v>
       </c>
       <c r="D17">
-        <v>0.9943418785823297</v>
+        <v>1.010694985284028</v>
       </c>
       <c r="E17">
-        <v>0.8841631850627323</v>
+        <v>0.865071922899439</v>
       </c>
       <c r="F17">
-        <v>0.8929367001262165</v>
+        <v>0.8591220705029636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035099903385962</v>
+        <v>1.028370140685698</v>
       </c>
       <c r="J17">
-        <v>0.8925141654672323</v>
+        <v>0.8733736901184188</v>
       </c>
       <c r="K17">
-        <v>1.008449847851605</v>
+        <v>1.024518055728978</v>
       </c>
       <c r="L17">
-        <v>0.9005607723358462</v>
+        <v>0.8819466387729529</v>
       </c>
       <c r="M17">
-        <v>0.9091241858070537</v>
+        <v>0.8761513658181961</v>
       </c>
       <c r="N17">
-        <v>0.9265275183110846</v>
+        <v>0.8746139809357494</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8625860808780168</v>
+        <v>0.8471105837838235</v>
       </c>
       <c r="D18">
-        <v>0.9957815087463857</v>
+        <v>1.012111648783112</v>
       </c>
       <c r="E18">
-        <v>0.8877850130896976</v>
+        <v>0.8733199248172874</v>
       </c>
       <c r="F18">
-        <v>0.8967858754496252</v>
+        <v>0.8679523723122805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035726156426237</v>
+        <v>1.02941950863971</v>
       </c>
       <c r="J18">
-        <v>0.896075307247198</v>
+        <v>0.8815181364298246</v>
       </c>
       <c r="K18">
-        <v>1.009673458321477</v>
+        <v>1.025724543792713</v>
       </c>
       <c r="L18">
-        <v>0.9038694808700449</v>
+        <v>0.889753616968136</v>
       </c>
       <c r="M18">
-        <v>0.9126606337808512</v>
+        <v>0.8845196484190121</v>
       </c>
       <c r="N18">
-        <v>0.9290420853001581</v>
+        <v>0.8827699932950985</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8640370656809997</v>
+        <v>0.8501302463155335</v>
       </c>
       <c r="D19">
-        <v>0.9962665754978569</v>
+        <v>1.012579879244169</v>
       </c>
       <c r="E19">
-        <v>0.8890006842163664</v>
+        <v>0.8760139711476604</v>
       </c>
       <c r="F19">
-        <v>0.8980789230935776</v>
+        <v>0.8708363917422254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035936623886431</v>
+        <v>1.029763348505593</v>
       </c>
       <c r="J19">
-        <v>0.8972701648439475</v>
+        <v>0.884177272650944</v>
       </c>
       <c r="K19">
-        <v>1.010085174079334</v>
+        <v>1.026121545766748</v>
       </c>
       <c r="L19">
-        <v>0.9049797207768528</v>
+        <v>0.8923029335805313</v>
       </c>
       <c r="M19">
-        <v>0.9138484110245897</v>
+        <v>0.8872523899135414</v>
       </c>
       <c r="N19">
-        <v>0.9298857291023147</v>
+        <v>0.8854329057946591</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.857453249965453</v>
+        <v>0.8360859940176395</v>
       </c>
       <c r="D20">
-        <v>0.9940742394995818</v>
+        <v>1.010426713274737</v>
       </c>
       <c r="E20">
-        <v>0.8834875181930441</v>
+        <v>0.8634931014826501</v>
       </c>
       <c r="F20">
-        <v>0.8922191629598736</v>
+        <v>0.8574316560338416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034983216471804</v>
+        <v>1.028169862521563</v>
       </c>
       <c r="J20">
-        <v>0.891849602179777</v>
+        <v>0.8718141200976967</v>
       </c>
       <c r="K20">
-        <v>1.008222092753194</v>
+        <v>1.024288666193002</v>
       </c>
       <c r="L20">
-        <v>0.8999433572011257</v>
+        <v>0.8804518876302545</v>
       </c>
       <c r="M20">
-        <v>0.9084648409458369</v>
+        <v>0.8745492068408462</v>
       </c>
       <c r="N20">
-        <v>0.9260582349150966</v>
+        <v>0.8730521961467126</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8341222112097324</v>
+        <v>0.7743939669422067</v>
       </c>
       <c r="D21">
-        <v>0.9864945084351026</v>
+        <v>1.001714483433401</v>
       </c>
       <c r="E21">
-        <v>0.8640139329829924</v>
+        <v>0.8088030048777107</v>
       </c>
       <c r="F21">
-        <v>0.871620958272584</v>
+        <v>0.7988376439008525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031646315382948</v>
+        <v>1.021366595077854</v>
       </c>
       <c r="J21">
-        <v>0.8726674124718533</v>
+        <v>0.8176756675567622</v>
       </c>
       <c r="K21">
-        <v>1.001736344838728</v>
+        <v>1.016663447038567</v>
       </c>
       <c r="L21">
-        <v>0.8821278729718661</v>
+        <v>0.8286103799260253</v>
       </c>
       <c r="M21">
-        <v>0.8895244327239995</v>
+        <v>0.8189856297945236</v>
       </c>
       <c r="N21">
-        <v>0.912510630189998</v>
+        <v>0.8188368607934029</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8175541187845869</v>
+        <v>0.7743939669422067</v>
       </c>
       <c r="D22">
-        <v>0.9813065556328101</v>
+        <v>1.001714483433401</v>
       </c>
       <c r="E22">
-        <v>0.8502502823205007</v>
+        <v>0.8088030048777107</v>
       </c>
       <c r="F22">
-        <v>0.8571728009926349</v>
+        <v>0.7988376439008525</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029328805897896</v>
+        <v>1.021366595077854</v>
       </c>
       <c r="J22">
-        <v>0.8590773356922624</v>
+        <v>0.8176756675567622</v>
       </c>
       <c r="K22">
-        <v>0.9972576572469523</v>
+        <v>1.016663447038567</v>
       </c>
       <c r="L22">
-        <v>0.8695135012672892</v>
+        <v>0.8286103799260253</v>
       </c>
       <c r="M22">
-        <v>0.8762261187207875</v>
+        <v>0.8189856297945236</v>
       </c>
       <c r="N22">
-        <v>0.9029126895609656</v>
+        <v>0.8188368607934029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8265516234867086</v>
+        <v>0.7743939669422067</v>
       </c>
       <c r="D23">
-        <v>0.9841028833358821</v>
+        <v>1.001714483433401</v>
       </c>
       <c r="E23">
-        <v>0.8577177225059334</v>
+        <v>0.8088030048777107</v>
       </c>
       <c r="F23">
-        <v>0.8649991389797549</v>
+        <v>0.7988376439008525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030581183224462</v>
+        <v>1.021366595077854</v>
       </c>
       <c r="J23">
-        <v>0.8664538714147185</v>
+        <v>0.8176756675567622</v>
       </c>
       <c r="K23">
-        <v>0.9996756961077776</v>
+        <v>1.016663447038567</v>
       </c>
       <c r="L23">
-        <v>0.8763596174646862</v>
+        <v>0.8286103799260253</v>
       </c>
       <c r="M23">
-        <v>0.8834308207474474</v>
+        <v>0.8189856297945236</v>
       </c>
       <c r="N23">
-        <v>0.9081221256812079</v>
+        <v>0.8188368607934029</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8578185249658409</v>
+        <v>0.7743939669422067</v>
       </c>
       <c r="D24">
-        <v>0.9941952847875871</v>
+        <v>1.001714483433401</v>
       </c>
       <c r="E24">
-        <v>0.8837931949314268</v>
+        <v>0.8088030048777107</v>
       </c>
       <c r="F24">
-        <v>0.8925437605792931</v>
+        <v>0.7988376439008525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035036000582138</v>
+        <v>1.021366595077854</v>
       </c>
       <c r="J24">
-        <v>0.892150264009828</v>
+        <v>0.8176756675567622</v>
       </c>
       <c r="K24">
-        <v>1.008325110374475</v>
+        <v>1.016663447038567</v>
       </c>
       <c r="L24">
-        <v>0.9002226866717685</v>
+        <v>0.8286103799260253</v>
       </c>
       <c r="M24">
-        <v>0.9087631176692796</v>
+        <v>0.8189856297945236</v>
       </c>
       <c r="N24">
-        <v>0.9262705491538774</v>
+        <v>0.8188368607934029</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8882286347148017</v>
+        <v>0.7743939669422067</v>
       </c>
       <c r="D25">
-        <v>1.004501283344355</v>
+        <v>1.001714483433401</v>
       </c>
       <c r="E25">
-        <v>0.9093197292291425</v>
+        <v>0.8088030048777107</v>
       </c>
       <c r="F25">
-        <v>0.91975987141055</v>
+        <v>0.7988376439008525</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03946504737431</v>
+        <v>1.021366595077854</v>
       </c>
       <c r="J25">
-        <v>0.9172069984864053</v>
+        <v>0.8176756675567622</v>
       </c>
       <c r="K25">
-        <v>1.017030122262481</v>
+        <v>1.016663447038567</v>
       </c>
       <c r="L25">
-        <v>0.9235102720347746</v>
+        <v>0.8286103799260253</v>
       </c>
       <c r="M25">
-        <v>0.9337461498363909</v>
+        <v>0.8189856297945236</v>
       </c>
       <c r="N25">
-        <v>0.9439558950526087</v>
+        <v>0.8188368607934029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9315884713129956</v>
+        <v>1.004045887436281</v>
       </c>
       <c r="D2">
-        <v>1.026280191772477</v>
+        <v>1.046627165567335</v>
       </c>
       <c r="E2">
-        <v>0.9490215788871078</v>
+        <v>1.009914832703368</v>
       </c>
       <c r="F2">
-        <v>0.9489805828545069</v>
+        <v>1.045038185744509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039227036379114</v>
+        <v>1.052058030991966</v>
       </c>
       <c r="J2">
-        <v>0.9560273860338936</v>
+        <v>1.026106256463353</v>
       </c>
       <c r="K2">
-        <v>1.037385151479616</v>
+        <v>1.057472993183694</v>
       </c>
       <c r="L2">
-        <v>0.9612399763453064</v>
+        <v>1.021237744925688</v>
       </c>
       <c r="M2">
-        <v>0.9611996327787605</v>
+        <v>1.05590379732106</v>
       </c>
       <c r="N2">
-        <v>0.9573850545799357</v>
+        <v>1.027563445043564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9537376317491617</v>
+        <v>1.00813055201628</v>
       </c>
       <c r="D3">
-        <v>1.03035033184346</v>
+        <v>1.049646093939823</v>
       </c>
       <c r="E3">
-        <v>0.9689620242694879</v>
+        <v>1.013150787603364</v>
       </c>
       <c r="F3">
-        <v>0.9703325392339679</v>
+        <v>1.048579556457318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0418323842019</v>
+        <v>1.053246264990532</v>
       </c>
       <c r="J3">
-        <v>0.9755741450182704</v>
+        <v>1.028401997519594</v>
       </c>
       <c r="K3">
-        <v>1.040609061156698</v>
+        <v>1.059680833566506</v>
       </c>
       <c r="L3">
-        <v>0.980008074076585</v>
+        <v>1.02361812202756</v>
       </c>
       <c r="M3">
-        <v>0.9813596421720322</v>
+        <v>1.058626411204675</v>
       </c>
       <c r="N3">
-        <v>0.9769595722041149</v>
+        <v>1.029862446315429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.966843626259423</v>
+        <v>1.010724699676314</v>
       </c>
       <c r="D4">
-        <v>1.032824582339612</v>
+        <v>1.051566402676444</v>
       </c>
       <c r="E4">
-        <v>0.9807745053887276</v>
+        <v>1.015211812035179</v>
       </c>
       <c r="F4">
-        <v>0.9829860272807944</v>
+        <v>1.050833807320027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043371723988386</v>
+        <v>1.053993142471855</v>
       </c>
       <c r="J4">
-        <v>0.9871352606806548</v>
+        <v>1.029857989000879</v>
       </c>
       <c r="K4">
-        <v>1.042542349288459</v>
+        <v>1.061079888384932</v>
       </c>
       <c r="L4">
-        <v>0.9911106403720493</v>
+        <v>1.025130046200951</v>
       </c>
       <c r="M4">
-        <v>0.9932942280002753</v>
+        <v>1.060355110510399</v>
       </c>
       <c r="N4">
-        <v>0.9885371059768185</v>
+        <v>1.031320505471623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9721079643057843</v>
+        <v>1.011803949807729</v>
       </c>
       <c r="D5">
-        <v>1.03383186825339</v>
+        <v>1.052365972359948</v>
       </c>
       <c r="E5">
-        <v>0.9855217648892233</v>
+        <v>1.016070640071032</v>
       </c>
       <c r="F5">
-        <v>0.9880725582275934</v>
+        <v>1.051772828883847</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043988726980706</v>
+        <v>1.054301968071735</v>
       </c>
       <c r="J5">
-        <v>0.9917774246421975</v>
+        <v>1.030463215469389</v>
       </c>
       <c r="K5">
-        <v>1.043323617623871</v>
+        <v>1.061661137332134</v>
       </c>
       <c r="L5">
-        <v>0.9955690520433301</v>
+        <v>1.025759063402303</v>
       </c>
       <c r="M5">
-        <v>0.9980888264003791</v>
+        <v>1.061074154054272</v>
       </c>
       <c r="N5">
-        <v>0.9931858623436504</v>
+        <v>1.031926591431138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9729786232058424</v>
+        <v>1.011984506965374</v>
       </c>
       <c r="D6">
-        <v>1.033999193852164</v>
+        <v>1.052499776272919</v>
       </c>
       <c r="E6">
-        <v>0.9863070345000766</v>
+        <v>1.016214400608703</v>
       </c>
       <c r="F6">
-        <v>0.9889140270463919</v>
+        <v>1.051929993750769</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044090675414417</v>
+        <v>1.054353521464364</v>
       </c>
       <c r="J6">
-        <v>0.992545076414494</v>
+        <v>1.030564438073698</v>
       </c>
       <c r="K6">
-        <v>1.043453071671766</v>
+        <v>1.061758330816468</v>
       </c>
       <c r="L6">
-        <v>0.9963063368726884</v>
+        <v>1.025864296718034</v>
       </c>
       <c r="M6">
-        <v>0.9988818287736003</v>
+        <v>1.061194438717894</v>
       </c>
       <c r="N6">
-        <v>0.9939546042695138</v>
+        <v>1.032027957783156</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9669148796035861</v>
+        <v>1.010739164697629</v>
       </c>
       <c r="D7">
-        <v>1.032838165086853</v>
+        <v>1.051577116664615</v>
       </c>
       <c r="E7">
-        <v>0.9808387508805038</v>
+        <v>1.015223317395019</v>
       </c>
       <c r="F7">
-        <v>0.9830548589256956</v>
+        <v>1.050846388293164</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04338008132654</v>
+        <v>1.053997289163335</v>
       </c>
       <c r="J7">
-        <v>0.9871980998739461</v>
+        <v>1.029866102821946</v>
       </c>
       <c r="K7">
-        <v>1.042552906672312</v>
+        <v>1.06108768201442</v>
       </c>
       <c r="L7">
-        <v>0.9911709908208939</v>
+        <v>1.025138476831615</v>
       </c>
       <c r="M7">
-        <v>0.9933591208645701</v>
+        <v>1.060364748405367</v>
       </c>
       <c r="N7">
-        <v>0.9886000344089719</v>
+        <v>1.031328630815247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9393617680423294</v>
+        <v>1.005436677765549</v>
       </c>
       <c r="D8">
-        <v>1.027692431477641</v>
+        <v>1.047654414848955</v>
       </c>
       <c r="E8">
-        <v>0.9560162291992286</v>
+        <v>1.011015388643696</v>
       </c>
       <c r="F8">
-        <v>0.956469387226257</v>
+        <v>1.046242877573315</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040141340185792</v>
+        <v>1.052464216517684</v>
       </c>
       <c r="J8">
-        <v>0.9628881330072909</v>
+        <v>1.026888340456534</v>
       </c>
       <c r="K8">
-        <v>1.038509914652296</v>
+        <v>1.058225366101854</v>
       </c>
       <c r="L8">
-        <v>0.9678268973502128</v>
+        <v>1.022048188514775</v>
       </c>
       <c r="M8">
-        <v>0.9682731806830364</v>
+        <v>1.056830877492031</v>
       </c>
       <c r="N8">
-        <v>0.9642555446009735</v>
+        <v>1.028346639685721</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8779683515206677</v>
+        <v>0.9957006178168399</v>
       </c>
       <c r="D9">
-        <v>1.017031691860167</v>
+        <v>1.040478637690753</v>
       </c>
       <c r="E9">
-        <v>0.9008962209305108</v>
+        <v>1.003337606976101</v>
       </c>
       <c r="F9">
-        <v>0.8974696000239374</v>
+        <v>1.037833703767152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032961600509249</v>
+        <v>1.049589489950504</v>
       </c>
       <c r="J9">
-        <v>0.9087116174038179</v>
+        <v>1.021406117232249</v>
       </c>
       <c r="K9">
-        <v>1.029854355876714</v>
+        <v>1.052947423819861</v>
       </c>
       <c r="L9">
-        <v>0.9158316920765679</v>
+        <v>1.016376764940121</v>
       </c>
       <c r="M9">
-        <v>0.9124784323776187</v>
+        <v>1.050341392595679</v>
       </c>
       <c r="N9">
-        <v>0.9100020921312105</v>
+        <v>1.022856631075638</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8181776387771561</v>
+        <v>0.9889197127468908</v>
       </c>
       <c r="D10">
-        <v>1.007772165716587</v>
+        <v>1.035503455210197</v>
       </c>
       <c r="E10">
-        <v>0.8475622300778338</v>
+        <v>0.9980258039086681</v>
       </c>
       <c r="F10">
-        <v>0.8403719799900291</v>
+        <v>1.032010313953968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026160278840295</v>
+        <v>1.047549372226855</v>
       </c>
       <c r="J10">
-        <v>0.856067212521888</v>
+        <v>1.017579949944828</v>
       </c>
       <c r="K10">
-        <v>1.022002495070759</v>
+        <v>1.049259966016416</v>
       </c>
       <c r="L10">
-        <v>0.8653632617495066</v>
+        <v>1.012430794796735</v>
       </c>
       <c r="M10">
-        <v>0.8583771276340049</v>
+        <v>1.045824703304411</v>
       </c>
       <c r="N10">
-        <v>0.8572829261559506</v>
+        <v>1.019025030191801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7795937104302039</v>
+        <v>0.9859083569792046</v>
       </c>
       <c r="D11">
-        <v>1.002401708506421</v>
+        <v>1.033300395529501</v>
       </c>
       <c r="E11">
-        <v>0.813390460947348</v>
+        <v>0.9956759490521345</v>
       </c>
       <c r="F11">
-        <v>0.803756186181651</v>
+        <v>1.029433039264819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021926331026872</v>
+        <v>1.046634946817643</v>
       </c>
       <c r="J11">
-        <v>0.8222256994478998</v>
+        <v>1.015879346643729</v>
       </c>
       <c r="K11">
-        <v>1.017278473808473</v>
+        <v>1.047620500984085</v>
       </c>
       <c r="L11">
-        <v>0.8329633635895253</v>
+        <v>1.010679873957576</v>
       </c>
       <c r="M11">
-        <v>0.8236514344433479</v>
+        <v>1.04382044785838</v>
       </c>
       <c r="N11">
-        <v>0.8233933542517216</v>
+        <v>1.017322011838952</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7601001059253154</v>
+        <v>0.9847779341746916</v>
       </c>
       <c r="D12">
-        <v>0.9998700265559061</v>
+        <v>1.032474448224364</v>
       </c>
       <c r="E12">
-        <v>0.7962162840172142</v>
+        <v>0.9947952670404944</v>
       </c>
       <c r="F12">
-        <v>0.7853381618665619</v>
+        <v>1.028466979157222</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019842038208634</v>
+        <v>1.046290469443583</v>
       </c>
       <c r="J12">
-        <v>0.8051828225565548</v>
+        <v>1.015240788845811</v>
       </c>
       <c r="K12">
-        <v>1.014999717075456</v>
+        <v>1.04700485860741</v>
       </c>
       <c r="L12">
-        <v>0.8166630312717061</v>
+        <v>1.01002286548547</v>
       </c>
       <c r="M12">
-        <v>0.8061788226276753</v>
+        <v>1.043068389750358</v>
       </c>
       <c r="N12">
-        <v>0.8063262745203459</v>
+        <v>1.016682547215718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7646892156627922</v>
+        <v>0.9850209605538175</v>
       </c>
       <c r="D13">
-        <v>1.000455057419757</v>
+        <v>1.032651967219061</v>
       </c>
       <c r="E13">
-        <v>0.8002533710678089</v>
+        <v>0.9949845371383879</v>
       </c>
       <c r="F13">
-        <v>0.7896687344932773</v>
+        <v>1.028674604356592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020329213671158</v>
+        <v>1.046364581681535</v>
       </c>
       <c r="J13">
-        <v>0.8091912265356314</v>
+        <v>1.015378077763756</v>
       </c>
       <c r="K13">
-        <v>1.015529539810056</v>
+        <v>1.047137222021076</v>
       </c>
       <c r="L13">
-        <v>0.8204956715604618</v>
+        <v>1.0101641012045</v>
       </c>
       <c r="M13">
-        <v>0.8102873307778995</v>
+        <v>1.043230057199002</v>
       </c>
       <c r="N13">
-        <v>0.8103403708928428</v>
+        <v>1.016820031099674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7781401989249618</v>
+        <v>0.9858151615065415</v>
       </c>
       <c r="D14">
-        <v>1.002208731111083</v>
+        <v>1.033232280000874</v>
       </c>
       <c r="E14">
-        <v>0.8121076515282393</v>
+        <v>0.9956033137067599</v>
       </c>
       <c r="F14">
-        <v>0.8023808746286633</v>
+        <v>1.029353365090272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021769593746244</v>
+        <v>1.046606571449568</v>
       </c>
       <c r="J14">
-        <v>0.8209535248759833</v>
+        <v>1.01582670530776</v>
       </c>
       <c r="K14">
-        <v>1.017106028213525</v>
+        <v>1.047569749374398</v>
       </c>
       <c r="L14">
-        <v>0.8317461990625782</v>
+        <v>1.010625702564014</v>
       </c>
       <c r="M14">
-        <v>0.8223468146382146</v>
+        <v>1.043758439108662</v>
       </c>
       <c r="N14">
-        <v>0.8221193730459927</v>
+        <v>1.017269295746249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7855134032730575</v>
+        <v>0.9863029040282218</v>
       </c>
       <c r="D15">
-        <v>1.003194649135625</v>
+        <v>1.033588809012573</v>
       </c>
       <c r="E15">
-        <v>0.8186185042863862</v>
+        <v>0.9959835122616536</v>
       </c>
       <c r="F15">
-        <v>0.8093605910818819</v>
+        <v>1.029770401507341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022566822724131</v>
+        <v>1.046755025952902</v>
       </c>
       <c r="J15">
-        <v>0.8274090506419493</v>
+        <v>1.016102199157088</v>
       </c>
       <c r="K15">
-        <v>1.01798497537972</v>
+        <v>1.047835352037843</v>
       </c>
       <c r="L15">
-        <v>0.8379232392525643</v>
+        <v>1.010909221917246</v>
       </c>
       <c r="M15">
-        <v>0.8289675824323953</v>
+        <v>1.044082977781878</v>
       </c>
       <c r="N15">
-        <v>0.8285840663990055</v>
+        <v>1.017545180828443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8203220275595354</v>
+        <v>0.989117934189726</v>
       </c>
       <c r="D16">
-        <v>1.008084632177649</v>
+        <v>1.035648611766379</v>
       </c>
       <c r="E16">
-        <v>0.8494676497665006</v>
+        <v>0.9981806765298763</v>
       </c>
       <c r="F16">
-        <v>0.8424127046168153</v>
+        <v>1.032180153863288</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026399516733469</v>
+        <v>1.047609392566789</v>
       </c>
       <c r="J16">
-        <v>0.857951617911081</v>
+        <v>1.017691865176123</v>
       </c>
       <c r="K16">
-        <v>1.022273180887912</v>
+        <v>1.049367850075416</v>
       </c>
       <c r="L16">
-        <v>0.8671685114267168</v>
+        <v>1.01254608271293</v>
       </c>
       <c r="M16">
-        <v>0.8603119510421724</v>
+        <v>1.045956671934674</v>
       </c>
       <c r="N16">
-        <v>0.8591700076169406</v>
+        <v>1.019137104355561</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8378583434224126</v>
+        <v>0.9908632048886551</v>
       </c>
       <c r="D17">
-        <v>1.010694985284028</v>
+        <v>1.036927403515304</v>
       </c>
       <c r="E17">
-        <v>0.865071922899439</v>
+        <v>0.9995453180587602</v>
       </c>
       <c r="F17">
-        <v>0.8591220705029636</v>
+        <v>1.033676554282524</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028370140685698</v>
+        <v>1.048136896693313</v>
       </c>
       <c r="J17">
-        <v>0.8733736901184188</v>
+        <v>1.018677081852513</v>
       </c>
       <c r="K17">
-        <v>1.024518055728978</v>
+        <v>1.05031752508163</v>
       </c>
       <c r="L17">
-        <v>0.8819466387729529</v>
+        <v>1.013561324195873</v>
       </c>
       <c r="M17">
-        <v>0.8761513658181961</v>
+        <v>1.047118798376252</v>
       </c>
       <c r="N17">
-        <v>0.8746139809357494</v>
+        <v>1.020123720152638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8471105837838235</v>
+        <v>0.9918739788417106</v>
       </c>
       <c r="D18">
-        <v>1.012111648783112</v>
+        <v>1.037668616731441</v>
       </c>
       <c r="E18">
-        <v>0.8733199248172874</v>
+        <v>1.000336509780195</v>
       </c>
       <c r="F18">
-        <v>0.8679523723122805</v>
+        <v>1.034544030754643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02941950863971</v>
+        <v>1.04844159690045</v>
       </c>
       <c r="J18">
-        <v>0.8815181364298246</v>
+        <v>1.019247531930991</v>
       </c>
       <c r="K18">
-        <v>1.025724543792713</v>
+        <v>1.050867344969923</v>
       </c>
       <c r="L18">
-        <v>0.889753616968136</v>
+        <v>1.014149437154068</v>
       </c>
       <c r="M18">
-        <v>0.8845196484190121</v>
+        <v>1.047791988884839</v>
       </c>
       <c r="N18">
-        <v>0.8827699932950985</v>
+        <v>1.02069498033566</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8501302463155335</v>
+        <v>0.9922174201213659</v>
       </c>
       <c r="D19">
-        <v>1.012579879244169</v>
+        <v>1.037920565724079</v>
       </c>
       <c r="E19">
-        <v>0.8760139711476604</v>
+        <v>1.000605485370276</v>
       </c>
       <c r="F19">
-        <v>0.8708363917422254</v>
+        <v>1.034838921673254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029763348505593</v>
+        <v>1.04854499022658</v>
       </c>
       <c r="J19">
-        <v>0.884177272650944</v>
+        <v>1.01944133508567</v>
       </c>
       <c r="K19">
-        <v>1.026121545766748</v>
+        <v>1.051054129548998</v>
       </c>
       <c r="L19">
-        <v>0.8923029335805313</v>
+        <v>1.014349288166242</v>
       </c>
       <c r="M19">
-        <v>0.8872523899135414</v>
+        <v>1.048020748229437</v>
       </c>
       <c r="N19">
-        <v>0.8854329057946591</v>
+        <v>1.020889058713048</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8360859940176395</v>
+        <v>0.990676703977131</v>
       </c>
       <c r="D20">
-        <v>1.010426713274737</v>
+        <v>1.036790687942488</v>
       </c>
       <c r="E20">
-        <v>0.8634931014826501</v>
+        <v>0.9993994019381468</v>
       </c>
       <c r="F20">
-        <v>0.8574316560338416</v>
+        <v>1.033516560557623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028169862521563</v>
+        <v>1.048080610239408</v>
       </c>
       <c r="J20">
-        <v>0.8718141200976967</v>
+        <v>1.018571814944874</v>
       </c>
       <c r="K20">
-        <v>1.024288666193002</v>
+        <v>1.050216060737837</v>
       </c>
       <c r="L20">
-        <v>0.8804518876302545</v>
+        <v>1.013452820366272</v>
       </c>
       <c r="M20">
-        <v>0.8745492068408462</v>
+        <v>1.046994597152603</v>
       </c>
       <c r="N20">
-        <v>0.8730521961467126</v>
+        <v>1.020018303753916</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7743939669422067</v>
+        <v>0.9855816216348352</v>
       </c>
       <c r="D21">
-        <v>1.001714483433401</v>
+        <v>1.033061605592617</v>
       </c>
       <c r="E21">
-        <v>0.8088030048777107</v>
+        <v>0.9954213188695646</v>
       </c>
       <c r="F21">
-        <v>0.7988376439008525</v>
+        <v>1.029153731518427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021366595077854</v>
+        <v>1.046535445819475</v>
       </c>
       <c r="J21">
-        <v>0.8176756675567622</v>
+        <v>1.015694787965823</v>
       </c>
       <c r="K21">
-        <v>1.016663447038567</v>
+        <v>1.047442567079146</v>
       </c>
       <c r="L21">
-        <v>0.8286103799260253</v>
+        <v>1.010489958098989</v>
       </c>
       <c r="M21">
-        <v>0.8189856297945236</v>
+        <v>1.043603055795272</v>
       </c>
       <c r="N21">
-        <v>0.8188368607934029</v>
+        <v>1.017137191066555</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7743939669422067</v>
+        <v>0.9823091458192243</v>
       </c>
       <c r="D22">
-        <v>1.001714483433401</v>
+        <v>1.030672658354084</v>
       </c>
       <c r="E22">
-        <v>0.8088030048777107</v>
+        <v>0.992874579945174</v>
       </c>
       <c r="F22">
-        <v>0.7988376439008525</v>
+        <v>1.026359846792378</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021366595077854</v>
+        <v>1.045535974164933</v>
       </c>
       <c r="J22">
-        <v>0.8176756675567622</v>
+        <v>1.013845935948607</v>
       </c>
       <c r="K22">
-        <v>1.016663447038567</v>
+        <v>1.045660026643835</v>
       </c>
       <c r="L22">
-        <v>0.8286103799260253</v>
+        <v>1.008588526797818</v>
       </c>
       <c r="M22">
-        <v>0.8189856297945236</v>
+        <v>1.04142659261771</v>
       </c>
       <c r="N22">
-        <v>0.8188368607934029</v>
+        <v>1.015285713467408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7743939669422067</v>
+        <v>0.984050689181255</v>
       </c>
       <c r="D23">
-        <v>1.001714483433401</v>
+        <v>1.031943392469816</v>
       </c>
       <c r="E23">
-        <v>0.8088030048777107</v>
+        <v>0.9942290981548073</v>
       </c>
       <c r="F23">
-        <v>0.7988376439008525</v>
+        <v>1.027845884482586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021366595077854</v>
+        <v>1.046068518174399</v>
       </c>
       <c r="J23">
-        <v>0.8176756675567622</v>
+        <v>1.014829935927233</v>
       </c>
       <c r="K23">
-        <v>1.016663447038567</v>
+        <v>1.046608742614648</v>
       </c>
       <c r="L23">
-        <v>0.8286103799260253</v>
+        <v>1.00960026644954</v>
       </c>
       <c r="M23">
-        <v>0.8189856297945236</v>
+        <v>1.042584659352416</v>
       </c>
       <c r="N23">
-        <v>0.8188368607934029</v>
+        <v>1.01627111083887</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7743939669422067</v>
+        <v>0.9907609979596002</v>
       </c>
       <c r="D24">
-        <v>1.001714483433401</v>
+        <v>1.036852478279503</v>
       </c>
       <c r="E24">
-        <v>0.8088030048777107</v>
+        <v>0.9994653499001221</v>
       </c>
       <c r="F24">
-        <v>0.7988376439008525</v>
+        <v>1.033588871337039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021366595077854</v>
+        <v>1.048106052875442</v>
       </c>
       <c r="J24">
-        <v>0.8176756675567622</v>
+        <v>1.018619393518999</v>
       </c>
       <c r="K24">
-        <v>1.016663447038567</v>
+        <v>1.050261920789281</v>
       </c>
       <c r="L24">
-        <v>0.8286103799260253</v>
+        <v>1.01350186110327</v>
       </c>
       <c r="M24">
-        <v>0.8189856297945236</v>
+        <v>1.047050732713053</v>
       </c>
       <c r="N24">
-        <v>0.8188368607934029</v>
+        <v>1.020065949895073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7743939669422067</v>
+        <v>0.9982667452485173</v>
       </c>
       <c r="D25">
-        <v>1.001714483433401</v>
+        <v>1.042366385984322</v>
       </c>
       <c r="E25">
-        <v>0.8088030048777107</v>
+        <v>1.005355297006837</v>
       </c>
       <c r="F25">
-        <v>0.7988376439008525</v>
+        <v>1.040044636752782</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021366595077854</v>
+        <v>1.050353918432445</v>
       </c>
       <c r="J25">
-        <v>0.8176756675567622</v>
+        <v>1.022852581456085</v>
       </c>
       <c r="K25">
-        <v>1.016663447038567</v>
+        <v>1.054340783573151</v>
       </c>
       <c r="L25">
-        <v>0.8286103799260253</v>
+        <v>1.017871043850892</v>
       </c>
       <c r="M25">
-        <v>0.8189856297945236</v>
+        <v>1.052051562696613</v>
       </c>
       <c r="N25">
-        <v>0.8188368607934029</v>
+        <v>1.024305149444584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004045887436281</v>
+        <v>1.031462608062972</v>
       </c>
       <c r="D2">
-        <v>1.046627165567335</v>
+        <v>1.055817956576718</v>
       </c>
       <c r="E2">
-        <v>1.009914832703368</v>
+        <v>1.031031366773808</v>
       </c>
       <c r="F2">
-        <v>1.045038185744509</v>
+        <v>1.060440428358929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052058030991966</v>
+        <v>1.043140024764572</v>
       </c>
       <c r="J2">
-        <v>1.026106256463353</v>
+        <v>1.036598199533664</v>
       </c>
       <c r="K2">
-        <v>1.057472993183694</v>
+        <v>1.058557370448738</v>
       </c>
       <c r="L2">
-        <v>1.021237744925688</v>
+        <v>1.033840661029319</v>
       </c>
       <c r="M2">
-        <v>1.05590379732106</v>
+        <v>1.063167201673782</v>
       </c>
       <c r="N2">
-        <v>1.027563445043564</v>
+        <v>1.038070287876477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00813055201628</v>
+        <v>1.032335070458165</v>
       </c>
       <c r="D3">
-        <v>1.049646093939823</v>
+        <v>1.05648050815102</v>
       </c>
       <c r="E3">
-        <v>1.013150787603364</v>
+        <v>1.031770875464479</v>
       </c>
       <c r="F3">
-        <v>1.048579556457318</v>
+        <v>1.061241999369861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053246264990532</v>
+        <v>1.043347729856755</v>
       </c>
       <c r="J3">
-        <v>1.028401997519594</v>
+        <v>1.037112939309349</v>
       </c>
       <c r="K3">
-        <v>1.059680833566506</v>
+        <v>1.059033823387854</v>
       </c>
       <c r="L3">
-        <v>1.02361812202756</v>
+        <v>1.034388833630989</v>
       </c>
       <c r="M3">
-        <v>1.058626411204675</v>
+        <v>1.063783231014322</v>
       </c>
       <c r="N3">
-        <v>1.029862446315429</v>
+        <v>1.038585758641685</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010724699676314</v>
+        <v>1.032900298392013</v>
       </c>
       <c r="D4">
-        <v>1.051566402676444</v>
+        <v>1.056909691339483</v>
       </c>
       <c r="E4">
-        <v>1.015211812035179</v>
+        <v>1.032250353067055</v>
       </c>
       <c r="F4">
-        <v>1.050833807320027</v>
+        <v>1.061761524108921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053993142471855</v>
+        <v>1.04348128003855</v>
       </c>
       <c r="J4">
-        <v>1.029857989000879</v>
+        <v>1.037446054578864</v>
       </c>
       <c r="K4">
-        <v>1.061079888384932</v>
+        <v>1.059341902763496</v>
       </c>
       <c r="L4">
-        <v>1.025130046200951</v>
+        <v>1.034743837368545</v>
       </c>
       <c r="M4">
-        <v>1.060355110510399</v>
+        <v>1.064182039974398</v>
       </c>
       <c r="N4">
-        <v>1.031320505471623</v>
+        <v>1.038919346973091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011803949807729</v>
+        <v>1.03313808307667</v>
       </c>
       <c r="D5">
-        <v>1.052365972359948</v>
+        <v>1.057090230114572</v>
       </c>
       <c r="E5">
-        <v>1.016070640071032</v>
+        <v>1.032452155009907</v>
       </c>
       <c r="F5">
-        <v>1.051772828883847</v>
+        <v>1.061980134934369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054301968071735</v>
+        <v>1.043537220559029</v>
       </c>
       <c r="J5">
-        <v>1.030463215469389</v>
+        <v>1.037586105619529</v>
       </c>
       <c r="K5">
-        <v>1.061661137332134</v>
+        <v>1.059471365828225</v>
       </c>
       <c r="L5">
-        <v>1.025759063402303</v>
+        <v>1.034893151315929</v>
       </c>
       <c r="M5">
-        <v>1.061074154054272</v>
+        <v>1.064349744724485</v>
       </c>
       <c r="N5">
-        <v>1.031926591431138</v>
+        <v>1.039059596902298</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011984506965374</v>
+        <v>1.033178017679149</v>
       </c>
       <c r="D6">
-        <v>1.052499776272919</v>
+        <v>1.057120549774574</v>
       </c>
       <c r="E6">
-        <v>1.016214400608703</v>
+        <v>1.032486051855767</v>
       </c>
       <c r="F6">
-        <v>1.051929993750769</v>
+        <v>1.062016852478045</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054353521464364</v>
+        <v>1.043546601235635</v>
       </c>
       <c r="J6">
-        <v>1.030564438073698</v>
+        <v>1.037609621320665</v>
       </c>
       <c r="K6">
-        <v>1.061758330816468</v>
+        <v>1.059493100067441</v>
       </c>
       <c r="L6">
-        <v>1.025864296718034</v>
+        <v>1.034918225873724</v>
       </c>
       <c r="M6">
-        <v>1.061194438717894</v>
+        <v>1.064377905708058</v>
       </c>
       <c r="N6">
-        <v>1.032027957783156</v>
+        <v>1.039083145998427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010739164697629</v>
+        <v>1.032903475044505</v>
       </c>
       <c r="D7">
-        <v>1.051577116664615</v>
+        <v>1.056912103276934</v>
       </c>
       <c r="E7">
-        <v>1.015223317395019</v>
+        <v>1.032253048654632</v>
       </c>
       <c r="F7">
-        <v>1.050846388293164</v>
+        <v>1.061764444403792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053997289163335</v>
+        <v>1.04348202832094</v>
       </c>
       <c r="J7">
-        <v>1.029866102821946</v>
+        <v>1.037447925912368</v>
       </c>
       <c r="K7">
-        <v>1.06108768201442</v>
+        <v>1.05934363286733</v>
       </c>
       <c r="L7">
-        <v>1.025138476831615</v>
+        <v>1.034745832233921</v>
       </c>
       <c r="M7">
-        <v>1.060364748405367</v>
+        <v>1.064184280676904</v>
       </c>
       <c r="N7">
-        <v>1.031328630815247</v>
+        <v>1.038921220964104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005436677765549</v>
+        <v>1.031757317800408</v>
       </c>
       <c r="D8">
-        <v>1.047654414848955</v>
+        <v>1.05604177094676</v>
       </c>
       <c r="E8">
-        <v>1.011015388643696</v>
+        <v>1.031281086146764</v>
       </c>
       <c r="F8">
-        <v>1.046242877573315</v>
+        <v>1.06071114486792</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052464216517684</v>
+        <v>1.043210394993907</v>
       </c>
       <c r="J8">
-        <v>1.026888340456534</v>
+        <v>1.036772148371763</v>
       </c>
       <c r="K8">
-        <v>1.058225366101854</v>
+        <v>1.058718434134835</v>
       </c>
       <c r="L8">
-        <v>1.022048188514775</v>
+        <v>1.034025855748448</v>
       </c>
       <c r="M8">
-        <v>1.056830877492031</v>
+        <v>1.063375349937837</v>
       </c>
       <c r="N8">
-        <v>1.028346639685721</v>
+        <v>1.038244483741878</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9957006178168399</v>
+        <v>1.029742964609737</v>
       </c>
       <c r="D9">
-        <v>1.040478637690753</v>
+        <v>1.054511801794807</v>
       </c>
       <c r="E9">
-        <v>1.003337606976101</v>
+        <v>1.029575838312708</v>
       </c>
       <c r="F9">
-        <v>1.037833703767152</v>
+        <v>1.058861730498548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049589489950504</v>
+        <v>1.042725273897683</v>
       </c>
       <c r="J9">
-        <v>1.021406117232249</v>
+        <v>1.035581733897007</v>
       </c>
       <c r="K9">
-        <v>1.052947423819861</v>
+        <v>1.057615151113884</v>
       </c>
       <c r="L9">
-        <v>1.016376764940121</v>
+        <v>1.032759515937174</v>
       </c>
       <c r="M9">
-        <v>1.050341392595679</v>
+        <v>1.061951490609943</v>
       </c>
       <c r="N9">
-        <v>1.022856631075638</v>
+        <v>1.037052378742026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9889197127468908</v>
+        <v>1.028403728346481</v>
       </c>
       <c r="D10">
-        <v>1.035503455210197</v>
+        <v>1.053494400583692</v>
       </c>
       <c r="E10">
-        <v>0.9980258039086681</v>
+        <v>1.02844413376478</v>
       </c>
       <c r="F10">
-        <v>1.032010313953968</v>
+        <v>1.057633366757625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047549372226855</v>
+        <v>1.042397555456297</v>
       </c>
       <c r="J10">
-        <v>1.017579949944828</v>
+        <v>1.034788459454128</v>
       </c>
       <c r="K10">
-        <v>1.049259966016416</v>
+        <v>1.056878636504118</v>
       </c>
       <c r="L10">
-        <v>1.012430794796735</v>
+        <v>1.031916947572414</v>
       </c>
       <c r="M10">
-        <v>1.045824703304411</v>
+        <v>1.061003411676426</v>
       </c>
       <c r="N10">
-        <v>1.019025030191801</v>
+        <v>1.036257977758449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9859083569792046</v>
+        <v>1.027824712071377</v>
       </c>
       <c r="D11">
-        <v>1.033300395529501</v>
+        <v>1.053054489908936</v>
       </c>
       <c r="E11">
-        <v>0.9956759490521345</v>
+        <v>1.027955330888932</v>
       </c>
       <c r="F11">
-        <v>1.029433039264819</v>
+        <v>1.057102582938013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046634946817643</v>
+        <v>1.042254638221914</v>
       </c>
       <c r="J11">
-        <v>1.015879346643729</v>
+        <v>1.03444505746281</v>
       </c>
       <c r="K11">
-        <v>1.047620500984085</v>
+        <v>1.05655950010274</v>
       </c>
       <c r="L11">
-        <v>1.010679873957576</v>
+        <v>1.031552515836742</v>
       </c>
       <c r="M11">
-        <v>1.04382044785838</v>
+        <v>1.060593179081401</v>
       </c>
       <c r="N11">
-        <v>1.017322011838952</v>
+        <v>1.035914088096914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9847779341746916</v>
+        <v>1.027609773596186</v>
       </c>
       <c r="D12">
-        <v>1.032474448224364</v>
+        <v>1.052891184188616</v>
       </c>
       <c r="E12">
-        <v>0.9947952670404944</v>
+        <v>1.027773954677315</v>
       </c>
       <c r="F12">
-        <v>1.028466979157222</v>
+        <v>1.056905594362638</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046290469443583</v>
+        <v>1.042201400952429</v>
       </c>
       <c r="J12">
-        <v>1.015240788845811</v>
+        <v>1.034317517565465</v>
       </c>
       <c r="K12">
-        <v>1.04700485860741</v>
+        <v>1.05644092692103</v>
       </c>
       <c r="L12">
-        <v>1.01002286548547</v>
+        <v>1.031417211967599</v>
       </c>
       <c r="M12">
-        <v>1.043068389750358</v>
+        <v>1.060440845951135</v>
       </c>
       <c r="N12">
-        <v>1.016682547215718</v>
+        <v>1.035786367078285</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9850209605538175</v>
+        <v>1.027655872543727</v>
       </c>
       <c r="D13">
-        <v>1.032651967219061</v>
+        <v>1.05292620941359</v>
       </c>
       <c r="E13">
-        <v>0.9949845371383879</v>
+        <v>1.027812852002916</v>
       </c>
       <c r="F13">
-        <v>1.028674604356592</v>
+        <v>1.056947841438088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046364581681535</v>
+        <v>1.042212827368695</v>
       </c>
       <c r="J13">
-        <v>1.015378077763756</v>
+        <v>1.034344874613066</v>
       </c>
       <c r="K13">
-        <v>1.047137222021076</v>
+        <v>1.056466362682845</v>
       </c>
       <c r="L13">
-        <v>1.0101641012045</v>
+        <v>1.031446232266289</v>
       </c>
       <c r="M13">
-        <v>1.043230057199002</v>
+        <v>1.060473519837858</v>
       </c>
       <c r="N13">
-        <v>1.016820031099674</v>
+        <v>1.035813762976032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9858151615065415</v>
+        <v>1.027806942448964</v>
       </c>
       <c r="D14">
-        <v>1.033232280000874</v>
+        <v>1.053040989023546</v>
       </c>
       <c r="E14">
-        <v>0.9956033137067599</v>
+        <v>1.027940334451072</v>
       </c>
       <c r="F14">
-        <v>1.029353365090272</v>
+        <v>1.057086296358563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046606571449568</v>
+        <v>1.042250240697735</v>
       </c>
       <c r="J14">
-        <v>1.01582670530776</v>
+        <v>1.034434514664317</v>
       </c>
       <c r="K14">
-        <v>1.047569749374398</v>
+        <v>1.056549699445112</v>
       </c>
       <c r="L14">
-        <v>1.010625702564014</v>
+        <v>1.031541330298108</v>
       </c>
       <c r="M14">
-        <v>1.043758439108662</v>
+        <v>1.060580586239026</v>
       </c>
       <c r="N14">
-        <v>1.017269295746249</v>
+        <v>1.035903530326438</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9863029040282218</v>
+        <v>1.02790003939696</v>
       </c>
       <c r="D15">
-        <v>1.033588809012573</v>
+        <v>1.05311172139956</v>
       </c>
       <c r="E15">
-        <v>0.9959835122616536</v>
+        <v>1.028018905418491</v>
       </c>
       <c r="F15">
-        <v>1.029770401507341</v>
+        <v>1.0571716253495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046755025952902</v>
+        <v>1.042273272238893</v>
       </c>
       <c r="J15">
-        <v>1.016102199157088</v>
+        <v>1.034489746867931</v>
       </c>
       <c r="K15">
-        <v>1.047835352037843</v>
+        <v>1.056601041815853</v>
       </c>
       <c r="L15">
-        <v>1.010909221917246</v>
+        <v>1.03159993162943</v>
       </c>
       <c r="M15">
-        <v>1.044082977781878</v>
+        <v>1.060646559464531</v>
       </c>
       <c r="N15">
-        <v>1.017545180828443</v>
+        <v>1.035958840966116</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.989117934189726</v>
+        <v>1.028442174454088</v>
       </c>
       <c r="D16">
-        <v>1.035648611766379</v>
+        <v>1.053523609460298</v>
       </c>
       <c r="E16">
-        <v>0.9981806765298763</v>
+        <v>1.028476600121718</v>
       </c>
       <c r="F16">
-        <v>1.032180153863288</v>
+        <v>1.057668616603137</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047609392566789</v>
+        <v>1.0424070191235</v>
       </c>
       <c r="J16">
-        <v>1.017691865176123</v>
+        <v>1.034811251935379</v>
       </c>
       <c r="K16">
-        <v>1.049367850075416</v>
+        <v>1.056899812009353</v>
       </c>
       <c r="L16">
-        <v>1.01254608271293</v>
+        <v>1.031941142371379</v>
       </c>
       <c r="M16">
-        <v>1.045956671934674</v>
+        <v>1.06103064375444</v>
       </c>
       <c r="N16">
-        <v>1.019137104355561</v>
+        <v>1.036280802607636</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9908632048886551</v>
+        <v>1.028782478581629</v>
       </c>
       <c r="D17">
-        <v>1.036927403515304</v>
+        <v>1.053782146192618</v>
       </c>
       <c r="E17">
-        <v>0.9995453180587602</v>
+        <v>1.028764031168922</v>
       </c>
       <c r="F17">
-        <v>1.033676554282524</v>
+        <v>1.057980663574458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048136896693313</v>
+        <v>1.042490644330353</v>
       </c>
       <c r="J17">
-        <v>1.018677081852513</v>
+        <v>1.035012948807122</v>
       </c>
       <c r="K17">
-        <v>1.05031752508163</v>
+        <v>1.057087164588343</v>
       </c>
       <c r="L17">
-        <v>1.013561324195873</v>
+        <v>1.032155284463462</v>
       </c>
       <c r="M17">
-        <v>1.047118798376252</v>
+        <v>1.06127164899873</v>
       </c>
       <c r="N17">
-        <v>1.020123720152638</v>
+        <v>1.036482785912072</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9918739788417106</v>
+        <v>1.028981057210699</v>
       </c>
       <c r="D18">
-        <v>1.037668616731441</v>
+        <v>1.053933007024952</v>
       </c>
       <c r="E18">
-        <v>1.000336509780195</v>
+        <v>1.028931803652661</v>
       </c>
       <c r="F18">
-        <v>1.034544030754643</v>
+        <v>1.058162781849211</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04844159690045</v>
+        <v>1.042539323710121</v>
       </c>
       <c r="J18">
-        <v>1.019247531930991</v>
+        <v>1.035130603886467</v>
       </c>
       <c r="K18">
-        <v>1.050867344969923</v>
+        <v>1.057196422785055</v>
       </c>
       <c r="L18">
-        <v>1.014149437154068</v>
+        <v>1.032280229000383</v>
       </c>
       <c r="M18">
-        <v>1.047791988884839</v>
+        <v>1.061412251326162</v>
       </c>
       <c r="N18">
-        <v>1.02069498033566</v>
+        <v>1.036600608075125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9922174201213659</v>
+        <v>1.029048781762739</v>
       </c>
       <c r="D19">
-        <v>1.037920565724079</v>
+        <v>1.053984456912492</v>
       </c>
       <c r="E19">
-        <v>1.000605485370276</v>
+        <v>1.028989029834224</v>
       </c>
       <c r="F19">
-        <v>1.034838921673254</v>
+        <v>1.058224897486288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04854499022658</v>
+        <v>1.042555905511374</v>
       </c>
       <c r="J19">
-        <v>1.01944133508567</v>
+        <v>1.035170722668057</v>
       </c>
       <c r="K19">
-        <v>1.051054129548998</v>
+        <v>1.057233673334017</v>
       </c>
       <c r="L19">
-        <v>1.014349288166242</v>
+        <v>1.032322838446765</v>
       </c>
       <c r="M19">
-        <v>1.048020748229437</v>
+        <v>1.061460197792426</v>
       </c>
       <c r="N19">
-        <v>1.020889058713048</v>
+        <v>1.036640783829987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.990676703977131</v>
+        <v>1.028745958368002</v>
       </c>
       <c r="D20">
-        <v>1.036790687942488</v>
+        <v>1.053754401352474</v>
       </c>
       <c r="E20">
-        <v>0.9993994019381468</v>
+        <v>1.028733180235386</v>
       </c>
       <c r="F20">
-        <v>1.033516560557623</v>
+        <v>1.05794717285136</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048080610239408</v>
+        <v>1.04248168224644</v>
       </c>
       <c r="J20">
-        <v>1.018571814944874</v>
+        <v>1.034991307732344</v>
       </c>
       <c r="K20">
-        <v>1.050216060737837</v>
+        <v>1.057067065632028</v>
       </c>
       <c r="L20">
-        <v>1.013452820366272</v>
+        <v>1.03213230499211</v>
       </c>
       <c r="M20">
-        <v>1.046994597152603</v>
+        <v>1.061245788503858</v>
       </c>
       <c r="N20">
-        <v>1.020018303753916</v>
+        <v>1.036461114104486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9855816216348352</v>
+        <v>1.027762452417763</v>
       </c>
       <c r="D21">
-        <v>1.033061605592617</v>
+        <v>1.053007186604608</v>
       </c>
       <c r="E21">
-        <v>0.9954213188695646</v>
+        <v>1.02790278887301</v>
       </c>
       <c r="F21">
-        <v>1.029153731518427</v>
+        <v>1.057045520176759</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046535445819475</v>
+        <v>1.042239227579476</v>
       </c>
       <c r="J21">
-        <v>1.015694787965823</v>
+        <v>1.034408117482631</v>
       </c>
       <c r="K21">
-        <v>1.047442567079146</v>
+        <v>1.056525159709541</v>
       </c>
       <c r="L21">
-        <v>1.010489958098989</v>
+        <v>1.031513324567517</v>
       </c>
       <c r="M21">
-        <v>1.043603055795272</v>
+        <v>1.060549056582381</v>
       </c>
       <c r="N21">
-        <v>1.017137191066555</v>
+        <v>1.035877095657725</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823091458192243</v>
+        <v>1.027144858911819</v>
       </c>
       <c r="D22">
-        <v>1.030672658354084</v>
+        <v>1.052537943413736</v>
       </c>
       <c r="E22">
-        <v>0.992874579945174</v>
+        <v>1.027381771309092</v>
       </c>
       <c r="F22">
-        <v>1.026359846792378</v>
+        <v>1.056479589331605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045535974164933</v>
+        <v>1.042085910861873</v>
       </c>
       <c r="J22">
-        <v>1.013845935948607</v>
+        <v>1.034041529386877</v>
       </c>
       <c r="K22">
-        <v>1.045660026643835</v>
+        <v>1.056184259184334</v>
       </c>
       <c r="L22">
-        <v>1.008588526797818</v>
+        <v>1.03112450813055</v>
       </c>
       <c r="M22">
-        <v>1.04142659261771</v>
+        <v>1.060111257770656</v>
       </c>
       <c r="N22">
-        <v>1.015285713467408</v>
+        <v>1.035509986964828</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.984050689181255</v>
+        <v>1.027472182896457</v>
       </c>
       <c r="D23">
-        <v>1.031943392469816</v>
+        <v>1.052786644347615</v>
       </c>
       <c r="E23">
-        <v>0.9942290981548073</v>
+        <v>1.027657869391437</v>
       </c>
       <c r="F23">
-        <v>1.027845884482586</v>
+        <v>1.056779506978738</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046068518174399</v>
+        <v>1.042167269725618</v>
       </c>
       <c r="J23">
-        <v>1.014829935927233</v>
+        <v>1.034235856044593</v>
       </c>
       <c r="K23">
-        <v>1.046608742614648</v>
+        <v>1.05636499384345</v>
       </c>
       <c r="L23">
-        <v>1.00960026644954</v>
+        <v>1.031330592409967</v>
       </c>
       <c r="M23">
-        <v>1.042584659352416</v>
+        <v>1.060343317601579</v>
       </c>
       <c r="N23">
-        <v>1.01627111083887</v>
+        <v>1.035704589588687</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9907609979596002</v>
+        <v>1.028762460018108</v>
       </c>
       <c r="D24">
-        <v>1.036852478279503</v>
+        <v>1.053766937864077</v>
       </c>
       <c r="E24">
-        <v>0.9994653499001221</v>
+        <v>1.028747120077386</v>
       </c>
       <c r="F24">
-        <v>1.033588871337039</v>
+        <v>1.057962305538559</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048106052875442</v>
+        <v>1.042485732128633</v>
       </c>
       <c r="J24">
-        <v>1.018619393518999</v>
+        <v>1.035001086375751</v>
       </c>
       <c r="K24">
-        <v>1.050261920789281</v>
+        <v>1.057076147551522</v>
       </c>
       <c r="L24">
-        <v>1.01350186110327</v>
+        <v>1.032142688305493</v>
       </c>
       <c r="M24">
-        <v>1.047050732713053</v>
+        <v>1.061257473661894</v>
       </c>
       <c r="N24">
-        <v>1.020065949895073</v>
+        <v>1.036470906634688</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9982667452485173</v>
+        <v>1.030263083479473</v>
       </c>
       <c r="D25">
-        <v>1.042366385984322</v>
+        <v>1.054906889281473</v>
       </c>
       <c r="E25">
-        <v>1.005355297006837</v>
+        <v>1.030015789492793</v>
       </c>
       <c r="F25">
-        <v>1.040044636752782</v>
+        <v>1.059339050032667</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050353918432445</v>
+        <v>1.042851451282159</v>
       </c>
       <c r="J25">
-        <v>1.022852581456085</v>
+        <v>1.035889430745813</v>
       </c>
       <c r="K25">
-        <v>1.054340783573151</v>
+        <v>1.057900557406811</v>
       </c>
       <c r="L25">
-        <v>1.017871043850892</v>
+        <v>1.03308660855538</v>
       </c>
       <c r="M25">
-        <v>1.052051562696613</v>
+        <v>1.06231939500786</v>
       </c>
       <c r="N25">
-        <v>1.024305149444584</v>
+        <v>1.037360512555651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031462608062972</v>
+        <v>1.00404588743628</v>
       </c>
       <c r="D2">
-        <v>1.055817956576718</v>
+        <v>1.046627165567334</v>
       </c>
       <c r="E2">
-        <v>1.031031366773808</v>
+        <v>1.009914832703366</v>
       </c>
       <c r="F2">
-        <v>1.060440428358929</v>
+        <v>1.045038185744507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043140024764572</v>
+        <v>1.052058030991965</v>
       </c>
       <c r="J2">
-        <v>1.036598199533664</v>
+        <v>1.026106256463352</v>
       </c>
       <c r="K2">
-        <v>1.058557370448738</v>
+        <v>1.057472993183693</v>
       </c>
       <c r="L2">
-        <v>1.033840661029319</v>
+        <v>1.021237744925686</v>
       </c>
       <c r="M2">
-        <v>1.063167201673782</v>
+        <v>1.055903797321059</v>
       </c>
       <c r="N2">
-        <v>1.038070287876477</v>
+        <v>1.027563445043562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032335070458165</v>
+        <v>1.008130552016279</v>
       </c>
       <c r="D3">
-        <v>1.05648050815102</v>
+        <v>1.049646093939822</v>
       </c>
       <c r="E3">
-        <v>1.031770875464479</v>
+        <v>1.013150787603363</v>
       </c>
       <c r="F3">
-        <v>1.061241999369861</v>
+        <v>1.048579556457317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043347729856755</v>
+        <v>1.053246264990532</v>
       </c>
       <c r="J3">
-        <v>1.037112939309349</v>
+        <v>1.028401997519593</v>
       </c>
       <c r="K3">
-        <v>1.059033823387854</v>
+        <v>1.059680833566506</v>
       </c>
       <c r="L3">
-        <v>1.034388833630989</v>
+        <v>1.023618122027558</v>
       </c>
       <c r="M3">
-        <v>1.063783231014322</v>
+        <v>1.058626411204674</v>
       </c>
       <c r="N3">
-        <v>1.038585758641685</v>
+        <v>1.029862446315428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032900298392013</v>
+        <v>1.010724699676314</v>
       </c>
       <c r="D4">
-        <v>1.056909691339483</v>
+        <v>1.051566402676444</v>
       </c>
       <c r="E4">
-        <v>1.032250353067055</v>
+        <v>1.015211812035179</v>
       </c>
       <c r="F4">
-        <v>1.061761524108921</v>
+        <v>1.050833807320027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04348128003855</v>
+        <v>1.053993142471855</v>
       </c>
       <c r="J4">
-        <v>1.037446054578864</v>
+        <v>1.029857989000879</v>
       </c>
       <c r="K4">
-        <v>1.059341902763496</v>
+        <v>1.061079888384932</v>
       </c>
       <c r="L4">
-        <v>1.034743837368545</v>
+        <v>1.02513004620095</v>
       </c>
       <c r="M4">
-        <v>1.064182039974398</v>
+        <v>1.060355110510399</v>
       </c>
       <c r="N4">
-        <v>1.038919346973091</v>
+        <v>1.031320505471623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03313808307667</v>
+        <v>1.011803949807728</v>
       </c>
       <c r="D5">
-        <v>1.057090230114572</v>
+        <v>1.052365972359948</v>
       </c>
       <c r="E5">
-        <v>1.032452155009907</v>
+        <v>1.016070640071032</v>
       </c>
       <c r="F5">
-        <v>1.061980134934369</v>
+        <v>1.051772828883847</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043537220559029</v>
+        <v>1.054301968071735</v>
       </c>
       <c r="J5">
-        <v>1.037586105619529</v>
+        <v>1.030463215469388</v>
       </c>
       <c r="K5">
-        <v>1.059471365828225</v>
+        <v>1.061661137332134</v>
       </c>
       <c r="L5">
-        <v>1.034893151315929</v>
+        <v>1.025759063402303</v>
       </c>
       <c r="M5">
-        <v>1.064349744724485</v>
+        <v>1.061074154054272</v>
       </c>
       <c r="N5">
-        <v>1.039059596902298</v>
+        <v>1.031926591431138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033178017679149</v>
+        <v>1.011984506965373</v>
       </c>
       <c r="D6">
-        <v>1.057120549774574</v>
+        <v>1.052499776272919</v>
       </c>
       <c r="E6">
-        <v>1.032486051855767</v>
+        <v>1.016214400608703</v>
       </c>
       <c r="F6">
-        <v>1.062016852478045</v>
+        <v>1.051929993750768</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043546601235635</v>
+        <v>1.054353521464364</v>
       </c>
       <c r="J6">
-        <v>1.037609621320665</v>
+        <v>1.030564438073697</v>
       </c>
       <c r="K6">
-        <v>1.059493100067441</v>
+        <v>1.061758330816468</v>
       </c>
       <c r="L6">
-        <v>1.034918225873724</v>
+        <v>1.025864296718033</v>
       </c>
       <c r="M6">
-        <v>1.064377905708058</v>
+        <v>1.061194438717894</v>
       </c>
       <c r="N6">
-        <v>1.039083145998427</v>
+        <v>1.032027957783155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032903475044505</v>
+        <v>1.010739164697628</v>
       </c>
       <c r="D7">
-        <v>1.056912103276934</v>
+        <v>1.051577116664614</v>
       </c>
       <c r="E7">
-        <v>1.032253048654632</v>
+        <v>1.015223317395018</v>
       </c>
       <c r="F7">
-        <v>1.061764444403792</v>
+        <v>1.050846388293163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04348202832094</v>
+        <v>1.053997289163335</v>
       </c>
       <c r="J7">
-        <v>1.037447925912368</v>
+        <v>1.029866102821945</v>
       </c>
       <c r="K7">
-        <v>1.05934363286733</v>
+        <v>1.061087682014419</v>
       </c>
       <c r="L7">
-        <v>1.034745832233921</v>
+        <v>1.025138476831614</v>
       </c>
       <c r="M7">
-        <v>1.064184280676904</v>
+        <v>1.060364748405366</v>
       </c>
       <c r="N7">
-        <v>1.038921220964104</v>
+        <v>1.031328630815245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031757317800408</v>
+        <v>1.005436677765548</v>
       </c>
       <c r="D8">
-        <v>1.05604177094676</v>
+        <v>1.047654414848955</v>
       </c>
       <c r="E8">
-        <v>1.031281086146764</v>
+        <v>1.011015388643695</v>
       </c>
       <c r="F8">
-        <v>1.06071114486792</v>
+        <v>1.046242877573315</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043210394993907</v>
+        <v>1.052464216517684</v>
       </c>
       <c r="J8">
-        <v>1.036772148371763</v>
+        <v>1.026888340456533</v>
       </c>
       <c r="K8">
-        <v>1.058718434134835</v>
+        <v>1.058225366101854</v>
       </c>
       <c r="L8">
-        <v>1.034025855748448</v>
+        <v>1.022048188514775</v>
       </c>
       <c r="M8">
-        <v>1.063375349937837</v>
+        <v>1.056830877492031</v>
       </c>
       <c r="N8">
-        <v>1.038244483741878</v>
+        <v>1.028346639685721</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029742964609737</v>
+        <v>0.9957006178168391</v>
       </c>
       <c r="D9">
-        <v>1.054511801794807</v>
+        <v>1.040478637690753</v>
       </c>
       <c r="E9">
-        <v>1.029575838312708</v>
+        <v>1.003337606976099</v>
       </c>
       <c r="F9">
-        <v>1.058861730498548</v>
+        <v>1.037833703767152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042725273897683</v>
+        <v>1.049589489950504</v>
       </c>
       <c r="J9">
-        <v>1.035581733897007</v>
+        <v>1.021406117232248</v>
       </c>
       <c r="K9">
-        <v>1.057615151113884</v>
+        <v>1.052947423819861</v>
       </c>
       <c r="L9">
-        <v>1.032759515937174</v>
+        <v>1.01637676494012</v>
       </c>
       <c r="M9">
-        <v>1.061951490609943</v>
+        <v>1.050341392595679</v>
       </c>
       <c r="N9">
-        <v>1.037052378742026</v>
+        <v>1.022856631075637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028403728346481</v>
+        <v>0.9889197127468902</v>
       </c>
       <c r="D10">
-        <v>1.053494400583692</v>
+        <v>1.035503455210197</v>
       </c>
       <c r="E10">
-        <v>1.02844413376478</v>
+        <v>0.9980258039086674</v>
       </c>
       <c r="F10">
-        <v>1.057633366757625</v>
+        <v>1.032010313953967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042397555456297</v>
+        <v>1.047549372226855</v>
       </c>
       <c r="J10">
-        <v>1.034788459454128</v>
+        <v>1.017579949944827</v>
       </c>
       <c r="K10">
-        <v>1.056878636504118</v>
+        <v>1.049259966016416</v>
       </c>
       <c r="L10">
-        <v>1.031916947572414</v>
+        <v>1.012430794796734</v>
       </c>
       <c r="M10">
-        <v>1.061003411676426</v>
+        <v>1.045824703304411</v>
       </c>
       <c r="N10">
-        <v>1.036257977758449</v>
+        <v>1.019025030191801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027824712071377</v>
+        <v>0.9859083569792046</v>
       </c>
       <c r="D11">
-        <v>1.053054489908936</v>
+        <v>1.033300395529502</v>
       </c>
       <c r="E11">
-        <v>1.027955330888932</v>
+        <v>0.9956759490521347</v>
       </c>
       <c r="F11">
-        <v>1.057102582938013</v>
+        <v>1.02943303926482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042254638221914</v>
+        <v>1.046634946817644</v>
       </c>
       <c r="J11">
-        <v>1.03444505746281</v>
+        <v>1.015879346643729</v>
       </c>
       <c r="K11">
-        <v>1.05655950010274</v>
+        <v>1.047620500984086</v>
       </c>
       <c r="L11">
-        <v>1.031552515836742</v>
+        <v>1.010679873957576</v>
       </c>
       <c r="M11">
-        <v>1.060593179081401</v>
+        <v>1.043820447858381</v>
       </c>
       <c r="N11">
-        <v>1.035914088096914</v>
+        <v>1.017322011838953</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027609773596186</v>
+        <v>0.9847779341746917</v>
       </c>
       <c r="D12">
-        <v>1.052891184188616</v>
+        <v>1.032474448224364</v>
       </c>
       <c r="E12">
-        <v>1.027773954677315</v>
+        <v>0.9947952670404941</v>
       </c>
       <c r="F12">
-        <v>1.056905594362638</v>
+        <v>1.028466979157222</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042201400952429</v>
+        <v>1.046290469443583</v>
       </c>
       <c r="J12">
-        <v>1.034317517565465</v>
+        <v>1.015240788845811</v>
       </c>
       <c r="K12">
-        <v>1.05644092692103</v>
+        <v>1.04700485860741</v>
       </c>
       <c r="L12">
-        <v>1.031417211967599</v>
+        <v>1.01002286548547</v>
       </c>
       <c r="M12">
-        <v>1.060440845951135</v>
+        <v>1.043068389750358</v>
       </c>
       <c r="N12">
-        <v>1.035786367078285</v>
+        <v>1.016682547215718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027655872543727</v>
+        <v>0.9850209605538167</v>
       </c>
       <c r="D13">
-        <v>1.05292620941359</v>
+        <v>1.03265196721906</v>
       </c>
       <c r="E13">
-        <v>1.027812852002916</v>
+        <v>0.9949845371383869</v>
       </c>
       <c r="F13">
-        <v>1.056947841438088</v>
+        <v>1.028674604356592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042212827368695</v>
+        <v>1.046364581681535</v>
       </c>
       <c r="J13">
-        <v>1.034344874613066</v>
+        <v>1.015378077763755</v>
       </c>
       <c r="K13">
-        <v>1.056466362682845</v>
+        <v>1.047137222021076</v>
       </c>
       <c r="L13">
-        <v>1.031446232266289</v>
+        <v>1.010164101204499</v>
       </c>
       <c r="M13">
-        <v>1.060473519837858</v>
+        <v>1.043230057199002</v>
       </c>
       <c r="N13">
-        <v>1.035813762976032</v>
+        <v>1.016820031099673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027806942448964</v>
+        <v>0.9858151615065412</v>
       </c>
       <c r="D14">
-        <v>1.053040989023546</v>
+        <v>1.033232280000874</v>
       </c>
       <c r="E14">
-        <v>1.027940334451072</v>
+        <v>0.9956033137067593</v>
       </c>
       <c r="F14">
-        <v>1.057086296358563</v>
+        <v>1.029353365090272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042250240697735</v>
+        <v>1.046606571449568</v>
       </c>
       <c r="J14">
-        <v>1.034434514664317</v>
+        <v>1.01582670530776</v>
       </c>
       <c r="K14">
-        <v>1.056549699445112</v>
+        <v>1.047569749374398</v>
       </c>
       <c r="L14">
-        <v>1.031541330298108</v>
+        <v>1.010625702564014</v>
       </c>
       <c r="M14">
-        <v>1.060580586239026</v>
+        <v>1.043758439108661</v>
       </c>
       <c r="N14">
-        <v>1.035903530326438</v>
+        <v>1.017269295746248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02790003939696</v>
+        <v>0.9863029040282218</v>
       </c>
       <c r="D15">
-        <v>1.05311172139956</v>
+        <v>1.033588809012573</v>
       </c>
       <c r="E15">
-        <v>1.028018905418491</v>
+        <v>0.9959835122616538</v>
       </c>
       <c r="F15">
-        <v>1.0571716253495</v>
+        <v>1.029770401507341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042273272238893</v>
+        <v>1.046755025952902</v>
       </c>
       <c r="J15">
-        <v>1.034489746867931</v>
+        <v>1.016102199157088</v>
       </c>
       <c r="K15">
-        <v>1.056601041815853</v>
+        <v>1.047835352037843</v>
       </c>
       <c r="L15">
-        <v>1.03159993162943</v>
+        <v>1.010909221917246</v>
       </c>
       <c r="M15">
-        <v>1.060646559464531</v>
+        <v>1.044082977781878</v>
       </c>
       <c r="N15">
-        <v>1.035958840966116</v>
+        <v>1.017545180828443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028442174454088</v>
+        <v>0.9891179341897267</v>
       </c>
       <c r="D16">
-        <v>1.053523609460298</v>
+        <v>1.035648611766379</v>
       </c>
       <c r="E16">
-        <v>1.028476600121718</v>
+        <v>0.9981806765298769</v>
       </c>
       <c r="F16">
-        <v>1.057668616603137</v>
+        <v>1.032180153863289</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0424070191235</v>
+        <v>1.04760939256679</v>
       </c>
       <c r="J16">
-        <v>1.034811251935379</v>
+        <v>1.017691865176123</v>
       </c>
       <c r="K16">
-        <v>1.056899812009353</v>
+        <v>1.049367850075417</v>
       </c>
       <c r="L16">
-        <v>1.031941142371379</v>
+        <v>1.012546082712931</v>
       </c>
       <c r="M16">
-        <v>1.06103064375444</v>
+        <v>1.045956671934674</v>
       </c>
       <c r="N16">
-        <v>1.036280802607636</v>
+        <v>1.019137104355562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028782478581629</v>
+        <v>0.9908632048886551</v>
       </c>
       <c r="D17">
-        <v>1.053782146192618</v>
+        <v>1.036927403515303</v>
       </c>
       <c r="E17">
-        <v>1.028764031168922</v>
+        <v>0.9995453180587602</v>
       </c>
       <c r="F17">
-        <v>1.057980663574458</v>
+        <v>1.033676554282524</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042490644330353</v>
+        <v>1.048136896693313</v>
       </c>
       <c r="J17">
-        <v>1.035012948807122</v>
+        <v>1.018677081852512</v>
       </c>
       <c r="K17">
-        <v>1.057087164588343</v>
+        <v>1.05031752508163</v>
       </c>
       <c r="L17">
-        <v>1.032155284463462</v>
+        <v>1.013561324195873</v>
       </c>
       <c r="M17">
-        <v>1.06127164899873</v>
+        <v>1.047118798376251</v>
       </c>
       <c r="N17">
-        <v>1.036482785912072</v>
+        <v>1.020123720152638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028981057210699</v>
+        <v>0.9918739788417107</v>
       </c>
       <c r="D18">
-        <v>1.053933007024952</v>
+        <v>1.037668616731441</v>
       </c>
       <c r="E18">
-        <v>1.028931803652661</v>
+        <v>1.000336509780195</v>
       </c>
       <c r="F18">
-        <v>1.058162781849211</v>
+        <v>1.034544030754643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042539323710121</v>
+        <v>1.04844159690045</v>
       </c>
       <c r="J18">
-        <v>1.035130603886467</v>
+        <v>1.019247531930991</v>
       </c>
       <c r="K18">
-        <v>1.057196422785055</v>
+        <v>1.050867344969923</v>
       </c>
       <c r="L18">
-        <v>1.032280229000383</v>
+        <v>1.014149437154068</v>
       </c>
       <c r="M18">
-        <v>1.061412251326162</v>
+        <v>1.047791988884839</v>
       </c>
       <c r="N18">
-        <v>1.036600608075125</v>
+        <v>1.020694980335659</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029048781762739</v>
+        <v>0.9922174201213652</v>
       </c>
       <c r="D19">
-        <v>1.053984456912492</v>
+        <v>1.037920565724078</v>
       </c>
       <c r="E19">
-        <v>1.028989029834224</v>
+        <v>1.000605485370275</v>
       </c>
       <c r="F19">
-        <v>1.058224897486288</v>
+        <v>1.034838921673253</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042555905511374</v>
+        <v>1.04854499022658</v>
       </c>
       <c r="J19">
-        <v>1.035170722668057</v>
+        <v>1.019441335085669</v>
       </c>
       <c r="K19">
-        <v>1.057233673334017</v>
+        <v>1.051054129548997</v>
       </c>
       <c r="L19">
-        <v>1.032322838446765</v>
+        <v>1.014349288166241</v>
       </c>
       <c r="M19">
-        <v>1.061460197792426</v>
+        <v>1.048020748229436</v>
       </c>
       <c r="N19">
-        <v>1.036640783829987</v>
+        <v>1.020889058713047</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028745958368002</v>
+        <v>0.9906767039771303</v>
       </c>
       <c r="D20">
-        <v>1.053754401352474</v>
+        <v>1.036790687942488</v>
       </c>
       <c r="E20">
-        <v>1.028733180235386</v>
+        <v>0.9993994019381459</v>
       </c>
       <c r="F20">
-        <v>1.05794717285136</v>
+        <v>1.033516560557622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04248168224644</v>
+        <v>1.048080610239407</v>
       </c>
       <c r="J20">
-        <v>1.034991307732344</v>
+        <v>1.018571814944873</v>
       </c>
       <c r="K20">
-        <v>1.057067065632028</v>
+        <v>1.050216060737837</v>
       </c>
       <c r="L20">
-        <v>1.03213230499211</v>
+        <v>1.013452820366271</v>
       </c>
       <c r="M20">
-        <v>1.061245788503858</v>
+        <v>1.046994597152602</v>
       </c>
       <c r="N20">
-        <v>1.036461114104486</v>
+        <v>1.020018303753915</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027762452417763</v>
+        <v>0.9855816216348344</v>
       </c>
       <c r="D21">
-        <v>1.053007186604608</v>
+        <v>1.033061605592617</v>
       </c>
       <c r="E21">
-        <v>1.02790278887301</v>
+        <v>0.9954213188695641</v>
       </c>
       <c r="F21">
-        <v>1.057045520176759</v>
+        <v>1.029153731518427</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042239227579476</v>
+        <v>1.046535445819474</v>
       </c>
       <c r="J21">
-        <v>1.034408117482631</v>
+        <v>1.015694787965822</v>
       </c>
       <c r="K21">
-        <v>1.056525159709541</v>
+        <v>1.047442567079146</v>
       </c>
       <c r="L21">
-        <v>1.031513324567517</v>
+        <v>1.010489958098988</v>
       </c>
       <c r="M21">
-        <v>1.060549056582381</v>
+        <v>1.043603055795272</v>
       </c>
       <c r="N21">
-        <v>1.035877095657725</v>
+        <v>1.017137191066554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027144858911819</v>
+        <v>0.9823091458192238</v>
       </c>
       <c r="D22">
-        <v>1.052537943413736</v>
+        <v>1.030672658354084</v>
       </c>
       <c r="E22">
-        <v>1.027381771309092</v>
+        <v>0.9928745799451737</v>
       </c>
       <c r="F22">
-        <v>1.056479589331605</v>
+        <v>1.026359846792377</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042085910861873</v>
+        <v>1.045535974164932</v>
       </c>
       <c r="J22">
-        <v>1.034041529386877</v>
+        <v>1.013845935948607</v>
       </c>
       <c r="K22">
-        <v>1.056184259184334</v>
+        <v>1.045660026643835</v>
       </c>
       <c r="L22">
-        <v>1.03112450813055</v>
+        <v>1.008588526797817</v>
       </c>
       <c r="M22">
-        <v>1.060111257770656</v>
+        <v>1.04142659261771</v>
       </c>
       <c r="N22">
-        <v>1.035509986964828</v>
+        <v>1.015285713467408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027472182896457</v>
+        <v>0.9840506891812545</v>
       </c>
       <c r="D23">
-        <v>1.052786644347615</v>
+        <v>1.031943392469815</v>
       </c>
       <c r="E23">
-        <v>1.027657869391437</v>
+        <v>0.9942290981548071</v>
       </c>
       <c r="F23">
-        <v>1.056779506978738</v>
+        <v>1.027845884482586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042167269725618</v>
+        <v>1.046068518174399</v>
       </c>
       <c r="J23">
-        <v>1.034235856044593</v>
+        <v>1.014829935927232</v>
       </c>
       <c r="K23">
-        <v>1.05636499384345</v>
+        <v>1.046608742614648</v>
       </c>
       <c r="L23">
-        <v>1.031330592409967</v>
+        <v>1.00960026644954</v>
       </c>
       <c r="M23">
-        <v>1.060343317601579</v>
+        <v>1.042584659352415</v>
       </c>
       <c r="N23">
-        <v>1.035704589588687</v>
+        <v>1.01627111083887</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028762460018108</v>
+        <v>0.9907609979595992</v>
       </c>
       <c r="D24">
-        <v>1.053766937864077</v>
+        <v>1.036852478279503</v>
       </c>
       <c r="E24">
-        <v>1.028747120077386</v>
+        <v>0.999465349900121</v>
       </c>
       <c r="F24">
-        <v>1.057962305538559</v>
+        <v>1.033588871337038</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042485732128633</v>
+        <v>1.048106052875441</v>
       </c>
       <c r="J24">
-        <v>1.035001086375751</v>
+        <v>1.018619393518998</v>
       </c>
       <c r="K24">
-        <v>1.057076147551522</v>
+        <v>1.05026192078928</v>
       </c>
       <c r="L24">
-        <v>1.032142688305493</v>
+        <v>1.013501861103268</v>
       </c>
       <c r="M24">
-        <v>1.061257473661894</v>
+        <v>1.047050732713052</v>
       </c>
       <c r="N24">
-        <v>1.036470906634688</v>
+        <v>1.020065949895073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030263083479473</v>
+        <v>0.998266745248517</v>
       </c>
       <c r="D25">
-        <v>1.054906889281473</v>
+        <v>1.042366385984322</v>
       </c>
       <c r="E25">
-        <v>1.030015789492793</v>
+        <v>1.005355297006836</v>
       </c>
       <c r="F25">
-        <v>1.059339050032667</v>
+        <v>1.040044636752782</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042851451282159</v>
+        <v>1.050353918432445</v>
       </c>
       <c r="J25">
-        <v>1.035889430745813</v>
+        <v>1.022852581456085</v>
       </c>
       <c r="K25">
-        <v>1.057900557406811</v>
+        <v>1.054340783573151</v>
       </c>
       <c r="L25">
-        <v>1.03308660855538</v>
+        <v>1.017871043850892</v>
       </c>
       <c r="M25">
-        <v>1.06231939500786</v>
+        <v>1.052051562696613</v>
       </c>
       <c r="N25">
-        <v>1.037360512555651</v>
+        <v>1.024305149444584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00404588743628</v>
+        <v>1.008457587518437</v>
       </c>
       <c r="D2">
-        <v>1.046627165567334</v>
+        <v>1.034964435027302</v>
       </c>
       <c r="E2">
-        <v>1.009914832703366</v>
+        <v>1.021952560027592</v>
       </c>
       <c r="F2">
-        <v>1.045038185744507</v>
+        <v>1.029420327857263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052058030991965</v>
+        <v>1.047870014350031</v>
       </c>
       <c r="J2">
-        <v>1.026106256463352</v>
+        <v>1.030388243104343</v>
       </c>
       <c r="K2">
-        <v>1.057472993183693</v>
+        <v>1.045957237865747</v>
       </c>
       <c r="L2">
-        <v>1.021237744925686</v>
+        <v>1.033114303318361</v>
       </c>
       <c r="M2">
-        <v>1.055903797321059</v>
+        <v>1.040484459418298</v>
       </c>
       <c r="N2">
-        <v>1.027563445043562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013511862656352</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040613124538606</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043566022292123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008130552016279</v>
+        <v>1.013053851138393</v>
       </c>
       <c r="D3">
-        <v>1.049646093939822</v>
+        <v>1.036814446664165</v>
       </c>
       <c r="E3">
-        <v>1.013150787603363</v>
+        <v>1.025613145324076</v>
       </c>
       <c r="F3">
-        <v>1.048579556457317</v>
+        <v>1.032903670919086</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053246264990532</v>
+        <v>1.048756429512855</v>
       </c>
       <c r="J3">
-        <v>1.028401997519593</v>
+        <v>1.033194871925692</v>
       </c>
       <c r="K3">
-        <v>1.059680833566506</v>
+        <v>1.046996990285602</v>
       </c>
       <c r="L3">
-        <v>1.023618122027558</v>
+        <v>1.035928463339061</v>
       </c>
       <c r="M3">
-        <v>1.058626411204674</v>
+        <v>1.043132165621261</v>
       </c>
       <c r="N3">
-        <v>1.029862446315428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014500541097769</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042708603108917</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044298557779857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010724699676314</v>
+        <v>1.015965863876573</v>
       </c>
       <c r="D4">
-        <v>1.051566402676444</v>
+        <v>1.037995301391958</v>
       </c>
       <c r="E4">
-        <v>1.015211812035179</v>
+        <v>1.027938587553756</v>
       </c>
       <c r="F4">
-        <v>1.050833807320027</v>
+        <v>1.035119894221313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053993142471855</v>
+        <v>1.049310077221064</v>
       </c>
       <c r="J4">
-        <v>1.029857989000879</v>
+        <v>1.034969794710271</v>
       </c>
       <c r="K4">
-        <v>1.061079888384932</v>
+        <v>1.047655803489772</v>
       </c>
       <c r="L4">
-        <v>1.02513004620095</v>
+        <v>1.037711118158531</v>
       </c>
       <c r="M4">
-        <v>1.060355110510399</v>
+        <v>1.044812154144826</v>
       </c>
       <c r="N4">
-        <v>1.031320505471623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015125209646393</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044038196113167</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044765277381225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011803949807728</v>
+        <v>1.017176733385975</v>
       </c>
       <c r="D5">
-        <v>1.052365972359948</v>
+        <v>1.038493799771793</v>
       </c>
       <c r="E5">
-        <v>1.016070640071032</v>
+        <v>1.028907177965699</v>
       </c>
       <c r="F5">
-        <v>1.051772828883847</v>
+        <v>1.036043612146553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054301968071735</v>
+        <v>1.049540185327688</v>
       </c>
       <c r="J5">
-        <v>1.030463215469388</v>
+        <v>1.035707390060924</v>
       </c>
       <c r="K5">
-        <v>1.061661137332134</v>
+        <v>1.047935292663795</v>
       </c>
       <c r="L5">
-        <v>1.025759063402303</v>
+        <v>1.038452623804265</v>
       </c>
       <c r="M5">
-        <v>1.061074154054272</v>
+        <v>1.045511449386353</v>
       </c>
       <c r="N5">
-        <v>1.031926591431138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015385072275906</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044591638501559</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044970019215524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011984506965373</v>
+        <v>1.01738043096911</v>
       </c>
       <c r="D6">
-        <v>1.052499776272919</v>
+        <v>1.038584402109461</v>
       </c>
       <c r="E6">
-        <v>1.016214400608703</v>
+        <v>1.029070418559722</v>
       </c>
       <c r="F6">
-        <v>1.051929993750768</v>
+        <v>1.036199112300473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054353521464364</v>
+        <v>1.049581016397034</v>
       </c>
       <c r="J6">
-        <v>1.030564438073697</v>
+        <v>1.035831868332937</v>
       </c>
       <c r="K6">
-        <v>1.061758330816468</v>
+        <v>1.047989076652852</v>
       </c>
       <c r="L6">
-        <v>1.025864296718033</v>
+        <v>1.03857778655979</v>
       </c>
       <c r="M6">
-        <v>1.061194438717894</v>
+        <v>1.045629316496236</v>
       </c>
       <c r="N6">
-        <v>1.032027957783155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015429429906199</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044684921884721</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045016734827723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010739164697628</v>
+        <v>1.015985339194505</v>
       </c>
       <c r="D7">
-        <v>1.051577116664614</v>
+        <v>1.038021041069727</v>
       </c>
       <c r="E7">
-        <v>1.015223317395018</v>
+        <v>1.027954752058869</v>
       </c>
       <c r="F7">
-        <v>1.050846388293163</v>
+        <v>1.035134701040865</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053997289163335</v>
+        <v>1.049319757897977</v>
       </c>
       <c r="J7">
-        <v>1.029866102821945</v>
+        <v>1.03498284822883</v>
       </c>
       <c r="K7">
-        <v>1.061087682014419</v>
+        <v>1.047678404956184</v>
       </c>
       <c r="L7">
-        <v>1.025138476831614</v>
+        <v>1.037724208169329</v>
       </c>
       <c r="M7">
-        <v>1.060364748405366</v>
+        <v>1.044823931360204</v>
       </c>
       <c r="N7">
-        <v>1.031328630815245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015131204354553</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044047516943979</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044801235024877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005436677765548</v>
+        <v>1.010028026196128</v>
       </c>
       <c r="D8">
-        <v>1.047654414848955</v>
+        <v>1.035616495804656</v>
       </c>
       <c r="E8">
-        <v>1.011015388643695</v>
+        <v>1.023202757185212</v>
       </c>
       <c r="F8">
-        <v>1.046242877573315</v>
+        <v>1.030608528423377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052464216517684</v>
+        <v>1.048181786621847</v>
       </c>
       <c r="J8">
-        <v>1.026888340456533</v>
+        <v>1.031349282558863</v>
       </c>
       <c r="K8">
-        <v>1.058225366101854</v>
+        <v>1.046334699565103</v>
       </c>
       <c r="L8">
-        <v>1.022048188514775</v>
+        <v>1.034077343487422</v>
       </c>
       <c r="M8">
-        <v>1.056830877492031</v>
+        <v>1.041389254855036</v>
       </c>
       <c r="N8">
-        <v>1.028346639685721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01385235320573</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041329208994385</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043855665064285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957006178168391</v>
+        <v>0.9990252270944304</v>
       </c>
       <c r="D9">
-        <v>1.040478637690753</v>
+        <v>1.031220557210068</v>
       </c>
       <c r="E9">
-        <v>1.003337606976099</v>
+        <v>1.014477098498138</v>
       </c>
       <c r="F9">
-        <v>1.037833703767152</v>
+        <v>1.022325618479876</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049589489950504</v>
+        <v>1.046009235093159</v>
       </c>
       <c r="J9">
-        <v>1.021406117232248</v>
+        <v>1.024612454125325</v>
       </c>
       <c r="K9">
-        <v>1.052947423819861</v>
+        <v>1.043826625972507</v>
       </c>
       <c r="L9">
-        <v>1.01637676494012</v>
+        <v>1.027339581741307</v>
       </c>
       <c r="M9">
-        <v>1.050341392595679</v>
+        <v>1.03506657278286</v>
       </c>
       <c r="N9">
-        <v>1.022856631075637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011474651584471</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03632521838277</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042079169986967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889197127468902</v>
+        <v>0.9914479866009451</v>
       </c>
       <c r="D10">
-        <v>1.035503455210197</v>
+        <v>1.028233749270221</v>
       </c>
       <c r="E10">
-        <v>0.9980258039086674</v>
+        <v>1.008551635618451</v>
       </c>
       <c r="F10">
-        <v>1.032010313953967</v>
+        <v>1.016766753883231</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047549372226855</v>
+        <v>1.044493488387921</v>
       </c>
       <c r="J10">
-        <v>1.017579949944827</v>
+        <v>1.020005067343927</v>
       </c>
       <c r="K10">
-        <v>1.049259966016416</v>
+        <v>1.042111283670994</v>
       </c>
       <c r="L10">
-        <v>1.012430794796734</v>
+        <v>1.022768185384809</v>
       </c>
       <c r="M10">
-        <v>1.045824703304411</v>
+        <v>1.030839737553547</v>
       </c>
       <c r="N10">
-        <v>1.019025030191801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009857163372817</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033031714861871</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040883028662174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9859083569792046</v>
+        <v>0.9891498325002978</v>
       </c>
       <c r="D11">
-        <v>1.033300395529502</v>
+        <v>1.027199517406358</v>
       </c>
       <c r="E11">
-        <v>0.9956759490521347</v>
+        <v>1.007133931209212</v>
       </c>
       <c r="F11">
-        <v>1.02943303926482</v>
+        <v>1.015819909388749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046634946817644</v>
+        <v>1.044172787066078</v>
       </c>
       <c r="J11">
-        <v>1.015879346643729</v>
+        <v>1.018981062619676</v>
       </c>
       <c r="K11">
-        <v>1.047620500984086</v>
+        <v>1.041626094942907</v>
       </c>
       <c r="L11">
-        <v>1.010679873957576</v>
+        <v>1.021922554484408</v>
       </c>
       <c r="M11">
-        <v>1.043820447858381</v>
+        <v>1.030449527362334</v>
       </c>
       <c r="N11">
-        <v>1.017322011838953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009590484862454</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033161807173748</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040572586289941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9847779341746917</v>
+        <v>0.9887142329879407</v>
       </c>
       <c r="D12">
-        <v>1.032474448224364</v>
+        <v>1.026905623280246</v>
       </c>
       <c r="E12">
-        <v>0.9947952670404941</v>
+        <v>1.007073349527496</v>
       </c>
       <c r="F12">
-        <v>1.028466979157222</v>
+        <v>1.016036818477974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046290469443583</v>
+        <v>1.044191721733103</v>
       </c>
       <c r="J12">
-        <v>1.015240788845811</v>
+        <v>1.019004027579068</v>
       </c>
       <c r="K12">
-        <v>1.04700485860741</v>
+        <v>1.041534891173274</v>
       </c>
       <c r="L12">
-        <v>1.01002286548547</v>
+        <v>1.022066278506718</v>
       </c>
       <c r="M12">
-        <v>1.043068389750358</v>
+        <v>1.030863095354796</v>
       </c>
       <c r="N12">
-        <v>1.016682547215718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009674382938131</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03381701280514</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040508103176219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850209605538167</v>
+        <v>0.9896852850150839</v>
       </c>
       <c r="D13">
-        <v>1.03265196721906</v>
+        <v>1.027180910560979</v>
       </c>
       <c r="E13">
-        <v>0.9949845371383869</v>
+        <v>1.008056224408596</v>
       </c>
       <c r="F13">
-        <v>1.028674604356592</v>
+        <v>1.017177394494008</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046364581681535</v>
+        <v>1.044482892430459</v>
       </c>
       <c r="J13">
-        <v>1.015378077763755</v>
+        <v>1.019838445462654</v>
       </c>
       <c r="K13">
-        <v>1.047137222021076</v>
+        <v>1.041762908450956</v>
       </c>
       <c r="L13">
-        <v>1.010164101204499</v>
+        <v>1.022987169349506</v>
       </c>
       <c r="M13">
-        <v>1.043230057199002</v>
+        <v>1.031939784861166</v>
       </c>
       <c r="N13">
-        <v>1.016820031099673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010036506851685</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03494613560008</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040666842585374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9858151615065412</v>
+        <v>0.9909943734857195</v>
       </c>
       <c r="D14">
-        <v>1.033232280000874</v>
+        <v>1.027634128649821</v>
       </c>
       <c r="E14">
-        <v>0.9956033137067593</v>
+        <v>1.009208478287829</v>
       </c>
       <c r="F14">
-        <v>1.029353365090272</v>
+        <v>1.018386281869873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046606571449568</v>
+        <v>1.044808619127791</v>
       </c>
       <c r="J14">
-        <v>1.01582670530776</v>
+        <v>1.020782853250507</v>
       </c>
       <c r="K14">
-        <v>1.047569749374398</v>
+        <v>1.042069378392622</v>
       </c>
       <c r="L14">
-        <v>1.010625702564014</v>
+        <v>1.02397554468113</v>
       </c>
       <c r="M14">
-        <v>1.043758439108661</v>
+        <v>1.032986119978407</v>
       </c>
       <c r="N14">
-        <v>1.017269295746248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010413395821572</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035947107995711</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040884937714714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9863029040282218</v>
+        <v>0.9916248689483512</v>
       </c>
       <c r="D15">
-        <v>1.033588809012573</v>
+        <v>1.027874690949221</v>
       </c>
       <c r="E15">
-        <v>0.9959835122616538</v>
+        <v>1.009726565134293</v>
       </c>
       <c r="F15">
-        <v>1.029770401507341</v>
+        <v>1.018899934663339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046755025952902</v>
+        <v>1.04495079971669</v>
       </c>
       <c r="J15">
-        <v>1.016102199157088</v>
+        <v>1.021197036262695</v>
       </c>
       <c r="K15">
-        <v>1.047835352037843</v>
+        <v>1.04222028652858</v>
       </c>
       <c r="L15">
-        <v>1.010909221917246</v>
+        <v>1.024396432848681</v>
       </c>
       <c r="M15">
-        <v>1.044082977781878</v>
+        <v>1.033404017212802</v>
       </c>
       <c r="N15">
-        <v>1.017545180828443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010568825231177</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036315048123022</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040997460301355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891179341897267</v>
+        <v>0.9946378605554397</v>
       </c>
       <c r="D16">
-        <v>1.035648611766379</v>
+        <v>1.029082586675012</v>
       </c>
       <c r="E16">
-        <v>0.9981806765298769</v>
+        <v>1.012041403792405</v>
       </c>
       <c r="F16">
-        <v>1.032180153863289</v>
+        <v>1.021059828542673</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04760939256679</v>
+        <v>1.045545486930722</v>
       </c>
       <c r="J16">
-        <v>1.017691865176123</v>
+        <v>1.022988379123001</v>
       </c>
       <c r="K16">
-        <v>1.049367850075417</v>
+        <v>1.042910680023235</v>
       </c>
       <c r="L16">
-        <v>1.012546082712931</v>
+        <v>1.026160548618903</v>
       </c>
       <c r="M16">
-        <v>1.045956671934674</v>
+        <v>1.035023381827777</v>
       </c>
       <c r="N16">
-        <v>1.019137104355562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011183618740165</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037556178057482</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041488733103678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9908632048886551</v>
+        <v>0.9962654104750163</v>
       </c>
       <c r="D17">
-        <v>1.036927403515303</v>
+        <v>1.029775413561106</v>
       </c>
       <c r="E17">
-        <v>0.9995453180587602</v>
+        <v>1.013215646479124</v>
       </c>
       <c r="F17">
-        <v>1.033676554282524</v>
+        <v>1.022079816262053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048136896693313</v>
+        <v>1.045829776562288</v>
       </c>
       <c r="J17">
-        <v>1.018677081852512</v>
+        <v>1.023867863814068</v>
       </c>
       <c r="K17">
-        <v>1.05031752508163</v>
+        <v>1.04328076461625</v>
       </c>
       <c r="L17">
-        <v>1.013561324195873</v>
+        <v>1.026995858553407</v>
       </c>
       <c r="M17">
-        <v>1.047118798376251</v>
+        <v>1.03571147367774</v>
       </c>
       <c r="N17">
-        <v>1.020123720152638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011457716637372</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037970724132597</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041752965217715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9918739788417107</v>
+        <v>0.9968331056291074</v>
       </c>
       <c r="D18">
-        <v>1.037668616731441</v>
+        <v>1.030073687405509</v>
       </c>
       <c r="E18">
-        <v>1.000336509780195</v>
+        <v>1.013479039358195</v>
       </c>
       <c r="F18">
-        <v>1.034544030754643</v>
+        <v>1.022150763956446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04844159690045</v>
+        <v>1.04586316670163</v>
       </c>
       <c r="J18">
-        <v>1.019247531930991</v>
+        <v>1.024016290612623</v>
       </c>
       <c r="K18">
-        <v>1.050867344969923</v>
+        <v>1.043392744490439</v>
       </c>
       <c r="L18">
-        <v>1.014149437154068</v>
+        <v>1.027069093633764</v>
       </c>
       <c r="M18">
-        <v>1.047791988884839</v>
+        <v>1.035597795000013</v>
       </c>
       <c r="N18">
-        <v>1.020694980335659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011451970895295</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037642517714659</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041820586722609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9922174201213652</v>
+        <v>0.9964514707887721</v>
       </c>
       <c r="D19">
-        <v>1.037920565724078</v>
+        <v>1.030045149704383</v>
       </c>
       <c r="E19">
-        <v>1.000605485370275</v>
+        <v>1.012921935453638</v>
       </c>
       <c r="F19">
-        <v>1.034838921673253</v>
+        <v>1.02135781799212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04854499022658</v>
+        <v>1.04568465032225</v>
       </c>
       <c r="J19">
-        <v>1.019441335085669</v>
+        <v>1.023513795269688</v>
       </c>
       <c r="K19">
-        <v>1.051054129548997</v>
+        <v>1.043302788693814</v>
       </c>
       <c r="L19">
-        <v>1.014349288166241</v>
+        <v>1.026457918234464</v>
       </c>
       <c r="M19">
-        <v>1.048020748229436</v>
+        <v>1.03475517435663</v>
       </c>
       <c r="N19">
-        <v>1.020889058713047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011204315547465</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03664961124129</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04176333425177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9906767039771303</v>
+        <v>0.9934275440127451</v>
       </c>
       <c r="D20">
-        <v>1.036790687942488</v>
+        <v>1.029052445539194</v>
       </c>
       <c r="E20">
-        <v>0.9993994019381459</v>
+        <v>1.010100716517612</v>
       </c>
       <c r="F20">
-        <v>1.033516560557622</v>
+        <v>1.018219745968249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048080610239407</v>
+        <v>1.044906805994536</v>
       </c>
       <c r="J20">
-        <v>1.018571814944873</v>
+        <v>1.021214195135482</v>
       </c>
       <c r="K20">
-        <v>1.050216060737837</v>
+        <v>1.042602980593593</v>
       </c>
       <c r="L20">
-        <v>1.013452820366271</v>
+        <v>1.023968252173963</v>
       </c>
       <c r="M20">
-        <v>1.046994597152602</v>
+        <v>1.031949614109792</v>
       </c>
       <c r="N20">
-        <v>1.020018303753915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010286451675984</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033899452540566</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04127243706854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9855816216348344</v>
+        <v>0.9875148869211197</v>
       </c>
       <c r="D21">
-        <v>1.033061605592617</v>
+        <v>1.0267611091594</v>
       </c>
       <c r="E21">
-        <v>0.9954213188695641</v>
+        <v>1.005420250279231</v>
       </c>
       <c r="F21">
-        <v>1.029153731518427</v>
+        <v>1.01376029918165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046535445819474</v>
+        <v>1.043681643582582</v>
       </c>
       <c r="J21">
-        <v>1.015694787965822</v>
+        <v>1.017544041675779</v>
       </c>
       <c r="K21">
-        <v>1.047442567079146</v>
+        <v>1.041252622134144</v>
       </c>
       <c r="L21">
-        <v>1.010489958098988</v>
+        <v>1.020299656865969</v>
       </c>
       <c r="M21">
-        <v>1.043603055795272</v>
+        <v>1.028485585184324</v>
       </c>
       <c r="N21">
-        <v>1.017137191066554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008980221518277</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031116758313781</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040320890503059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9823091458192238</v>
+        <v>0.9837683762714398</v>
       </c>
       <c r="D22">
-        <v>1.030672658354084</v>
+        <v>1.025296177083079</v>
       </c>
       <c r="E22">
-        <v>0.9928745799451737</v>
+        <v>1.002485634859885</v>
       </c>
       <c r="F22">
-        <v>1.026359846792377</v>
+        <v>1.010992868110271</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045535974164932</v>
+        <v>1.042900983145528</v>
       </c>
       <c r="J22">
-        <v>1.013845935948607</v>
+        <v>1.015237901054896</v>
       </c>
       <c r="K22">
-        <v>1.045660026643835</v>
+        <v>1.040382633691846</v>
       </c>
       <c r="L22">
-        <v>1.008588526797817</v>
+        <v>1.018008011136935</v>
       </c>
       <c r="M22">
-        <v>1.04142659261771</v>
+        <v>1.026349654982736</v>
       </c>
       <c r="N22">
-        <v>1.015285713467408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008162382381433</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029426288325071</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039692368902769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9840506891812545</v>
+        <v>0.9857606778026192</v>
       </c>
       <c r="D23">
-        <v>1.031943392469815</v>
+        <v>1.026058460007124</v>
       </c>
       <c r="E23">
-        <v>0.9942290981548071</v>
+        <v>1.004044549702006</v>
       </c>
       <c r="F23">
-        <v>1.027845884482586</v>
+        <v>1.012463123769962</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046068518174399</v>
+        <v>1.043311887054043</v>
       </c>
       <c r="J23">
-        <v>1.014829935927232</v>
+        <v>1.016463512389396</v>
       </c>
       <c r="K23">
-        <v>1.046608742614648</v>
+        <v>1.040829503270531</v>
       </c>
       <c r="L23">
-        <v>1.00960026644954</v>
+        <v>1.019225342169403</v>
       </c>
       <c r="M23">
-        <v>1.042584659352415</v>
+        <v>1.027484472556531</v>
       </c>
       <c r="N23">
-        <v>1.01627111083887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008595458857122</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030324433847027</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039998757703459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9907609979595992</v>
+        <v>0.9934175074874524</v>
       </c>
       <c r="D24">
-        <v>1.036852478279503</v>
+        <v>1.029038688535453</v>
       </c>
       <c r="E24">
-        <v>0.999465349900121</v>
+        <v>1.010056074593815</v>
       </c>
       <c r="F24">
-        <v>1.033588871337038</v>
+        <v>1.018140411006443</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048106052875441</v>
+        <v>1.044883863157342</v>
       </c>
       <c r="J24">
-        <v>1.018619393518998</v>
+        <v>1.021171320996048</v>
       </c>
       <c r="K24">
-        <v>1.05026192078928</v>
+        <v>1.042574346355463</v>
       </c>
       <c r="L24">
-        <v>1.013501861103268</v>
+        <v>1.023908866084272</v>
       </c>
       <c r="M24">
-        <v>1.047050732713052</v>
+        <v>1.031856277696556</v>
       </c>
       <c r="N24">
-        <v>1.020065949895073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010260849140386</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033784465676696</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041224983576272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.998266745248517</v>
+        <v>1.001937472004647</v>
       </c>
       <c r="D25">
-        <v>1.042366385984322</v>
+        <v>1.032402232593141</v>
       </c>
       <c r="E25">
-        <v>1.005355297006836</v>
+        <v>1.01678132048859</v>
       </c>
       <c r="F25">
-        <v>1.040044636752782</v>
+        <v>1.024508750668729</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050353918432445</v>
+        <v>1.046600049189839</v>
       </c>
       <c r="J25">
-        <v>1.022852581456085</v>
+        <v>1.026399807953475</v>
       </c>
       <c r="K25">
-        <v>1.054340783573151</v>
+        <v>1.044517538716469</v>
       </c>
       <c r="L25">
-        <v>1.017871043850892</v>
+        <v>1.029124596041238</v>
       </c>
       <c r="M25">
-        <v>1.052051562696613</v>
+        <v>1.036738150835683</v>
       </c>
       <c r="N25">
-        <v>1.024305149444584</v>
+        <v>1.01210840990822</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03764816682581</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042596062724395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008457587518437</v>
+        <v>1.008534401029686</v>
       </c>
       <c r="D2">
-        <v>1.034964435027302</v>
+        <v>1.032453220902021</v>
       </c>
       <c r="E2">
-        <v>1.021952560027592</v>
+        <v>1.022017828940218</v>
       </c>
       <c r="F2">
-        <v>1.029420327857263</v>
+        <v>1.029472155265752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047870014350031</v>
+        <v>1.04707289763786</v>
       </c>
       <c r="J2">
-        <v>1.030388243104343</v>
+        <v>1.030462811922704</v>
       </c>
       <c r="K2">
-        <v>1.045957237865747</v>
+        <v>1.043478213546185</v>
       </c>
       <c r="L2">
-        <v>1.033114303318361</v>
+        <v>1.033178711347691</v>
       </c>
       <c r="M2">
-        <v>1.040484459418298</v>
+        <v>1.040535615580103</v>
       </c>
       <c r="N2">
-        <v>1.013511862656352</v>
+        <v>1.014859161910828</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040613124538606</v>
+        <v>1.04065361120327</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043566022292123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041821878831251</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023628739158474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013053851138393</v>
+        <v>1.01301326545025</v>
       </c>
       <c r="D3">
-        <v>1.036814446664165</v>
+        <v>1.034131632370763</v>
       </c>
       <c r="E3">
-        <v>1.025613145324076</v>
+        <v>1.02558284566733</v>
       </c>
       <c r="F3">
-        <v>1.032903670919086</v>
+        <v>1.032878674392671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048756429512855</v>
+        <v>1.047878992010042</v>
       </c>
       <c r="J3">
-        <v>1.033194871925692</v>
+        <v>1.03315535437704</v>
       </c>
       <c r="K3">
-        <v>1.046996990285602</v>
+        <v>1.044345652355128</v>
       </c>
       <c r="L3">
-        <v>1.035928463339061</v>
+        <v>1.035898527718647</v>
       </c>
       <c r="M3">
-        <v>1.043132165621261</v>
+        <v>1.043107464186528</v>
       </c>
       <c r="N3">
-        <v>1.014500541097769</v>
+        <v>1.015614552460467</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042708603108917</v>
+        <v>1.042689053638908</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044298557779857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042432301597554</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023761567581674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015965863876573</v>
+        <v>1.015851813572303</v>
       </c>
       <c r="D4">
-        <v>1.037995301391958</v>
+        <v>1.035203829662776</v>
       </c>
       <c r="E4">
-        <v>1.027938587553756</v>
+        <v>1.027848433072145</v>
       </c>
       <c r="F4">
-        <v>1.035119894221313</v>
+        <v>1.035046817506168</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049310077221064</v>
+        <v>1.048381760047987</v>
       </c>
       <c r="J4">
-        <v>1.034969794710271</v>
+        <v>1.034858540190137</v>
       </c>
       <c r="K4">
-        <v>1.047655803489772</v>
+        <v>1.044895159476207</v>
       </c>
       <c r="L4">
-        <v>1.037711118158531</v>
+        <v>1.037621980181439</v>
       </c>
       <c r="M4">
-        <v>1.044812154144826</v>
+        <v>1.044739887362495</v>
       </c>
       <c r="N4">
-        <v>1.015125209646393</v>
+        <v>1.016091980778883</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044038196113167</v>
+        <v>1.043981002077008</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044765277381225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042821820026623</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023843263744123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017176733385975</v>
+        <v>1.017032230140322</v>
       </c>
       <c r="D5">
-        <v>1.038493799771793</v>
+        <v>1.035656833085486</v>
       </c>
       <c r="E5">
-        <v>1.028907177965699</v>
+        <v>1.028792190239694</v>
       </c>
       <c r="F5">
-        <v>1.036043612146553</v>
+        <v>1.035950597859458</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049540185327688</v>
+        <v>1.048590578671437</v>
       </c>
       <c r="J5">
-        <v>1.035707390060924</v>
+        <v>1.035566321958071</v>
       </c>
       <c r="K5">
-        <v>1.047935292663795</v>
+        <v>1.045128842928618</v>
       </c>
       <c r="L5">
-        <v>1.038452623804265</v>
+        <v>1.038338897392537</v>
       </c>
       <c r="M5">
-        <v>1.045511449386353</v>
+        <v>1.045419438195963</v>
       </c>
       <c r="N5">
-        <v>1.015385072275906</v>
+        <v>1.016290589080123</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044591638501559</v>
+        <v>1.044518818220217</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044970019215524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042994894303249</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023878202350486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01738043096911</v>
+        <v>1.017230683948402</v>
       </c>
       <c r="D6">
-        <v>1.038584402109461</v>
+        <v>1.035739381684132</v>
       </c>
       <c r="E6">
-        <v>1.029070418559722</v>
+        <v>1.028951139308246</v>
       </c>
       <c r="F6">
-        <v>1.036199112300473</v>
+        <v>1.036102656387506</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049581016397034</v>
+        <v>1.048627665778223</v>
       </c>
       <c r="J6">
-        <v>1.035831868332937</v>
+        <v>1.035685662603105</v>
       </c>
       <c r="K6">
-        <v>1.047989076652852</v>
+        <v>1.045174522918172</v>
       </c>
       <c r="L6">
-        <v>1.03857778655979</v>
+        <v>1.038459809597805</v>
       </c>
       <c r="M6">
-        <v>1.045629316496236</v>
+        <v>1.045533895976461</v>
       </c>
       <c r="N6">
-        <v>1.015429429906199</v>
+        <v>1.016324447274012</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044684921884721</v>
+        <v>1.044609403372318</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045016734827723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043036758740701</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023885950822904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015985339194505</v>
+        <v>1.015883658757629</v>
       </c>
       <c r="D7">
-        <v>1.038021041069727</v>
+        <v>1.035230660171118</v>
       </c>
       <c r="E7">
-        <v>1.027954752058869</v>
+        <v>1.027875216218866</v>
       </c>
       <c r="F7">
-        <v>1.035134701040865</v>
+        <v>1.035070028576081</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049319757897977</v>
+        <v>1.048395170328718</v>
       </c>
       <c r="J7">
-        <v>1.03498284822883</v>
+        <v>1.03488365926824</v>
       </c>
       <c r="K7">
-        <v>1.047678404956184</v>
+        <v>1.044918827549444</v>
       </c>
       <c r="L7">
-        <v>1.037724208169329</v>
+        <v>1.037645568761832</v>
       </c>
       <c r="M7">
-        <v>1.044823931360204</v>
+        <v>1.044759975410178</v>
       </c>
       <c r="N7">
-        <v>1.015131204354553</v>
+        <v>1.016126645846425</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044047516943979</v>
+        <v>1.043996900343417</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044801235024877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042860553160184</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02384978396689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010028026196128</v>
+        <v>1.010105180088957</v>
       </c>
       <c r="D8">
-        <v>1.035616495804656</v>
+        <v>1.033054410410382</v>
       </c>
       <c r="E8">
-        <v>1.023202757185212</v>
+        <v>1.023270222411685</v>
       </c>
       <c r="F8">
-        <v>1.030608528423377</v>
+        <v>1.030661664386882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048181786621847</v>
+        <v>1.047370845406986</v>
       </c>
       <c r="J8">
-        <v>1.031349282558863</v>
+        <v>1.03142425892102</v>
       </c>
       <c r="K8">
-        <v>1.046334699565103</v>
+        <v>1.043804506500917</v>
       </c>
       <c r="L8">
-        <v>1.034077343487422</v>
+        <v>1.03414394600544</v>
       </c>
       <c r="M8">
-        <v>1.041389254855036</v>
+        <v>1.041441723458145</v>
       </c>
       <c r="N8">
-        <v>1.01385235320573</v>
+        <v>1.015211440038177</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041329208994385</v>
+        <v>1.041370734326937</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043855665064285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042077634286934</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023683576590836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9990252270944304</v>
+        <v>0.99939683528523</v>
       </c>
       <c r="D9">
-        <v>1.031220557210068</v>
+        <v>1.029072626112007</v>
       </c>
       <c r="E9">
-        <v>1.014477098498138</v>
+        <v>1.014784412076227</v>
       </c>
       <c r="F9">
-        <v>1.022325618479876</v>
+        <v>1.022571678392814</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046009235093159</v>
+        <v>1.04539389242432</v>
       </c>
       <c r="J9">
-        <v>1.024612454125325</v>
+        <v>1.024970910847108</v>
       </c>
       <c r="K9">
-        <v>1.043826625972507</v>
+        <v>1.04171099479574</v>
       </c>
       <c r="L9">
-        <v>1.027339581741307</v>
+        <v>1.027642091564777</v>
       </c>
       <c r="M9">
-        <v>1.03506657278286</v>
+        <v>1.035308861107223</v>
       </c>
       <c r="N9">
-        <v>1.011474651584471</v>
+        <v>1.013408108585594</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03632521838277</v>
+        <v>1.036516974439781</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042079169986967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04059396137315</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023346522918102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9914479866009451</v>
+        <v>0.992088799904262</v>
       </c>
       <c r="D10">
-        <v>1.028233749270221</v>
+        <v>1.026384806640747</v>
       </c>
       <c r="E10">
-        <v>1.008551635618451</v>
+        <v>1.00908077188962</v>
       </c>
       <c r="F10">
-        <v>1.016766753883231</v>
+        <v>1.017190714177852</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044493488387921</v>
+        <v>1.044034417845055</v>
       </c>
       <c r="J10">
-        <v>1.020005067343927</v>
+        <v>1.020619853224735</v>
       </c>
       <c r="K10">
-        <v>1.042111283670994</v>
+        <v>1.040293474379976</v>
       </c>
       <c r="L10">
-        <v>1.022768185384809</v>
+        <v>1.023287983232747</v>
       </c>
       <c r="M10">
-        <v>1.030839737553547</v>
+        <v>1.031256370180612</v>
       </c>
       <c r="N10">
-        <v>1.009857163372817</v>
+        <v>1.01231450003819</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033031714861871</v>
+        <v>1.03336143421587</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040883028662174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039610079428376</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023111384250262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9891498325002978</v>
+        <v>0.9899622074475192</v>
       </c>
       <c r="D11">
-        <v>1.027199517406358</v>
+        <v>1.025460405148306</v>
       </c>
       <c r="E11">
-        <v>1.007133931209212</v>
+        <v>1.007806751236768</v>
       </c>
       <c r="F11">
-        <v>1.015819909388749</v>
+        <v>1.016357972978088</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044172787066078</v>
+        <v>1.043793683697293</v>
       </c>
       <c r="J11">
-        <v>1.018981062619676</v>
+        <v>1.019758615711306</v>
       </c>
       <c r="K11">
-        <v>1.041626094942907</v>
+        <v>1.039917634459169</v>
       </c>
       <c r="L11">
-        <v>1.021922554484408</v>
+        <v>1.022582930227366</v>
       </c>
       <c r="M11">
-        <v>1.030449527362334</v>
+        <v>1.030977857405215</v>
       </c>
       <c r="N11">
-        <v>1.009590484862454</v>
+        <v>1.01238315926816</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033161807173748</v>
+        <v>1.033579710061633</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040572586289941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039380189099707</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023076286796847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9887142329879407</v>
+        <v>0.9895799498911708</v>
       </c>
       <c r="D12">
-        <v>1.026905623280246</v>
+        <v>1.025191663196669</v>
       </c>
       <c r="E12">
-        <v>1.007073349527496</v>
+        <v>1.007789996721894</v>
       </c>
       <c r="F12">
-        <v>1.016036818477974</v>
+        <v>1.016609597364726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044191721733103</v>
+        <v>1.043835547583536</v>
       </c>
       <c r="J12">
-        <v>1.019004027579068</v>
+        <v>1.019831946892579</v>
       </c>
       <c r="K12">
-        <v>1.041534891173274</v>
+        <v>1.03985163804727</v>
       </c>
       <c r="L12">
-        <v>1.022066278506718</v>
+        <v>1.022769459145729</v>
       </c>
       <c r="M12">
-        <v>1.030863095354796</v>
+        <v>1.031425355038385</v>
       </c>
       <c r="N12">
-        <v>1.009674382938131</v>
+        <v>1.01256688514525</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03381701280514</v>
+        <v>1.034261601575316</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040508103176219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039333528981773</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023083573107874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9896852850150839</v>
+        <v>0.9904960035337671</v>
       </c>
       <c r="D13">
-        <v>1.027180910560979</v>
+        <v>1.025422887100575</v>
       </c>
       <c r="E13">
-        <v>1.008056224408596</v>
+        <v>1.008725261231414</v>
       </c>
       <c r="F13">
-        <v>1.017177394494008</v>
+        <v>1.017712296691997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044482892430459</v>
+        <v>1.044099828671423</v>
       </c>
       <c r="J13">
-        <v>1.019838445462654</v>
+        <v>1.020613993432854</v>
       </c>
       <c r="K13">
-        <v>1.041762908450956</v>
+        <v>1.040036256211702</v>
       </c>
       <c r="L13">
-        <v>1.022987169349506</v>
+        <v>1.023643707517498</v>
       </c>
       <c r="M13">
-        <v>1.031939784861166</v>
+        <v>1.032464924408375</v>
       </c>
       <c r="N13">
-        <v>1.010036506851685</v>
+        <v>1.01281328002773</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03494613560008</v>
+        <v>1.03536126775754</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040666842585374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039461337439012</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023130024776027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9909943734857195</v>
+        <v>0.9917191157203143</v>
       </c>
       <c r="D14">
-        <v>1.027634128649821</v>
+        <v>1.025814546417483</v>
       </c>
       <c r="E14">
-        <v>1.009208478287829</v>
+        <v>1.009804544365037</v>
       </c>
       <c r="F14">
-        <v>1.018386281869873</v>
+        <v>1.018863154358872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044808619127791</v>
+        <v>1.044385070561256</v>
       </c>
       <c r="J14">
-        <v>1.020782853250507</v>
+        <v>1.021476646343236</v>
       </c>
       <c r="K14">
-        <v>1.042069378392622</v>
+        <v>1.040281876018106</v>
       </c>
       <c r="L14">
-        <v>1.02397554468113</v>
+        <v>1.024560629603797</v>
       </c>
       <c r="M14">
-        <v>1.032986119978407</v>
+        <v>1.033454410394506</v>
       </c>
       <c r="N14">
-        <v>1.010413395821572</v>
+        <v>1.013014072895761</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035947107995711</v>
+        <v>1.036317249800077</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040884937714714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039636546826955</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023181114174363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9916248689483512</v>
+        <v>0.9923067042738214</v>
       </c>
       <c r="D15">
-        <v>1.027874690949221</v>
+        <v>1.026025132509741</v>
       </c>
       <c r="E15">
-        <v>1.009726565134293</v>
+        <v>1.010286555123381</v>
       </c>
       <c r="F15">
-        <v>1.018899934663339</v>
+        <v>1.019348093049493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04495079971669</v>
+        <v>1.044507193041338</v>
       </c>
       <c r="J15">
-        <v>1.021197036262695</v>
+        <v>1.021850023325223</v>
       </c>
       <c r="K15">
-        <v>1.04222028652858</v>
+        <v>1.040403095896518</v>
       </c>
       <c r="L15">
-        <v>1.024396432848681</v>
+        <v>1.024946190132279</v>
       </c>
       <c r="M15">
-        <v>1.033404017212802</v>
+        <v>1.033844175536133</v>
       </c>
       <c r="N15">
-        <v>1.010568825231177</v>
+        <v>1.013082578284399</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036315048123022</v>
+        <v>1.03666294487814</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040997460301355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03972865368674</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023204105870589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9946378605554397</v>
+        <v>0.9951249127320264</v>
       </c>
       <c r="D16">
-        <v>1.029082586675012</v>
+        <v>1.027095220203072</v>
       </c>
       <c r="E16">
-        <v>1.012041403792405</v>
+        <v>1.012439227192229</v>
       </c>
       <c r="F16">
-        <v>1.021059828542673</v>
+        <v>1.021378695148743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045545486930722</v>
+        <v>1.045010146997626</v>
       </c>
       <c r="J16">
-        <v>1.022988379123001</v>
+        <v>1.023455887049483</v>
       </c>
       <c r="K16">
-        <v>1.042910680023235</v>
+        <v>1.040956614926251</v>
       </c>
       <c r="L16">
-        <v>1.026160548618903</v>
+        <v>1.026551432847219</v>
       </c>
       <c r="M16">
-        <v>1.035023381827777</v>
+        <v>1.035336812098626</v>
       </c>
       <c r="N16">
-        <v>1.011183618740165</v>
+        <v>1.013306594940085</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037556178057482</v>
+        <v>1.037803917436184</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.041488733103678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040123458725967</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023294894704917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9962654104750163</v>
+        <v>0.9966634640250176</v>
       </c>
       <c r="D17">
-        <v>1.029775413561106</v>
+        <v>1.027717441662665</v>
       </c>
       <c r="E17">
-        <v>1.013215646479124</v>
+        <v>1.013539978027103</v>
       </c>
       <c r="F17">
-        <v>1.022079816262053</v>
+        <v>1.022339999668923</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045829776562288</v>
+        <v>1.045250045179059</v>
       </c>
       <c r="J17">
-        <v>1.023867863814068</v>
+        <v>1.024250466971889</v>
       </c>
       <c r="K17">
-        <v>1.04328076461625</v>
+        <v>1.041256331673021</v>
       </c>
       <c r="L17">
-        <v>1.026995858553407</v>
+        <v>1.027314695524411</v>
       </c>
       <c r="M17">
-        <v>1.03571147367774</v>
+        <v>1.035967346766099</v>
       </c>
       <c r="N17">
-        <v>1.011457716637372</v>
+        <v>1.01340485866147</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037970724132597</v>
+        <v>1.038172989821236</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041752965217715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04033819090976</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023338084034849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9968331056291074</v>
+        <v>0.9972049830256094</v>
       </c>
       <c r="D18">
-        <v>1.030073687405509</v>
+        <v>1.027993143351642</v>
       </c>
       <c r="E18">
-        <v>1.013479039358195</v>
+        <v>1.013782218028154</v>
       </c>
       <c r="F18">
-        <v>1.022150763956446</v>
+        <v>1.022394040335285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04586316670163</v>
+        <v>1.045269057704908</v>
       </c>
       <c r="J18">
-        <v>1.024016290612623</v>
+        <v>1.024374000182916</v>
       </c>
       <c r="K18">
-        <v>1.043392744490439</v>
+        <v>1.041345561128427</v>
       </c>
       <c r="L18">
-        <v>1.027069093633764</v>
+        <v>1.027367218792121</v>
       </c>
       <c r="M18">
-        <v>1.035597795000013</v>
+        <v>1.035837103964816</v>
       </c>
       <c r="N18">
-        <v>1.011451970895295</v>
+        <v>1.013352588297674</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037642517714659</v>
+        <v>1.037831729212702</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041820586722609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04038858272597</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023338830703278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9964514707887721</v>
+        <v>0.9968419475443863</v>
       </c>
       <c r="D19">
-        <v>1.030045149704383</v>
+        <v>1.027980417362506</v>
       </c>
       <c r="E19">
-        <v>1.012921935453638</v>
+        <v>1.01324106207491</v>
       </c>
       <c r="F19">
-        <v>1.02135781799212</v>
+        <v>1.021613892453773</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04568465032225</v>
+        <v>1.045098609158722</v>
       </c>
       <c r="J19">
-        <v>1.023513795269688</v>
+        <v>1.023889467091817</v>
       </c>
       <c r="K19">
-        <v>1.043302788693814</v>
+        <v>1.041270988930592</v>
       </c>
       <c r="L19">
-        <v>1.026457918234464</v>
+        <v>1.026771746576398</v>
       </c>
       <c r="M19">
-        <v>1.03475517435663</v>
+        <v>1.035007086746927</v>
       </c>
       <c r="N19">
-        <v>1.011204315547465</v>
+        <v>1.013150308314931</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03664961124129</v>
+        <v>1.036848853242616</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04176333425177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040342836606143</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023309200741906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934275440127451</v>
+        <v>0.9939579744892647</v>
       </c>
       <c r="D20">
-        <v>1.029052445539194</v>
+        <v>1.027113380224904</v>
       </c>
       <c r="E20">
-        <v>1.010100716517612</v>
+        <v>1.010537101285907</v>
       </c>
       <c r="F20">
-        <v>1.018219745968249</v>
+        <v>1.018569743544978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044906805994536</v>
+        <v>1.0443918532062</v>
       </c>
       <c r="J20">
-        <v>1.021214195135482</v>
+        <v>1.021723809476282</v>
       </c>
       <c r="K20">
-        <v>1.042602980593593</v>
+        <v>1.040695658673111</v>
       </c>
       <c r="L20">
-        <v>1.023968252173963</v>
+        <v>1.024397164849512</v>
       </c>
       <c r="M20">
-        <v>1.031949614109792</v>
+        <v>1.032293740682968</v>
       </c>
       <c r="N20">
-        <v>1.010286451675984</v>
+        <v>1.012523811872207</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033899452540566</v>
+        <v>1.034171794465884</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04127243706854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039940337797122</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023183466616316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9875148869211197</v>
+        <v>0.9884501035220361</v>
       </c>
       <c r="D21">
-        <v>1.0267611091594</v>
+        <v>1.025100857408667</v>
       </c>
       <c r="E21">
-        <v>1.005420250279231</v>
+        <v>1.006199448149575</v>
       </c>
       <c r="F21">
-        <v>1.01376029918165</v>
+        <v>1.014383172671866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043681643582582</v>
+        <v>1.043357877100439</v>
       </c>
       <c r="J21">
-        <v>1.017544041675779</v>
+        <v>1.018438786029604</v>
       </c>
       <c r="K21">
-        <v>1.041252622134144</v>
+        <v>1.039621795506339</v>
       </c>
       <c r="L21">
-        <v>1.020299656865969</v>
+        <v>1.021064314302597</v>
       </c>
       <c r="M21">
-        <v>1.028485585184324</v>
+        <v>1.029097080621636</v>
       </c>
       <c r="N21">
-        <v>1.008980221518277</v>
+        <v>1.012029817739265</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031116758313781</v>
+        <v>1.031600722194284</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040320890503059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039184604005743</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02300045621306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9837683762714398</v>
+        <v>0.9849638352729472</v>
       </c>
       <c r="D22">
-        <v>1.025296177083079</v>
+        <v>1.023815371737699</v>
       </c>
       <c r="E22">
-        <v>1.002485634859885</v>
+        <v>1.003486178528456</v>
       </c>
       <c r="F22">
-        <v>1.010992868110271</v>
+        <v>1.011791751067021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042900983145528</v>
+        <v>1.042701245215385</v>
       </c>
       <c r="J22">
-        <v>1.015237901054896</v>
+        <v>1.016378466787516</v>
       </c>
       <c r="K22">
-        <v>1.040382633691846</v>
+        <v>1.038929358019004</v>
       </c>
       <c r="L22">
-        <v>1.018008011136935</v>
+        <v>1.018988888452105</v>
       </c>
       <c r="M22">
-        <v>1.026349654982736</v>
+        <v>1.027133175306241</v>
       </c>
       <c r="N22">
-        <v>1.008162382381433</v>
+        <v>1.011720803056785</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029426288325071</v>
+        <v>1.030046401572569</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039692368902769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038680301243823</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02287949764627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9857606778026192</v>
+        <v>0.9867946851930699</v>
       </c>
       <c r="D23">
-        <v>1.026058460007124</v>
+        <v>1.024477781872775</v>
       </c>
       <c r="E23">
-        <v>1.004044549702006</v>
+        <v>1.004907107090829</v>
       </c>
       <c r="F23">
-        <v>1.012463123769962</v>
+        <v>1.013152442026457</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043311887054043</v>
+        <v>1.043038017129005</v>
       </c>
       <c r="J23">
-        <v>1.016463512389396</v>
+        <v>1.017451498226583</v>
       </c>
       <c r="K23">
-        <v>1.040829503270531</v>
+        <v>1.039277483189829</v>
       </c>
       <c r="L23">
-        <v>1.019225342169403</v>
+        <v>1.020071402407968</v>
       </c>
       <c r="M23">
-        <v>1.027484472556531</v>
+        <v>1.028160888654477</v>
       </c>
       <c r="N23">
-        <v>1.008595458857122</v>
+        <v>1.011836238784802</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030324433847027</v>
+        <v>1.03085977932988</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039998757703459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038915926951044</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022938104289473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934175074874524</v>
+        <v>0.9939485913141624</v>
       </c>
       <c r="D24">
-        <v>1.029038688535453</v>
+        <v>1.02710166478342</v>
       </c>
       <c r="E24">
-        <v>1.010056074593815</v>
+        <v>1.01049313020477</v>
       </c>
       <c r="F24">
-        <v>1.018140411006443</v>
+        <v>1.018490954239355</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044883863157342</v>
+        <v>1.044369616737309</v>
       </c>
       <c r="J24">
-        <v>1.021171320996048</v>
+        <v>1.021681591796363</v>
       </c>
       <c r="K24">
-        <v>1.042574346355463</v>
+        <v>1.040668993029597</v>
       </c>
       <c r="L24">
-        <v>1.023908866084272</v>
+        <v>1.024338446889293</v>
       </c>
       <c r="M24">
-        <v>1.031856277696556</v>
+        <v>1.032200947138761</v>
       </c>
       <c r="N24">
-        <v>1.010260849140386</v>
+        <v>1.012499874205825</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033784465676696</v>
+        <v>1.034057250950815</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041224983576272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039891580513525</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023173563705061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001937472004647</v>
+        <v>1.002212915599082</v>
       </c>
       <c r="D25">
-        <v>1.032402232593141</v>
+        <v>1.030139021674773</v>
       </c>
       <c r="E25">
-        <v>1.01678132048859</v>
+        <v>1.017009470041758</v>
       </c>
       <c r="F25">
-        <v>1.024508750668729</v>
+        <v>1.024691312453974</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046600049189839</v>
+        <v>1.045926308959665</v>
       </c>
       <c r="J25">
-        <v>1.026399807953475</v>
+        <v>1.026666035123748</v>
       </c>
       <c r="K25">
-        <v>1.044517538716469</v>
+        <v>1.042286814243586</v>
       </c>
       <c r="L25">
-        <v>1.029124596041238</v>
+        <v>1.029349351946053</v>
       </c>
       <c r="M25">
-        <v>1.036738150835683</v>
+        <v>1.036918048644578</v>
       </c>
       <c r="N25">
-        <v>1.01210840990822</v>
+        <v>1.013852374463712</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03764816682581</v>
+        <v>1.0377905444318</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042596062724395</v>
+        <v>1.04103231116778</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023444527924529</v>
       </c>
     </row>
   </sheetData>
